--- a/data/nzd0394/nzd0394.xlsx
+++ b/data/nzd0394/nzd0394.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I405"/>
+  <dimension ref="A1:I409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13380,6 +13380,138 @@
       <c r="I405" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>354.68</v>
+      </c>
+      <c r="C406" t="n">
+        <v>353.2</v>
+      </c>
+      <c r="D406" t="n">
+        <v>348.9290909090909</v>
+      </c>
+      <c r="E406" t="n">
+        <v>335.0242857142857</v>
+      </c>
+      <c r="F406" t="n">
+        <v>328.29</v>
+      </c>
+      <c r="G406" t="n">
+        <v>347.7930769230769</v>
+      </c>
+      <c r="H406" t="n">
+        <v>352.96</v>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>365.38</v>
+      </c>
+      <c r="C407" t="n">
+        <v>357.16</v>
+      </c>
+      <c r="D407" t="n">
+        <v>352.73</v>
+      </c>
+      <c r="E407" t="n">
+        <v>341.42</v>
+      </c>
+      <c r="F407" t="n">
+        <v>332.5266666666666</v>
+      </c>
+      <c r="G407" t="n">
+        <v>348.5461538461539</v>
+      </c>
+      <c r="H407" t="n">
+        <v>386.62</v>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:44+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>359.77</v>
+      </c>
+      <c r="C408" t="n">
+        <v>354.32</v>
+      </c>
+      <c r="D408" t="n">
+        <v>356.7109090909091</v>
+      </c>
+      <c r="E408" t="n">
+        <v>341.3614285714286</v>
+      </c>
+      <c r="F408" t="n">
+        <v>333.3433333333334</v>
+      </c>
+      <c r="G408" t="n">
+        <v>354.7538461538461</v>
+      </c>
+      <c r="H408" t="n">
+        <v>357.94</v>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:17+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>344.99</v>
+      </c>
+      <c r="C409" t="n">
+        <v>343.08</v>
+      </c>
+      <c r="D409" t="n">
+        <v>340.3845454545454</v>
+      </c>
+      <c r="E409" t="n">
+        <v>335.4014285714285</v>
+      </c>
+      <c r="F409" t="n">
+        <v>323.74</v>
+      </c>
+      <c r="G409" t="n">
+        <v>334.4884615384615</v>
+      </c>
+      <c r="H409" t="n">
+        <v>354.57</v>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -13394,7 +13526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B413"/>
+  <dimension ref="A1:B417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17532,6 +17664,46 @@
       </c>
       <c r="B413" t="n">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>
@@ -17700,28 +17872,28 @@
         <v>0.045</v>
       </c>
       <c r="I2" t="n">
-        <v>1.356601553920909</v>
+        <v>1.344447212603505</v>
       </c>
       <c r="J2" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K2" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3126692784460329</v>
+        <v>0.3124599631925167</v>
       </c>
       <c r="M2" t="n">
-        <v>11.86853546118097</v>
+        <v>11.81519158617307</v>
       </c>
       <c r="N2" t="n">
-        <v>223.6557257743663</v>
+        <v>222.1447247414951</v>
       </c>
       <c r="O2" t="n">
-        <v>14.95512372982471</v>
+        <v>14.90452027881123</v>
       </c>
       <c r="P2" t="n">
-        <v>327.4206310959268</v>
+        <v>327.5405723802971</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -17777,28 +17949,28 @@
         <v>0.0599</v>
       </c>
       <c r="I3" t="n">
-        <v>1.600433968814338</v>
+        <v>1.604679103433904</v>
       </c>
       <c r="J3" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K3" t="n">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4825923133848196</v>
+        <v>0.4885559285011406</v>
       </c>
       <c r="M3" t="n">
-        <v>10.10247166617641</v>
+        <v>10.05376180927465</v>
       </c>
       <c r="N3" t="n">
-        <v>155.473899973723</v>
+        <v>154.190387208805</v>
       </c>
       <c r="O3" t="n">
-        <v>12.46891735371291</v>
+        <v>12.41734219584872</v>
       </c>
       <c r="P3" t="n">
-        <v>308.8607158198184</v>
+        <v>308.8202590308584</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -17854,28 +18026,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>1.566124077693913</v>
+        <v>1.565903812725913</v>
       </c>
       <c r="J4" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K4" t="n">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5129253924068748</v>
+        <v>0.5172670369349455</v>
       </c>
       <c r="M4" t="n">
-        <v>8.846762433746253</v>
+        <v>8.807812646293668</v>
       </c>
       <c r="N4" t="n">
-        <v>129.9049391045003</v>
+        <v>128.9512740816459</v>
       </c>
       <c r="O4" t="n">
-        <v>11.39758479259972</v>
+        <v>11.35567145005727</v>
       </c>
       <c r="P4" t="n">
-        <v>309.7993029389451</v>
+        <v>309.8015084509598</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -17931,28 +18103,28 @@
         <v>0.0864</v>
       </c>
       <c r="I5" t="n">
-        <v>1.186178579909196</v>
+        <v>1.182610470419243</v>
       </c>
       <c r="J5" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K5" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4591280147046636</v>
+        <v>0.4625304107098342</v>
       </c>
       <c r="M5" t="n">
-        <v>7.571593910664796</v>
+        <v>7.527524426448919</v>
       </c>
       <c r="N5" t="n">
-        <v>91.60028725074733</v>
+        <v>90.78694908569145</v>
       </c>
       <c r="O5" t="n">
-        <v>9.570803897831537</v>
+        <v>9.528218568320703</v>
       </c>
       <c r="P5" t="n">
-        <v>309.8363174038004</v>
+        <v>309.8707858278219</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -18008,28 +18180,28 @@
         <v>0.0868</v>
       </c>
       <c r="I6" t="n">
-        <v>1.027764946166547</v>
+        <v>1.016744933011199</v>
       </c>
       <c r="J6" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K6" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4329140784326726</v>
+        <v>0.4315758087258381</v>
       </c>
       <c r="M6" t="n">
-        <v>6.953129496205891</v>
+        <v>6.94299647301681</v>
       </c>
       <c r="N6" t="n">
-        <v>76.39703589137741</v>
+        <v>76.05221046488445</v>
       </c>
       <c r="O6" t="n">
-        <v>8.740539794050331</v>
+        <v>8.72079184850117</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6840774229086</v>
+        <v>308.7899152942356</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -18085,28 +18257,28 @@
         <v>0.07439999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1.034735746391829</v>
+        <v>1.029205710533108</v>
       </c>
       <c r="J7" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K7" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1217184751078384</v>
+        <v>0.1227696219858415</v>
       </c>
       <c r="M7" t="n">
-        <v>9.985979659115269</v>
+        <v>9.949482621480938</v>
       </c>
       <c r="N7" t="n">
-        <v>431.3305196164641</v>
+        <v>427.485715536726</v>
       </c>
       <c r="O7" t="n">
-        <v>20.76849825135328</v>
+        <v>20.67572769062134</v>
       </c>
       <c r="P7" t="n">
-        <v>322.7287753118118</v>
+        <v>322.7814690195736</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -18162,28 +18334,28 @@
         <v>0.0279</v>
       </c>
       <c r="I8" t="n">
-        <v>1.918296941797782</v>
+        <v>1.912271795717203</v>
       </c>
       <c r="J8" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K8" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3383916608947898</v>
+        <v>0.341040461387628</v>
       </c>
       <c r="M8" t="n">
-        <v>16.02986597582604</v>
+        <v>15.99964014319736</v>
       </c>
       <c r="N8" t="n">
-        <v>392.7408261898731</v>
+        <v>390.5754499449282</v>
       </c>
       <c r="O8" t="n">
-        <v>19.81768972887286</v>
+        <v>19.76298180804021</v>
       </c>
       <c r="P8" t="n">
-        <v>316.822652187812</v>
+        <v>316.8808540933372</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -18220,7 +18392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I405"/>
+  <dimension ref="A1:I409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36399,6 +36571,194 @@
         </is>
       </c>
     </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>-42.477441988190314,173.53193050554793</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>-42.477896051045946,173.53127599850808</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>-42.47833199859211,173.5305977413603</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>-42.47873070759962,173.52984733481995</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>-42.47926504147765,173.52926662288883</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>-42.479930528491366,173.5290681482338</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>-42.48059244085469,173.52900620225927</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>-42.47751051425207,173.5320220247335</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>-42.47792141223136,173.53130986920578</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>-42.47835593046189,173.53063080300228</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>-42.47876643406965,173.5299083683585</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>-42.479284197485946,173.52931119955488</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>-42.4799325330736,173.5290769010193</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>-42.48063283708968,173.5294120714284</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:07:44+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>-42.477474586111285,173.53197404128514</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>-42.477903223907504,173.53128557809657</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>-42.478380995664935,173.53066543037446</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>-42.47876610688972,173.52990780941803</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>-42.479287890026825,173.5293197922277</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>-42.479949057030254,173.52914905117208</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>-42.48059841757205,173.529066250607</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:17+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>-42.477379930411715,173.53184762526158</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>-42.47783123908095,173.53118944018271</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>-42.47827819907207,173.53052341799554</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>-42.47873281432113,173.52985093384734</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>-42.479244468719095,173.52921874947356</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>-42.47989511341184,173.52891351280093</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>-42.480594373090064,173.5290256154789</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0394/nzd0394.xlsx
+++ b/data/nzd0394/nzd0394.xlsx
@@ -17717,7 +17717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17808,35 +17808,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -17895,27 +17900,28 @@
       <c r="P2" t="n">
         <v>327.5405723802971</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.5288969714131 -42.47517046690273, 173.5365505528164 -42.48090102221658)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.5288969714131</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-42.47517046690273</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.5365505528164</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-42.48090102221658</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.5327237621148</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-42.47803574455966</v>
       </c>
     </row>
@@ -17972,27 +17978,28 @@
       <c r="P3" t="n">
         <v>308.8202590308584</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.52825511601242 -42.47563399692549, 173.5359086967156 -42.48136456669323)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.5282551160124</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-42.47563399692549</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.5359086967156</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-42.48136456669323</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.532081906364</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-42.47849928180936</v>
       </c>
     </row>
@@ -18049,27 +18056,28 @@
       <c r="P4" t="n">
         <v>309.8015084509598</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.52756274091382 -42.47613497581569, 173.5353463440662 -42.48176901649735)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.5275627409138</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-42.47613497581569</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.5353463440662</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-42.48176901649735</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.53145454249</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-42.47895199615652</v>
       </c>
     </row>
@@ -18126,27 +18134,28 @@
       <c r="P5" t="n">
         <v>309.8707858278219</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.526650334941 -42.47685921512521, 173.535190705255 -42.48185821307524)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.526650334941</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-42.47685921512521</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.535190705255</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-42.48185821307524</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.530920520098</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-42.47935871410023</v>
       </c>
     </row>
@@ -18203,27 +18212,28 @@
       <c r="P6" t="n">
         <v>308.7899152942356</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.52581255723248 -42.47778063107418, 173.5352303192501 -42.48182757183835)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.5258125572325</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-42.47778063107418</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.5352303192501</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-42.48182757183835</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.5305214382413</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-42.47980410145627</v>
       </c>
     </row>
@@ -18280,27 +18290,28 @@
       <c r="P7" t="n">
         <v>322.7814690195736</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.52502591347618 -42.479004681602724, 173.53543117532752 -42.4813875921987)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.5250259134762</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-42.47900468160272</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.5354311753275</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-42.4813875921987</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.5302285444018</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-42.48019613690072</v>
       </c>
     </row>
@@ -18357,27 +18368,28 @@
       <c r="P8" t="n">
         <v>316.8808540933372</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.52475027379555 -42.48016875770041, 173.53554597776318 -42.481243164401725)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.5247502737955</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-42.48016875770041</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.5355459777632</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-42.48124316440173</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.5301481257794</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-42.48070596105107</v>
       </c>
     </row>

--- a/data/nzd0394/nzd0394.xlsx
+++ b/data/nzd0394/nzd0394.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I409"/>
+  <dimension ref="A1:I411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13510,6 +13510,72 @@
         <v>354.57</v>
       </c>
       <c r="I409" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>366.46</v>
+      </c>
+      <c r="C410" t="n">
+        <v>357.55</v>
+      </c>
+      <c r="D410" t="n">
+        <v>358.4027272727272</v>
+      </c>
+      <c r="E410" t="n">
+        <v>344.1771428571428</v>
+      </c>
+      <c r="F410" t="n">
+        <v>335.39</v>
+      </c>
+      <c r="G410" t="n">
+        <v>358.9623076923077</v>
+      </c>
+      <c r="H410" t="n">
+        <v>364.47</v>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:48+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>360.62</v>
+      </c>
+      <c r="C411" t="n">
+        <v>355.87</v>
+      </c>
+      <c r="D411" t="n">
+        <v>355.37</v>
+      </c>
+      <c r="E411" t="n">
+        <v>338.8028571428572</v>
+      </c>
+      <c r="F411" t="n">
+        <v>333.7566666666667</v>
+      </c>
+      <c r="G411" t="n">
+        <v>357.1084615384615</v>
+      </c>
+      <c r="H411" t="n">
+        <v>353.83</v>
+      </c>
+      <c r="I411" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -13526,7 +13592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B417"/>
+  <dimension ref="A1:B419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17704,6 +17770,26 @@
       </c>
       <c r="B417" t="n">
         <v>-0.03</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>-0.55</v>
       </c>
     </row>
   </sheetData>
@@ -17877,28 +17963,28 @@
         <v>0.045</v>
       </c>
       <c r="I2" t="n">
-        <v>1.344447212603505</v>
+        <v>1.345905159758432</v>
       </c>
       <c r="J2" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K2" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3124599631925167</v>
+        <v>0.3151948398710402</v>
       </c>
       <c r="M2" t="n">
-        <v>11.81519158617307</v>
+        <v>11.76623504948255</v>
       </c>
       <c r="N2" t="n">
-        <v>222.1447247414951</v>
+        <v>220.9588436647489</v>
       </c>
       <c r="O2" t="n">
-        <v>14.90452027881123</v>
+        <v>14.86468444551545</v>
       </c>
       <c r="P2" t="n">
-        <v>327.5405723802971</v>
+        <v>327.5261803746171</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17955,28 +18041,28 @@
         <v>0.0599</v>
       </c>
       <c r="I3" t="n">
-        <v>1.604679103433904</v>
+        <v>1.611104282003806</v>
       </c>
       <c r="J3" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K3" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4885559285011406</v>
+        <v>0.4927887147046007</v>
       </c>
       <c r="M3" t="n">
-        <v>10.05376180927465</v>
+        <v>10.03355250127986</v>
       </c>
       <c r="N3" t="n">
-        <v>154.190387208805</v>
+        <v>153.6141558868021</v>
       </c>
       <c r="O3" t="n">
-        <v>12.41734219584872</v>
+        <v>12.39411779380857</v>
       </c>
       <c r="P3" t="n">
-        <v>308.8202590308584</v>
+        <v>308.7582118778351</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18033,28 +18119,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>1.565903812725913</v>
+        <v>1.572424168635419</v>
       </c>
       <c r="J4" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K4" t="n">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5172670369349455</v>
+        <v>0.5214366367187764</v>
       </c>
       <c r="M4" t="n">
-        <v>8.807812646293668</v>
+        <v>8.789765606275543</v>
       </c>
       <c r="N4" t="n">
-        <v>128.9512740816459</v>
+        <v>128.5414248746872</v>
       </c>
       <c r="O4" t="n">
-        <v>11.35567145005727</v>
+        <v>11.33761107441454</v>
       </c>
       <c r="P4" t="n">
-        <v>309.8015084509598</v>
+        <v>309.7380453763323</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18111,28 +18197,28 @@
         <v>0.0864</v>
       </c>
       <c r="I5" t="n">
-        <v>1.182610470419243</v>
+        <v>1.183777523233356</v>
       </c>
       <c r="J5" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K5" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4625304107098342</v>
+        <v>0.4655282089570013</v>
       </c>
       <c r="M5" t="n">
-        <v>7.527524426448919</v>
+        <v>7.5023468475975</v>
       </c>
       <c r="N5" t="n">
-        <v>90.78694908569145</v>
+        <v>90.3679664365301</v>
       </c>
       <c r="O5" t="n">
-        <v>9.528218568320703</v>
+        <v>9.506206732263406</v>
       </c>
       <c r="P5" t="n">
-        <v>309.8707858278219</v>
+        <v>309.8594872485518</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18189,28 +18275,28 @@
         <v>0.0868</v>
       </c>
       <c r="I6" t="n">
-        <v>1.016744933011199</v>
+        <v>1.016375294680279</v>
       </c>
       <c r="J6" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K6" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4315758087258381</v>
+        <v>0.4340991629345199</v>
       </c>
       <c r="M6" t="n">
-        <v>6.94299647301681</v>
+        <v>6.91153615798245</v>
       </c>
       <c r="N6" t="n">
-        <v>76.05221046488445</v>
+        <v>75.65981635251605</v>
       </c>
       <c r="O6" t="n">
-        <v>8.72079184850117</v>
+        <v>8.698265134641277</v>
       </c>
       <c r="P6" t="n">
-        <v>308.7899152942356</v>
+        <v>308.793522650235</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18267,28 +18353,28 @@
         <v>0.07439999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1.029205710533108</v>
+        <v>1.037962119205212</v>
       </c>
       <c r="J7" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K7" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1227696219858415</v>
+        <v>0.1257095730698621</v>
       </c>
       <c r="M7" t="n">
-        <v>9.949482621480938</v>
+        <v>9.927213648941301</v>
       </c>
       <c r="N7" t="n">
-        <v>427.485715536726</v>
+        <v>425.6697026385079</v>
       </c>
       <c r="O7" t="n">
-        <v>20.67572769062134</v>
+        <v>20.63176440924304</v>
       </c>
       <c r="P7" t="n">
-        <v>322.7814690195736</v>
+        <v>322.6975630580454</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18345,28 +18431,28 @@
         <v>0.0279</v>
       </c>
       <c r="I8" t="n">
-        <v>1.912271795717203</v>
+        <v>1.904821357192282</v>
       </c>
       <c r="J8" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K8" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L8" t="n">
-        <v>0.341040461387628</v>
+        <v>0.3416989082598669</v>
       </c>
       <c r="M8" t="n">
-        <v>15.99964014319736</v>
+        <v>15.9502590753127</v>
       </c>
       <c r="N8" t="n">
-        <v>390.5754499449282</v>
+        <v>388.849651393173</v>
       </c>
       <c r="O8" t="n">
-        <v>19.76298180804021</v>
+        <v>19.71927106647639</v>
       </c>
       <c r="P8" t="n">
-        <v>316.8808540933372</v>
+        <v>316.9534781403873</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18404,7 +18490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I409"/>
+  <dimension ref="A1:I411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36771,6 +36857,100 @@
         </is>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>-42.47751743089714,173.5320312621951</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>-42.477923909923305,173.5313132049578</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>-42.47839164794369,173.53068014642292</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>-42.47878183546378,173.5299346794653</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>-42.47929714398357,173.52934132652234</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>-42.479960259305,173.5291979648844</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>-42.48060625446491,173.52914498871834</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:48+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>-42.47748002977031,173.53198131150106</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>-42.4779131506342,173.53129883556642</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>-42.478372552831125,173.53065376666413</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>-42.47875181470956,173.529883393268</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>-42.479289758904414,173.52932414117268</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>-42.4799553246554,173.52917641817297</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>-42.48059348498228,173.52901669263244</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0394/nzd0394.xlsx
+++ b/data/nzd0394/nzd0394.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I411"/>
+  <dimension ref="A1:I413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13578,6 +13578,72 @@
       <c r="I411" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>369.39</v>
+      </c>
+      <c r="C412" t="n">
+        <v>366.47</v>
+      </c>
+      <c r="D412" t="n">
+        <v>358.62</v>
+      </c>
+      <c r="E412" t="n">
+        <v>348.78</v>
+      </c>
+      <c r="F412" t="n">
+        <v>337.65</v>
+      </c>
+      <c r="G412" t="n">
+        <v>353.36</v>
+      </c>
+      <c r="H412" t="n">
+        <v>365.98</v>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>362.97</v>
+      </c>
+      <c r="C413" t="n">
+        <v>357.01</v>
+      </c>
+      <c r="D413" t="n">
+        <v>355.5227272727273</v>
+      </c>
+      <c r="E413" t="n">
+        <v>343.93</v>
+      </c>
+      <c r="F413" t="n">
+        <v>339.5633333333333</v>
+      </c>
+      <c r="G413" t="n">
+        <v>357.6269230769231</v>
+      </c>
+      <c r="H413" t="n">
+        <v>369.65</v>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -13592,7 +13658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B419"/>
+  <dimension ref="A1:B421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17790,6 +17856,26 @@
       </c>
       <c r="B419" t="n">
         <v>-0.55</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -17963,28 +18049,28 @@
         <v>0.045</v>
       </c>
       <c r="I2" t="n">
-        <v>1.345905159758432</v>
+        <v>1.349862524643277</v>
       </c>
       <c r="J2" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K2" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3151948398710402</v>
+        <v>0.318686795734864</v>
       </c>
       <c r="M2" t="n">
-        <v>11.76623504948255</v>
+        <v>11.72301185544592</v>
       </c>
       <c r="N2" t="n">
-        <v>220.9588436647489</v>
+        <v>219.8640546591041</v>
       </c>
       <c r="O2" t="n">
-        <v>14.86468444551545</v>
+        <v>14.82781354951242</v>
       </c>
       <c r="P2" t="n">
-        <v>327.5261803746171</v>
+        <v>327.4865479277047</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18041,28 +18127,28 @@
         <v>0.0599</v>
       </c>
       <c r="I3" t="n">
-        <v>1.611104282003806</v>
+        <v>1.622050786027597</v>
       </c>
       <c r="J3" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K3" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4927887147046007</v>
+        <v>0.4975437385486089</v>
       </c>
       <c r="M3" t="n">
-        <v>10.03355250127986</v>
+        <v>10.03545840808988</v>
       </c>
       <c r="N3" t="n">
-        <v>153.6141558868021</v>
+        <v>153.5878355388781</v>
       </c>
       <c r="O3" t="n">
-        <v>12.39411779380857</v>
+        <v>12.39305594027874</v>
       </c>
       <c r="P3" t="n">
-        <v>308.7582118778351</v>
+        <v>308.6516637336208</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18119,28 +18205,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>1.572424168635419</v>
+        <v>1.578789948214566</v>
       </c>
       <c r="J4" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K4" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5214366367187764</v>
+        <v>0.5255895574935665</v>
       </c>
       <c r="M4" t="n">
-        <v>8.789765606275543</v>
+        <v>8.771084518889714</v>
       </c>
       <c r="N4" t="n">
-        <v>128.5414248746872</v>
+        <v>128.124350608586</v>
       </c>
       <c r="O4" t="n">
-        <v>11.33761107441454</v>
+        <v>11.31920273732148</v>
       </c>
       <c r="P4" t="n">
-        <v>309.7380453763323</v>
+        <v>309.6755737626571</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18197,28 +18283,28 @@
         <v>0.0864</v>
       </c>
       <c r="I5" t="n">
-        <v>1.183777523233356</v>
+        <v>1.189511527303075</v>
       </c>
       <c r="J5" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K5" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4655282089570013</v>
+        <v>0.4700280193357533</v>
       </c>
       <c r="M5" t="n">
-        <v>7.5023468475975</v>
+        <v>7.490142939862158</v>
       </c>
       <c r="N5" t="n">
-        <v>90.3679664365301</v>
+        <v>90.11086752494666</v>
       </c>
       <c r="O5" t="n">
-        <v>9.506206732263406</v>
+        <v>9.492674413722755</v>
       </c>
       <c r="P5" t="n">
-        <v>309.8594872485518</v>
+        <v>309.8031490143749</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18275,28 +18361,28 @@
         <v>0.0868</v>
       </c>
       <c r="I6" t="n">
-        <v>1.016375294680279</v>
+        <v>1.019922387725787</v>
       </c>
       <c r="J6" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K6" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4340991629345199</v>
+        <v>0.4383306819735181</v>
       </c>
       <c r="M6" t="n">
-        <v>6.91153615798245</v>
+        <v>6.891894637124049</v>
       </c>
       <c r="N6" t="n">
-        <v>75.65981635251605</v>
+        <v>75.334719648727</v>
       </c>
       <c r="O6" t="n">
-        <v>8.698265134641277</v>
+        <v>8.679557572176533</v>
       </c>
       <c r="P6" t="n">
-        <v>308.793522650235</v>
+        <v>308.7589085972181</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18353,28 +18439,28 @@
         <v>0.07439999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1.037962119205212</v>
+        <v>1.043881189430122</v>
       </c>
       <c r="J7" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K7" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1257095730698621</v>
+        <v>0.1281454260843303</v>
       </c>
       <c r="M7" t="n">
-        <v>9.927213648941301</v>
+        <v>9.895291829221065</v>
       </c>
       <c r="N7" t="n">
-        <v>425.6697026385079</v>
+        <v>423.6778372840732</v>
       </c>
       <c r="O7" t="n">
-        <v>20.63176440924304</v>
+        <v>20.58343599314928</v>
       </c>
       <c r="P7" t="n">
-        <v>322.6975630580454</v>
+        <v>322.6403770864939</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18431,28 +18517,28 @@
         <v>0.0279</v>
       </c>
       <c r="I8" t="n">
-        <v>1.904821357192282</v>
+        <v>1.906526500965947</v>
       </c>
       <c r="J8" t="n">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K8" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3416989082598669</v>
+        <v>0.3447617381883126</v>
       </c>
       <c r="M8" t="n">
-        <v>15.9502590753127</v>
+        <v>15.87274868962441</v>
       </c>
       <c r="N8" t="n">
-        <v>388.849651393173</v>
+        <v>386.7559237924144</v>
       </c>
       <c r="O8" t="n">
-        <v>19.71927106647639</v>
+        <v>19.66611104902071</v>
       </c>
       <c r="P8" t="n">
-        <v>316.9534781403873</v>
+        <v>316.9367576077406</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18490,7 +18576,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I411"/>
+  <dimension ref="A1:I413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36951,6 +37037,100 @@
         </is>
       </c>
     </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>-42.47753619549515,173.53205632309655</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>-42.47798103659399,173.53138949966592</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>-42.4783930159686,173.53068203634032</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>-42.47880754700024,173.52997860404636</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>-42.47930736251736,173.52936510544134</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>-42.479945346822404,173.52913285091145</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>-42.48060806666366,173.52916319615568</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>-42.47749507988395,173.53200141151635</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-42.47792045158059,173.5313085862243</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>-42.47837351445565,173.53065509514082</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>-42.478780454924554,173.52993232100803</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>-42.47931601360254,173.5293852368626</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>-42.47995670471964,173.5291824440994</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>-42.480612471134606,173.52920744867328</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0394/nzd0394.xlsx
+++ b/data/nzd0394/nzd0394.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I413"/>
+  <dimension ref="A1:I415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13642,6 +13642,72 @@
         <v>369.65</v>
       </c>
       <c r="I413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>352.86</v>
+      </c>
+      <c r="C414" t="n">
+        <v>351.42</v>
+      </c>
+      <c r="D414" t="n">
+        <v>350.8409090909091</v>
+      </c>
+      <c r="E414" t="n">
+        <v>345.05</v>
+      </c>
+      <c r="F414" t="n">
+        <v>337.5733333333333</v>
+      </c>
+      <c r="G414" t="n">
+        <v>351.6376923076923</v>
+      </c>
+      <c r="H414" t="n">
+        <v>354.77</v>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:07:04+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>336.59</v>
+      </c>
+      <c r="C415" t="n">
+        <v>332.32</v>
+      </c>
+      <c r="D415" t="n">
+        <v>327.5372727272728</v>
+      </c>
+      <c r="E415" t="n">
+        <v>318.4457142857143</v>
+      </c>
+      <c r="F415" t="n">
+        <v>318.7966666666667</v>
+      </c>
+      <c r="G415" t="n">
+        <v>334.0461538461539</v>
+      </c>
+      <c r="H415" t="n">
+        <v>335.44</v>
+      </c>
+      <c r="I415" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13658,7 +13724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B421"/>
+  <dimension ref="A1:B423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17876,6 +17942,26 @@
       </c>
       <c r="B421" t="n">
         <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>-0.4</v>
       </c>
     </row>
   </sheetData>
@@ -18049,28 +18135,28 @@
         <v>0.045</v>
       </c>
       <c r="I2" t="n">
-        <v>1.349862524643277</v>
+        <v>1.331723769482197</v>
       </c>
       <c r="J2" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K2" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L2" t="n">
-        <v>0.318686795734864</v>
+        <v>0.3131093962099172</v>
       </c>
       <c r="M2" t="n">
-        <v>11.72301185544592</v>
+        <v>11.75055438711266</v>
       </c>
       <c r="N2" t="n">
-        <v>219.8640546591041</v>
+        <v>220.7340573069404</v>
       </c>
       <c r="O2" t="n">
-        <v>14.82781354951242</v>
+        <v>14.85712143407802</v>
       </c>
       <c r="P2" t="n">
-        <v>327.4865479277047</v>
+        <v>327.6689390150854</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18127,28 +18213,28 @@
         <v>0.0599</v>
       </c>
       <c r="I3" t="n">
-        <v>1.622050786027597</v>
+        <v>1.613576792225247</v>
       </c>
       <c r="J3" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K3" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4975437385486089</v>
+        <v>0.4961066192216412</v>
       </c>
       <c r="M3" t="n">
-        <v>10.03545840808988</v>
+        <v>10.03665957533849</v>
       </c>
       <c r="N3" t="n">
-        <v>153.5878355388781</v>
+        <v>153.6639291967655</v>
       </c>
       <c r="O3" t="n">
-        <v>12.39305594027874</v>
+        <v>12.39612557199892</v>
       </c>
       <c r="P3" t="n">
-        <v>308.6516637336208</v>
+        <v>308.7344660020903</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18205,28 +18291,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>1.578789948214566</v>
+        <v>1.567975651699719</v>
       </c>
       <c r="J4" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K4" t="n">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5255895574935665</v>
+        <v>0.5221339823478115</v>
       </c>
       <c r="M4" t="n">
-        <v>8.771084518889714</v>
+        <v>8.799103213747493</v>
       </c>
       <c r="N4" t="n">
-        <v>128.124350608586</v>
+        <v>128.8109430263932</v>
       </c>
       <c r="O4" t="n">
-        <v>11.31920273732148</v>
+        <v>11.34949087080091</v>
       </c>
       <c r="P4" t="n">
-        <v>309.6755737626571</v>
+        <v>309.7820791479048</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18283,28 +18369,28 @@
         <v>0.0864</v>
       </c>
       <c r="I5" t="n">
-        <v>1.189511527303075</v>
+        <v>1.180905548027752</v>
       </c>
       <c r="J5" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K5" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4700280193357533</v>
+        <v>0.4654720933200389</v>
       </c>
       <c r="M5" t="n">
-        <v>7.490142939862158</v>
+        <v>7.525608465410919</v>
       </c>
       <c r="N5" t="n">
-        <v>90.11086752494666</v>
+        <v>90.94833558599373</v>
       </c>
       <c r="O5" t="n">
-        <v>9.492674413722755</v>
+        <v>9.536683678616678</v>
       </c>
       <c r="P5" t="n">
-        <v>309.8031490143749</v>
+        <v>309.8880381024924</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18361,28 +18447,28 @@
         <v>0.0868</v>
       </c>
       <c r="I6" t="n">
-        <v>1.019922387725787</v>
+        <v>1.012933855292115</v>
       </c>
       <c r="J6" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K6" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4383306819735181</v>
+        <v>0.4353485139554804</v>
       </c>
       <c r="M6" t="n">
-        <v>6.891894637124049</v>
+        <v>6.90882497495507</v>
       </c>
       <c r="N6" t="n">
-        <v>75.334719648727</v>
+        <v>75.65201696137453</v>
       </c>
       <c r="O6" t="n">
-        <v>8.679557572176533</v>
+        <v>8.697816792814995</v>
       </c>
       <c r="P6" t="n">
-        <v>308.7589085972181</v>
+        <v>308.8273146225505</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18439,28 +18525,28 @@
         <v>0.07439999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1.043881189430122</v>
+        <v>1.037126979422088</v>
       </c>
       <c r="J7" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K7" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1281454260843303</v>
+        <v>0.1277517900967514</v>
       </c>
       <c r="M7" t="n">
-        <v>9.895291829221065</v>
+        <v>9.902658396600643</v>
       </c>
       <c r="N7" t="n">
-        <v>423.6778372840732</v>
+        <v>422.1402341978652</v>
       </c>
       <c r="O7" t="n">
-        <v>20.58343599314928</v>
+        <v>20.5460515476299</v>
       </c>
       <c r="P7" t="n">
-        <v>322.6403770864939</v>
+        <v>322.7058247574604</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18517,28 +18603,28 @@
         <v>0.0279</v>
       </c>
       <c r="I8" t="n">
-        <v>1.906526500965947</v>
+        <v>1.884038721920367</v>
       </c>
       <c r="J8" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K8" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3447617381883126</v>
+        <v>0.3403536925979893</v>
       </c>
       <c r="M8" t="n">
-        <v>15.87274868962441</v>
+        <v>15.90268713565922</v>
       </c>
       <c r="N8" t="n">
-        <v>386.7559237924144</v>
+        <v>387.5767931087661</v>
       </c>
       <c r="O8" t="n">
-        <v>19.66611104902071</v>
+        <v>19.68697013531453</v>
       </c>
       <c r="P8" t="n">
-        <v>316.9367576077406</v>
+        <v>317.1576360179094</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18576,7 +18662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I413"/>
+  <dimension ref="A1:I415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20678,7 +20764,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-42.477303719020526,173.53174584267785</t>
+          <t>-42.47730371902052,173.53174584267785</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -21523,7 +21609,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-42.477377048470046,173.53184377633585</t>
+          <t>-42.47737704847005,173.53184377633585</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -22263,7 +22349,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-42.47731063568842,173.53175508007863</t>
+          <t>-42.477310635688426,173.53175508007863</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -24662,7 +24748,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-42.4774811825451,173.53198285107635</t>
+          <t>-42.47748118254509,173.53198285107635</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -33450,7 +33536,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>-42.4775686012382,173.53209960236777</t>
+          <t>-42.477568601238204,173.53209960236777</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -37131,6 +37217,100 @@
         </is>
       </c>
     </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>-42.47743033234806,173.53191493875306</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>-42.47788465131782,173.53126077380946</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>-42.478344036077694,173.53061437102306</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>-42.478786711240616,173.52994300904635</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>-42.479307015871015,173.52936429878173</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>-42.479940762296394,173.52911283304235</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>-42.48059461311906,173.52902802705907</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:07:04+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>-42.477326134145216,173.53177577870625</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>-42.47776232826198,173.53109740800906</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>-42.478197307946296,173.53041166828396</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-42.47863809951945,173.52968912781301</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>-42.47922211748663,173.52916673758594</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>-42.47989393604523,173.52890837199828</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>-42.480571414080366,173.52879494791944</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0394/nzd0394.xlsx
+++ b/data/nzd0394/nzd0394.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I415"/>
+  <dimension ref="A1:I416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13708,6 +13708,39 @@
         <v>335.44</v>
       </c>
       <c r="I415" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>356.88</v>
+      </c>
+      <c r="C416" t="n">
+        <v>340.59</v>
+      </c>
+      <c r="D416" t="n">
+        <v>345.2245454545454</v>
+      </c>
+      <c r="E416" t="n">
+        <v>344.5142857142857</v>
+      </c>
+      <c r="F416" t="n">
+        <v>331.7266666666666</v>
+      </c>
+      <c r="G416" t="n">
+        <v>347.1069230769231</v>
+      </c>
+      <c r="H416" t="n">
+        <v>354.44</v>
+      </c>
+      <c r="I416" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13724,7 +13757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B423"/>
+  <dimension ref="A1:B424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17962,6 +17995,16 @@
       </c>
       <c r="B423" t="n">
         <v>-0.4</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -18135,28 +18178,28 @@
         <v>0.045</v>
       </c>
       <c r="I2" t="n">
-        <v>1.331723769482197</v>
+        <v>1.328900555689833</v>
       </c>
       <c r="J2" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K2" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3131093962099172</v>
+        <v>0.3132857966513983</v>
       </c>
       <c r="M2" t="n">
-        <v>11.75055438711266</v>
+        <v>11.73268897923539</v>
       </c>
       <c r="N2" t="n">
-        <v>220.7340573069404</v>
+        <v>220.2056980722849</v>
       </c>
       <c r="O2" t="n">
-        <v>14.85712143407802</v>
+        <v>14.83932943472463</v>
       </c>
       <c r="P2" t="n">
-        <v>327.6689390150854</v>
+        <v>327.6975267742481</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18213,28 +18256,28 @@
         <v>0.0599</v>
       </c>
       <c r="I3" t="n">
-        <v>1.613576792225247</v>
+        <v>1.608660323805424</v>
       </c>
       <c r="J3" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K3" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4961066192216412</v>
+        <v>0.4954622105051062</v>
       </c>
       <c r="M3" t="n">
-        <v>10.03665957533849</v>
+        <v>10.03896786317867</v>
       </c>
       <c r="N3" t="n">
-        <v>153.6639291967655</v>
+        <v>153.533666276389</v>
       </c>
       <c r="O3" t="n">
-        <v>12.39612557199892</v>
+        <v>12.39087027921724</v>
       </c>
       <c r="P3" t="n">
-        <v>308.7344660020903</v>
+        <v>308.7828243718326</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18291,28 +18334,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>1.567975651699719</v>
+        <v>1.565393496270262</v>
       </c>
       <c r="J4" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K4" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5221339823478115</v>
+        <v>0.5224666338315823</v>
       </c>
       <c r="M4" t="n">
-        <v>8.799103213747493</v>
+        <v>8.793875227070609</v>
       </c>
       <c r="N4" t="n">
-        <v>128.8109430263932</v>
+        <v>128.5606965248057</v>
       </c>
       <c r="O4" t="n">
-        <v>11.34949087080091</v>
+        <v>11.33846094162721</v>
       </c>
       <c r="P4" t="n">
-        <v>309.7820791479048</v>
+        <v>309.8076748901431</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18369,28 +18412,28 @@
         <v>0.0864</v>
       </c>
       <c r="I5" t="n">
-        <v>1.180905548027752</v>
+        <v>1.182774394032237</v>
       </c>
       <c r="J5" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K5" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4654720933200389</v>
+        <v>0.4674855841938782</v>
       </c>
       <c r="M5" t="n">
-        <v>7.525608465410919</v>
+        <v>7.514906094917708</v>
       </c>
       <c r="N5" t="n">
-        <v>90.94833558599373</v>
+        <v>90.75525438017621</v>
       </c>
       <c r="O5" t="n">
-        <v>9.536683678616678</v>
+        <v>9.526555221074206</v>
       </c>
       <c r="P5" t="n">
-        <v>309.8880381024924</v>
+        <v>309.8694912105482</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18447,28 +18490,28 @@
         <v>0.0868</v>
       </c>
       <c r="I6" t="n">
-        <v>1.012933855292115</v>
+        <v>1.011182731162846</v>
       </c>
       <c r="J6" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K6" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4353485139554804</v>
+        <v>0.435762754388768</v>
       </c>
       <c r="M6" t="n">
-        <v>6.90882497495507</v>
+        <v>6.900955159826006</v>
       </c>
       <c r="N6" t="n">
-        <v>75.65201696137453</v>
+        <v>75.4883912861696</v>
       </c>
       <c r="O6" t="n">
-        <v>8.697816792814995</v>
+        <v>8.688405566395344</v>
       </c>
       <c r="P6" t="n">
-        <v>308.8273146225505</v>
+        <v>308.8445597416627</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18525,28 +18568,28 @@
         <v>0.07439999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1.037126979422088</v>
+        <v>1.035826913730316</v>
       </c>
       <c r="J7" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K7" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1277517900967514</v>
+        <v>0.1280845957895461</v>
       </c>
       <c r="M7" t="n">
-        <v>9.902658396600643</v>
+        <v>9.886495082917939</v>
       </c>
       <c r="N7" t="n">
-        <v>422.1402341978652</v>
+        <v>421.0781517514583</v>
       </c>
       <c r="O7" t="n">
-        <v>20.5460515476299</v>
+        <v>20.5201888819635</v>
       </c>
       <c r="P7" t="n">
-        <v>322.7058247574604</v>
+        <v>322.7185000475984</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18603,28 +18646,28 @@
         <v>0.0279</v>
       </c>
       <c r="I8" t="n">
-        <v>1.884038721920367</v>
+        <v>1.877759294001488</v>
       </c>
       <c r="J8" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K8" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3403536925979893</v>
+        <v>0.339964772183447</v>
       </c>
       <c r="M8" t="n">
-        <v>15.90268713565922</v>
+        <v>15.89208215290574</v>
       </c>
       <c r="N8" t="n">
-        <v>387.5767931087661</v>
+        <v>386.9020659419168</v>
       </c>
       <c r="O8" t="n">
-        <v>19.68697013531453</v>
+        <v>19.66982628143718</v>
       </c>
       <c r="P8" t="n">
-        <v>317.1576360179094</v>
+        <v>317.2197124815759</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18662,7 +18705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I415"/>
+  <dimension ref="A1:I416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37311,6 +37354,53 @@
         </is>
       </c>
     </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>-42.477456077667085,173.53194932256042</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>-42.4778152922532,173.53116814275657</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>-42.4783086734525,173.53056551794737</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>-42.478783718742626,173.52993789678285</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>-42.47928058030241,173.52930278224372</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>-42.47992870204813,173.52906017327547</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>-42.480594217071165,173.5290240479518</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0394/nzd0394.xlsx
+++ b/data/nzd0394/nzd0394.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I416"/>
+  <dimension ref="A1:I417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13741,6 +13741,39 @@
         <v>354.44</v>
       </c>
       <c r="I416" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>363.47</v>
+      </c>
+      <c r="C417" t="n">
+        <v>354.49</v>
+      </c>
+      <c r="D417" t="n">
+        <v>349.1536363636364</v>
+      </c>
+      <c r="E417" t="n">
+        <v>342.5071428571428</v>
+      </c>
+      <c r="F417" t="n">
+        <v>334.3733333333333</v>
+      </c>
+      <c r="G417" t="n">
+        <v>350.04</v>
+      </c>
+      <c r="H417" t="n">
+        <v>378.86</v>
+      </c>
+      <c r="I417" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13757,7 +13790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B424"/>
+  <dimension ref="A1:B425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18005,6 +18038,16 @@
       </c>
       <c r="B424" t="n">
         <v>-0.58</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -18178,28 +18221,28 @@
         <v>0.045</v>
       </c>
       <c r="I2" t="n">
-        <v>1.328900555689833</v>
+        <v>1.329423760600278</v>
       </c>
       <c r="J2" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K2" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3132857966513983</v>
+        <v>0.3146312290002247</v>
       </c>
       <c r="M2" t="n">
-        <v>11.73268897923539</v>
+        <v>11.70315940341536</v>
       </c>
       <c r="N2" t="n">
-        <v>220.2056980722849</v>
+        <v>219.600240638937</v>
       </c>
       <c r="O2" t="n">
-        <v>14.83932943472463</v>
+        <v>14.81891496159341</v>
       </c>
       <c r="P2" t="n">
-        <v>327.6975267742481</v>
+        <v>327.6922055522782</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18256,28 +18299,28 @@
         <v>0.0599</v>
       </c>
       <c r="I3" t="n">
-        <v>1.608660323805424</v>
+        <v>1.61041370900621</v>
       </c>
       <c r="J3" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K3" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4954622105051062</v>
+        <v>0.4972751289938409</v>
       </c>
       <c r="M3" t="n">
-        <v>10.03896786317867</v>
+        <v>10.02172900103737</v>
       </c>
       <c r="N3" t="n">
-        <v>153.533666276389</v>
+        <v>153.1717963264352</v>
       </c>
       <c r="O3" t="n">
-        <v>12.39087027921724</v>
+        <v>12.37625938345004</v>
       </c>
       <c r="P3" t="n">
-        <v>308.7828243718326</v>
+        <v>308.7655028935444</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18334,28 +18377,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>1.565393496270262</v>
+        <v>1.564635576841666</v>
       </c>
       <c r="J4" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K4" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5224666338315823</v>
+        <v>0.5235177198550099</v>
       </c>
       <c r="M4" t="n">
-        <v>8.793875227070609</v>
+        <v>8.776742651156155</v>
       </c>
       <c r="N4" t="n">
-        <v>128.5606965248057</v>
+        <v>128.2447933739323</v>
       </c>
       <c r="O4" t="n">
-        <v>11.33846094162721</v>
+        <v>11.32452177241637</v>
       </c>
       <c r="P4" t="n">
-        <v>309.8076748901431</v>
+        <v>309.8152197907439</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18412,28 +18455,28 @@
         <v>0.0864</v>
       </c>
       <c r="I5" t="n">
-        <v>1.182774394032237</v>
+        <v>1.183603189934672</v>
       </c>
       <c r="J5" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K5" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4674855841938782</v>
+        <v>0.4691507460847359</v>
       </c>
       <c r="M5" t="n">
-        <v>7.514906094917708</v>
+        <v>7.499590935278791</v>
       </c>
       <c r="N5" t="n">
-        <v>90.75525438017621</v>
+        <v>90.533364469372</v>
       </c>
       <c r="O5" t="n">
-        <v>9.526555221074206</v>
+        <v>9.51490223120406</v>
       </c>
       <c r="P5" t="n">
-        <v>309.8694912105482</v>
+        <v>309.8612316881703</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18490,28 +18533,28 @@
         <v>0.0868</v>
       </c>
       <c r="I6" t="n">
-        <v>1.011182731162846</v>
+        <v>1.010725023581808</v>
       </c>
       <c r="J6" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K6" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L6" t="n">
-        <v>0.435762754388768</v>
+        <v>0.4369076759571778</v>
       </c>
       <c r="M6" t="n">
-        <v>6.900955159826006</v>
+        <v>6.885785401166743</v>
       </c>
       <c r="N6" t="n">
-        <v>75.4883912861696</v>
+        <v>75.2964714053175</v>
       </c>
       <c r="O6" t="n">
-        <v>8.688405566395344</v>
+        <v>8.677353940304469</v>
       </c>
       <c r="P6" t="n">
-        <v>308.8445597416627</v>
+        <v>308.8490857970465</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18568,28 +18611,28 @@
         <v>0.07439999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1.035826913730316</v>
+        <v>1.035941822651131</v>
       </c>
       <c r="J7" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K7" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1280845957895461</v>
+        <v>0.1287318211802242</v>
       </c>
       <c r="M7" t="n">
-        <v>9.886495082917939</v>
+        <v>9.861648427831478</v>
       </c>
       <c r="N7" t="n">
-        <v>421.0781517514583</v>
+        <v>420.0041097011131</v>
       </c>
       <c r="O7" t="n">
-        <v>20.5201888819635</v>
+        <v>20.49400179811432</v>
       </c>
       <c r="P7" t="n">
-        <v>322.7185000475984</v>
+        <v>322.7173750753365</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18646,28 +18689,28 @@
         <v>0.0279</v>
       </c>
       <c r="I8" t="n">
-        <v>1.877759294001488</v>
+        <v>1.884410331457651</v>
       </c>
       <c r="J8" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K8" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L8" t="n">
-        <v>0.339964772183447</v>
+        <v>0.3426452500406023</v>
       </c>
       <c r="M8" t="n">
-        <v>15.89208215290574</v>
+        <v>15.88224671253713</v>
       </c>
       <c r="N8" t="n">
-        <v>386.9020659419168</v>
+        <v>386.2772738147459</v>
       </c>
       <c r="O8" t="n">
-        <v>19.66982628143718</v>
+        <v>19.65393787043059</v>
       </c>
       <c r="P8" t="n">
-        <v>317.2197124815759</v>
+        <v>317.153696044484</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18705,7 +18748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I416"/>
+  <dimension ref="A1:I417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37401,6 +37444,53 @@
         </is>
       </c>
     </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>-42.477498282035334,173.53200568811658</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>-42.47790431264534,173.53128703214142</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>-42.478333412410095,173.53059969453486</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>-42.478772506848074,173.52991874284</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>-42.479292547148894,173.5293306295185</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>-42.47993650947478,173.52909426354333</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>-42.48062352424111,173.52931850202052</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0394/nzd0394.xlsx
+++ b/data/nzd0394/nzd0394.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I417"/>
+  <dimension ref="A1:I418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13774,6 +13774,39 @@
         <v>378.86</v>
       </c>
       <c r="I417" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>355.74</v>
+      </c>
+      <c r="C418" t="n">
+        <v>354.8</v>
+      </c>
+      <c r="D418" t="n">
+        <v>349.9363636363636</v>
+      </c>
+      <c r="E418" t="n">
+        <v>336.98</v>
+      </c>
+      <c r="F418" t="n">
+        <v>330.95</v>
+      </c>
+      <c r="G418" t="n">
+        <v>346.5115384615385</v>
+      </c>
+      <c r="H418" t="n">
+        <v>368.69</v>
+      </c>
+      <c r="I418" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13790,7 +13823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B425"/>
+  <dimension ref="A1:B426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18048,6 +18081,16 @@
       </c>
       <c r="B425" t="n">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -18221,28 +18264,28 @@
         <v>0.045</v>
       </c>
       <c r="I2" t="n">
-        <v>1.329423760600278</v>
+        <v>1.325958532240074</v>
       </c>
       <c r="J2" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K2" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3146312290002247</v>
+        <v>0.3145588616385303</v>
       </c>
       <c r="M2" t="n">
-        <v>11.70315940341536</v>
+        <v>11.68899994599769</v>
       </c>
       <c r="N2" t="n">
-        <v>219.600240638937</v>
+        <v>219.1207860072055</v>
       </c>
       <c r="O2" t="n">
-        <v>14.81891496159341</v>
+        <v>14.80272900539645</v>
       </c>
       <c r="P2" t="n">
-        <v>327.6922055522782</v>
+        <v>327.7275251687839</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18299,28 +18342,28 @@
         <v>0.0599</v>
       </c>
       <c r="I3" t="n">
-        <v>1.61041370900621</v>
+        <v>1.61226162713777</v>
       </c>
       <c r="J3" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K3" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4972751289938409</v>
+        <v>0.4991070410889932</v>
       </c>
       <c r="M3" t="n">
-        <v>10.02172900103737</v>
+        <v>10.00500538178691</v>
       </c>
       <c r="N3" t="n">
-        <v>153.1717963264352</v>
+        <v>152.815814849373</v>
       </c>
       <c r="O3" t="n">
-        <v>12.37625938345004</v>
+        <v>12.36186939137334</v>
       </c>
       <c r="P3" t="n">
-        <v>308.7655028935444</v>
+        <v>308.7472080803321</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18377,28 +18420,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>1.564635576841666</v>
+        <v>1.5642250151133</v>
       </c>
       <c r="J4" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K4" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5235177198550099</v>
+        <v>0.5246849721565899</v>
       </c>
       <c r="M4" t="n">
-        <v>8.776742651156155</v>
+        <v>8.757442918506037</v>
       </c>
       <c r="N4" t="n">
-        <v>128.2447933739323</v>
+        <v>127.9260404333764</v>
       </c>
       <c r="O4" t="n">
-        <v>11.32452177241637</v>
+        <v>11.31043944475087</v>
       </c>
       <c r="P4" t="n">
-        <v>309.8152197907439</v>
+        <v>309.8193154578879</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18455,28 +18498,28 @@
         <v>0.0864</v>
       </c>
       <c r="I5" t="n">
-        <v>1.183603189934672</v>
+        <v>1.181722143289995</v>
       </c>
       <c r="J5" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K5" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4691507460847359</v>
+        <v>0.4695878323815902</v>
       </c>
       <c r="M5" t="n">
-        <v>7.499590935278791</v>
+        <v>7.491872261088144</v>
       </c>
       <c r="N5" t="n">
-        <v>90.533364469372</v>
+        <v>90.34307199156073</v>
       </c>
       <c r="O5" t="n">
-        <v>9.51490223120406</v>
+        <v>9.504897263598419</v>
       </c>
       <c r="P5" t="n">
-        <v>309.8612316881703</v>
+        <v>309.8800164322629</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18533,28 +18576,28 @@
         <v>0.0868</v>
       </c>
       <c r="I6" t="n">
-        <v>1.010725023581808</v>
+        <v>1.008546822248523</v>
       </c>
       <c r="J6" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K6" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4369076759571778</v>
+        <v>0.4370577670565168</v>
       </c>
       <c r="M6" t="n">
-        <v>6.885785401166743</v>
+        <v>6.880283623351301</v>
       </c>
       <c r="N6" t="n">
-        <v>75.2964714053175</v>
+        <v>75.15210178632924</v>
       </c>
       <c r="O6" t="n">
-        <v>8.677353940304469</v>
+        <v>8.669031190757664</v>
       </c>
       <c r="P6" t="n">
-        <v>308.8490857970465</v>
+        <v>308.8706689579134</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18611,28 +18654,28 @@
         <v>0.07439999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1.035941822651131</v>
+        <v>1.034297201596306</v>
       </c>
       <c r="J7" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K7" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1287318211802242</v>
+        <v>0.1289900816034895</v>
       </c>
       <c r="M7" t="n">
-        <v>9.861648427831478</v>
+        <v>9.848124871138873</v>
       </c>
       <c r="N7" t="n">
-        <v>420.0041097011131</v>
+        <v>418.9636064590994</v>
       </c>
       <c r="O7" t="n">
-        <v>20.49400179811432</v>
+        <v>20.46860050074502</v>
       </c>
       <c r="P7" t="n">
-        <v>322.7173750753365</v>
+        <v>322.733509208365</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18689,28 +18732,28 @@
         <v>0.0279</v>
       </c>
       <c r="I8" t="n">
-        <v>1.884410331457651</v>
+        <v>1.885557952006451</v>
       </c>
       <c r="J8" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K8" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3426452500406023</v>
+        <v>0.344247581107632</v>
       </c>
       <c r="M8" t="n">
-        <v>15.88224671253713</v>
+        <v>15.84514347565219</v>
       </c>
       <c r="N8" t="n">
-        <v>386.2772738147459</v>
+        <v>385.2487106064138</v>
       </c>
       <c r="O8" t="n">
-        <v>19.65393787043059</v>
+        <v>19.62775358023464</v>
       </c>
       <c r="P8" t="n">
-        <v>317.153696044484</v>
+        <v>317.1422821594933</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -18748,7 +18791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I417"/>
+  <dimension ref="A1:I418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37491,6 +37534,53 @@
         </is>
       </c>
     </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>-42.47744877675679,173.53193957192562</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>-42.47790629799078,173.53128968363518</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>-42.4783383407389,173.53060650296976</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>-42.4787416322262,173.52986599796074</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>-42.47927706861945,173.5292946104384</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>-42.479927117219134,173.5290532533008</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>-42.48061131901307,173.52919587308224</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0394/nzd0394.xlsx
+++ b/data/nzd0394/nzd0394.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I418"/>
+  <dimension ref="A1:I419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13809,6 +13809,39 @@
       <c r="I418" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>358.21</v>
+      </c>
+      <c r="C419" t="n">
+        <v>348.13</v>
+      </c>
+      <c r="D419" t="n">
+        <v>345.5463636363637</v>
+      </c>
+      <c r="E419" t="n">
+        <v>326.1371428571428</v>
+      </c>
+      <c r="F419" t="n">
+        <v>322.34</v>
+      </c>
+      <c r="G419" t="n">
+        <v>342.1807692307692</v>
+      </c>
+      <c r="H419" t="n">
+        <v>345.94</v>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -13823,7 +13856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B426"/>
+  <dimension ref="A1:B427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18091,6 +18124,16 @@
       </c>
       <c r="B426" t="n">
         <v>0.42</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -18791,7 +18834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I418"/>
+  <dimension ref="A1:I419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37581,6 +37624,53 @@
         </is>
       </c>
     </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>-42.47746459539468,173.5319606983039</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>-42.47786358102838,173.53123263379112</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>-42.47831069973495,173.53056831723185</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>-42.478681063950695,173.5297625259908</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>-42.47923813863545,173.52920401919818</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>-42.479915589315965,173.5290029180949</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>-42.48058401578992,173.52892155581205</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0394/nzd0394.xlsx
+++ b/data/nzd0394/nzd0394.xlsx
@@ -18307,28 +18307,28 @@
         <v>0.045</v>
       </c>
       <c r="I2" t="n">
-        <v>1.325958532240074</v>
+        <v>1.323783019251991</v>
       </c>
       <c r="J2" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K2" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3145588616385303</v>
+        <v>0.3149702850198868</v>
       </c>
       <c r="M2" t="n">
-        <v>11.68899994599769</v>
+        <v>11.66826069060663</v>
       </c>
       <c r="N2" t="n">
-        <v>219.1207860072055</v>
+        <v>218.5687461480244</v>
       </c>
       <c r="O2" t="n">
-        <v>14.80272900539645</v>
+        <v>14.78407068936105</v>
       </c>
       <c r="P2" t="n">
-        <v>327.7275251687839</v>
+        <v>327.7497233946533</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18385,28 +18385,28 @@
         <v>0.0599</v>
       </c>
       <c r="I3" t="n">
-        <v>1.61226162713777</v>
+        <v>1.610883455072668</v>
       </c>
       <c r="J3" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K3" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4991070410889932</v>
+        <v>0.4999565821329665</v>
       </c>
       <c r="M3" t="n">
-        <v>10.00500538178691</v>
+        <v>9.987331012983883</v>
       </c>
       <c r="N3" t="n">
-        <v>152.815814849373</v>
+        <v>152.445183292457</v>
       </c>
       <c r="O3" t="n">
-        <v>12.36186939137334</v>
+        <v>12.34686937213061</v>
       </c>
       <c r="P3" t="n">
-        <v>308.7472080803321</v>
+        <v>308.7608670400402</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18463,28 +18463,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5642250151133</v>
+        <v>1.561733517123402</v>
       </c>
       <c r="J4" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K4" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5246849721565899</v>
+        <v>0.5250484928460186</v>
       </c>
       <c r="M4" t="n">
-        <v>8.757442918506037</v>
+        <v>8.75156904046001</v>
       </c>
       <c r="N4" t="n">
-        <v>127.9260404333764</v>
+        <v>127.6760984000337</v>
       </c>
       <c r="O4" t="n">
-        <v>11.31043944475087</v>
+        <v>11.29938486821445</v>
       </c>
       <c r="P4" t="n">
-        <v>309.8193154578879</v>
+        <v>309.8441962757717</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18541,28 +18541,28 @@
         <v>0.0864</v>
       </c>
       <c r="I5" t="n">
-        <v>1.181722143289995</v>
+        <v>1.174637138448235</v>
       </c>
       <c r="J5" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K5" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4695878323815902</v>
+        <v>0.4664289567782621</v>
       </c>
       <c r="M5" t="n">
-        <v>7.491872261088144</v>
+        <v>7.515562035143016</v>
       </c>
       <c r="N5" t="n">
-        <v>90.34307199156073</v>
+        <v>90.65660520672944</v>
       </c>
       <c r="O5" t="n">
-        <v>9.504897263598419</v>
+        <v>9.521376224408394</v>
       </c>
       <c r="P5" t="n">
-        <v>309.8800164322629</v>
+        <v>309.950842840719</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18619,28 +18619,28 @@
         <v>0.0868</v>
       </c>
       <c r="I6" t="n">
-        <v>1.008546822248523</v>
+        <v>1.002128833095836</v>
       </c>
       <c r="J6" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K6" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4370577670565168</v>
+        <v>0.43388367646909</v>
       </c>
       <c r="M6" t="n">
-        <v>6.880283623351301</v>
+        <v>6.898506150582599</v>
       </c>
       <c r="N6" t="n">
-        <v>75.15210178632924</v>
+        <v>75.3868184641685</v>
       </c>
       <c r="O6" t="n">
-        <v>8.669031190757664</v>
+        <v>8.682558290283371</v>
       </c>
       <c r="P6" t="n">
-        <v>308.8706689579134</v>
+        <v>308.9343278327934</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18697,28 +18697,28 @@
         <v>0.07439999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>1.034297201596306</v>
+        <v>1.03054714253576</v>
       </c>
       <c r="J7" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K7" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1289900816034895</v>
+        <v>0.1287531601967876</v>
       </c>
       <c r="M7" t="n">
-        <v>9.848124871138873</v>
+        <v>9.84940584687252</v>
       </c>
       <c r="N7" t="n">
-        <v>418.9636064590994</v>
+        <v>418.0483460938121</v>
       </c>
       <c r="O7" t="n">
-        <v>20.46860050074502</v>
+        <v>20.44623060844742</v>
       </c>
       <c r="P7" t="n">
-        <v>322.733509208365</v>
+        <v>322.7703360153664</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18775,28 +18775,28 @@
         <v>0.0279</v>
       </c>
       <c r="I8" t="n">
-        <v>1.885557952006451</v>
+        <v>1.874729406385795</v>
       </c>
       <c r="J8" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K8" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L8" t="n">
-        <v>0.344247581107632</v>
+        <v>0.3423107832622367</v>
       </c>
       <c r="M8" t="n">
-        <v>15.84514347565219</v>
+        <v>15.85960946596464</v>
       </c>
       <c r="N8" t="n">
-        <v>385.2487106064138</v>
+        <v>385.3482029472339</v>
       </c>
       <c r="O8" t="n">
-        <v>19.62775358023464</v>
+        <v>19.63028789771647</v>
       </c>
       <c r="P8" t="n">
-        <v>317.1422821594933</v>
+        <v>317.2500879490607</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">

--- a/data/nzd0394/nzd0394.xlsx
+++ b/data/nzd0394/nzd0394.xlsx
@@ -18301,10 +18301,10 @@
         <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0334</v>
+        <v>0.0297</v>
       </c>
       <c r="H2" t="n">
-        <v>0.045</v>
+        <v>0.0529</v>
       </c>
       <c r="I2" t="n">
         <v>1.323783019251991</v>
@@ -18376,13 +18376,13 @@
         <v>0.167273692742685</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0439</v>
+        <v>0.0542</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0599</v>
+        <v>0.1548</v>
       </c>
       <c r="I3" t="n">
         <v>1.610883455072669</v>
@@ -18454,13 +18454,13 @@
         <v>0.3345473854842802</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0488</v>
+        <v>0.0555</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06660000000000001</v>
+        <v>0.1079</v>
       </c>
       <c r="I4" t="n">
         <v>1.561691512602486</v>
@@ -18532,13 +18532,13 @@
         <v>0.5013214648531792</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0613</v>
+        <v>0.0636</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0864</v>
+        <v>0.1481</v>
       </c>
       <c r="I5" t="n">
         <v>1.174612189918408</v>
@@ -18610,13 +18610,13 @@
         <v>0.6685951575978152</v>
       </c>
       <c r="F6" t="n">
-        <v>0.075</v>
+        <v>0.185</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06320000000000001</v>
+        <v>0.1001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0868</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>1.002167739839519</v>
@@ -18688,13 +18688,13 @@
         <v>0.8327263072566707</v>
       </c>
       <c r="F7" t="n">
-        <v>0.065</v>
+        <v>0.11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0542</v>
+        <v>0.0726</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07439999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>1.030576550050456</v>
@@ -18766,13 +18766,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0191</v>
+        <v>0.0448</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0279</v>
+        <v>0.0569</v>
       </c>
       <c r="I8" t="n">
         <v>1.874729406385795</v>

--- a/data/nzd0394/nzd0394.xlsx
+++ b/data/nzd0394/nzd0394.xlsx
@@ -495,7 +495,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>580.66</v>
+        <v>580.75</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>544.87</v>
+        <v>545.15</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
@@ -553,7 +553,7 @@
         <v>320.85</v>
       </c>
       <c r="G4" t="n">
-        <v>329.77</v>
+        <v>329.9</v>
       </c>
       <c r="H4" t="n">
         <v>337.94</v>
@@ -586,7 +586,7 @@
         <v>331.22</v>
       </c>
       <c r="G5" t="n">
-        <v>334.92</v>
+        <v>334.67</v>
       </c>
       <c r="H5" t="n">
         <v>336.36</v>
@@ -619,7 +619,7 @@
         <v>317.01</v>
       </c>
       <c r="G6" t="n">
-        <v>322.21</v>
+        <v>322.16</v>
       </c>
       <c r="H6" t="n">
         <v>332.02</v>
@@ -652,7 +652,7 @@
         <v>306.47</v>
       </c>
       <c r="G7" t="n">
-        <v>318.57</v>
+        <v>318.73</v>
       </c>
       <c r="H7" t="n">
         <v>324.31</v>
@@ -685,7 +685,7 @@
         <v>309.93</v>
       </c>
       <c r="G8" t="n">
-        <v>326.58</v>
+        <v>326.92</v>
       </c>
       <c r="H8" t="n">
         <v>334.17</v>
@@ -718,7 +718,7 @@
         <v>306.08</v>
       </c>
       <c r="G9" t="n">
-        <v>322.3</v>
+        <v>322.61</v>
       </c>
       <c r="H9" t="n">
         <v>339.77</v>
@@ -751,7 +751,7 @@
         <v>318.69</v>
       </c>
       <c r="G10" t="n">
-        <v>330.15</v>
+        <v>330.29</v>
       </c>
       <c r="H10" t="n">
         <v>339.93</v>
@@ -784,7 +784,7 @@
         <v>327.92</v>
       </c>
       <c r="G11" t="n">
-        <v>336.47</v>
+        <v>336.4</v>
       </c>
       <c r="H11" t="n">
         <v>338.8</v>
@@ -817,7 +817,7 @@
         <v>321.93</v>
       </c>
       <c r="G12" t="n">
-        <v>332.48</v>
+        <v>332.2</v>
       </c>
       <c r="H12" t="n">
         <v>327.93</v>
@@ -850,7 +850,7 @@
         <v>331.88</v>
       </c>
       <c r="G13" t="n">
-        <v>338.67</v>
+        <v>338.41</v>
       </c>
       <c r="H13" t="n">
         <v>331.8</v>
@@ -881,7 +881,7 @@
         <v>325.42</v>
       </c>
       <c r="G14" t="n">
-        <v>331.75</v>
+        <v>331.67</v>
       </c>
       <c r="H14" t="n">
         <v>330.57</v>
@@ -937,7 +937,7 @@
         <v>321.24</v>
       </c>
       <c r="G16" t="n">
-        <v>332.5</v>
+        <v>332.81</v>
       </c>
       <c r="H16" t="n">
         <v>339.8</v>
@@ -970,7 +970,7 @@
         <v>327.58</v>
       </c>
       <c r="G17" t="n">
-        <v>337.52</v>
+        <v>337.69</v>
       </c>
       <c r="H17" t="n">
         <v>338.49</v>
@@ -1003,7 +1003,7 @@
         <v>324.76</v>
       </c>
       <c r="G18" t="n">
-        <v>333.04</v>
+        <v>333</v>
       </c>
       <c r="H18" t="n">
         <v>331.86</v>
@@ -1036,7 +1036,7 @@
         <v>308.73</v>
       </c>
       <c r="G19" t="n">
-        <v>317.3</v>
+        <v>317.04</v>
       </c>
       <c r="H19" t="n">
         <v>309.49</v>
@@ -1069,7 +1069,7 @@
         <v>314.56</v>
       </c>
       <c r="G20" t="n">
-        <v>324.9</v>
+        <v>324.61</v>
       </c>
       <c r="H20" t="n">
         <v>326.19</v>
@@ -1102,7 +1102,7 @@
         <v>311.98</v>
       </c>
       <c r="G21" t="n">
-        <v>327.17</v>
+        <v>327.52</v>
       </c>
       <c r="H21" t="n">
         <v>333.68</v>
@@ -1135,7 +1135,7 @@
         <v>317.89</v>
       </c>
       <c r="G22" t="n">
-        <v>328.45</v>
+        <v>328.19</v>
       </c>
       <c r="H22" t="n">
         <v>329.83</v>
@@ -1166,7 +1166,7 @@
         <v>324.55</v>
       </c>
       <c r="G23" t="n">
-        <v>328.59</v>
+        <v>328.3</v>
       </c>
       <c r="H23" t="n">
         <v>328.03</v>
@@ -1199,7 +1199,7 @@
         <v>315.02</v>
       </c>
       <c r="G24" t="n">
-        <v>329.73</v>
+        <v>329.66</v>
       </c>
       <c r="H24" t="n">
         <v>330.73</v>
@@ -1232,7 +1232,7 @@
         <v>313.78</v>
       </c>
       <c r="G25" t="n">
-        <v>328.19</v>
+        <v>328.53</v>
       </c>
       <c r="H25" t="n">
         <v>326.85</v>
@@ -1265,7 +1265,7 @@
         <v>318.05</v>
       </c>
       <c r="G26" t="n">
-        <v>334.44</v>
+        <v>334.6</v>
       </c>
       <c r="H26" t="n">
         <v>347.34</v>
@@ -1298,7 +1298,7 @@
         <v>307.74</v>
       </c>
       <c r="G27" t="n">
-        <v>319.31</v>
+        <v>319.05</v>
       </c>
       <c r="H27" t="n">
         <v>318.22</v>
@@ -1331,7 +1331,7 @@
         <v>312.33</v>
       </c>
       <c r="G28" t="n">
-        <v>326.44</v>
+        <v>326.19</v>
       </c>
       <c r="H28" t="n">
         <v>325.73</v>
@@ -1364,7 +1364,7 @@
         <v>310.19</v>
       </c>
       <c r="G29" t="n">
-        <v>307.9</v>
+        <v>308.09</v>
       </c>
       <c r="H29" t="n">
         <v>315.87</v>
@@ -1397,7 +1397,7 @@
         <v>317.17</v>
       </c>
       <c r="G30" t="n">
-        <v>324.04</v>
+        <v>324.25</v>
       </c>
       <c r="H30" t="n">
         <v>327.96</v>
@@ -1430,7 +1430,7 @@
         <v>315.37</v>
       </c>
       <c r="G31" t="n">
-        <v>317.14</v>
+        <v>317</v>
       </c>
       <c r="H31" t="n">
         <v>326.74</v>
@@ -1463,7 +1463,7 @@
         <v>321.37</v>
       </c>
       <c r="G32" t="n">
-        <v>327.43</v>
+        <v>327.79</v>
       </c>
       <c r="H32" t="n">
         <v>349.65</v>
@@ -1496,7 +1496,7 @@
         <v>312.32</v>
       </c>
       <c r="G33" t="n">
-        <v>321.23</v>
+        <v>321.36</v>
       </c>
       <c r="H33" t="n">
         <v>334.19</v>
@@ -1529,7 +1529,7 @@
         <v>317.58</v>
       </c>
       <c r="G34" t="n">
-        <v>330.32</v>
+        <v>330.49</v>
       </c>
       <c r="H34" t="n">
         <v>333.79</v>
@@ -1562,7 +1562,7 @@
         <v>320.36</v>
       </c>
       <c r="G35" t="n">
-        <v>330.83</v>
+        <v>330.62</v>
       </c>
       <c r="H35" t="n">
         <v>335.13</v>
@@ -1595,7 +1595,7 @@
         <v>318.65</v>
       </c>
       <c r="G36" t="n">
-        <v>330.3</v>
+        <v>330.61</v>
       </c>
       <c r="H36" t="n">
         <v>337.69</v>
@@ -1628,7 +1628,7 @@
         <v>302.95</v>
       </c>
       <c r="G37" t="n">
-        <v>305.79</v>
+        <v>305.96</v>
       </c>
       <c r="H37" t="n">
         <v>322.01</v>
@@ -1661,7 +1661,7 @@
         <v>308.99</v>
       </c>
       <c r="G38" t="n">
-        <v>319.43</v>
+        <v>319.5</v>
       </c>
       <c r="H38" t="n">
         <v>327.78</v>
@@ -1694,7 +1694,7 @@
         <v>315.32</v>
       </c>
       <c r="G39" t="n">
-        <v>320.44</v>
+        <v>320.52</v>
       </c>
       <c r="H39" t="n">
         <v>329.77</v>
@@ -1725,7 +1725,7 @@
         <v>307.44</v>
       </c>
       <c r="G40" t="n">
-        <v>318.1</v>
+        <v>318.23</v>
       </c>
       <c r="H40" t="n">
         <v>320.8</v>
@@ -1756,7 +1756,7 @@
         <v>311.3</v>
       </c>
       <c r="G41" t="n">
-        <v>315.96</v>
+        <v>315.74</v>
       </c>
       <c r="H41" t="n">
         <v>320.06</v>
@@ -1789,7 +1789,7 @@
         <v>315.27</v>
       </c>
       <c r="G42" t="n">
-        <v>324.29</v>
+        <v>324.33</v>
       </c>
       <c r="H42" t="n">
         <v>316.54</v>
@@ -1822,7 +1822,7 @@
         <v>332.06</v>
       </c>
       <c r="G43" t="n">
-        <v>339.77</v>
+        <v>340.02</v>
       </c>
       <c r="H43" t="n">
         <v>351.46</v>
@@ -1855,7 +1855,7 @@
         <v>315.47</v>
       </c>
       <c r="G44" t="n">
-        <v>327.48</v>
+        <v>327.64</v>
       </c>
       <c r="H44" t="n">
         <v>341.9</v>
@@ -1888,7 +1888,7 @@
         <v>309.62</v>
       </c>
       <c r="G45" t="n">
-        <v>331.8</v>
+        <v>332.16</v>
       </c>
       <c r="H45" t="n">
         <v>340.59</v>
@@ -1921,7 +1921,7 @@
         <v>314.9</v>
       </c>
       <c r="G46" t="n">
-        <v>327</v>
+        <v>326.69</v>
       </c>
       <c r="H46" t="n">
         <v>328.1</v>
@@ -1954,7 +1954,7 @@
         <v>314.46</v>
       </c>
       <c r="G47" t="n">
-        <v>325.86</v>
+        <v>325.92</v>
       </c>
       <c r="H47" t="n">
         <v>326.36</v>
@@ -1987,7 +1987,7 @@
         <v>319.47</v>
       </c>
       <c r="G48" t="n">
-        <v>325.14</v>
+        <v>324.89</v>
       </c>
       <c r="H48" t="n">
         <v>324.65</v>
@@ -2020,7 +2020,7 @@
         <v>318.43</v>
       </c>
       <c r="G49" t="n">
-        <v>328.58</v>
+        <v>328.87</v>
       </c>
       <c r="H49" t="n">
         <v>341.21</v>
@@ -2053,7 +2053,7 @@
         <v>318.78</v>
       </c>
       <c r="G50" t="n">
-        <v>320.52</v>
+        <v>320.21</v>
       </c>
       <c r="H50" t="n">
         <v>319.57</v>
@@ -2086,7 +2086,7 @@
         <v>311.73</v>
       </c>
       <c r="G51" t="n">
-        <v>318.24</v>
+        <v>318.16</v>
       </c>
       <c r="H51" t="n">
         <v>313.04</v>
@@ -2113,7 +2113,7 @@
         <v>325.83</v>
       </c>
       <c r="G52" t="n">
-        <v>352.17</v>
+        <v>352.27</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
@@ -2142,7 +2142,7 @@
         <v>318.05</v>
       </c>
       <c r="G53" t="n">
-        <v>326.61</v>
+        <v>326.9</v>
       </c>
       <c r="H53" t="n">
         <v>340.09</v>
@@ -2173,7 +2173,7 @@
         <v>322.9</v>
       </c>
       <c r="G54" t="n">
-        <v>337.16</v>
+        <v>336.81</v>
       </c>
       <c r="H54" t="n">
         <v>328.25</v>
@@ -2202,7 +2202,7 @@
         <v>291.79</v>
       </c>
       <c r="G55" t="n">
-        <v>306.36</v>
+        <v>306.52</v>
       </c>
       <c r="H55" t="n">
         <v>303.69</v>
@@ -2235,7 +2235,7 @@
         <v>309.28</v>
       </c>
       <c r="G56" t="n">
-        <v>317.82</v>
+        <v>317.81</v>
       </c>
       <c r="H56" t="n">
         <v>317.06</v>
@@ -2268,7 +2268,7 @@
         <v>324.64</v>
       </c>
       <c r="G57" t="n">
-        <v>332.92</v>
+        <v>332.7</v>
       </c>
       <c r="H57" t="n">
         <v>335.46</v>
@@ -2301,7 +2301,7 @@
         <v>319.11</v>
       </c>
       <c r="G58" t="n">
-        <v>328.96</v>
+        <v>329.33</v>
       </c>
       <c r="H58" t="n">
         <v>332.07</v>
@@ -2334,7 +2334,7 @@
         <v>313.33</v>
       </c>
       <c r="G59" t="n">
-        <v>323.43</v>
+        <v>323.17</v>
       </c>
       <c r="H59" t="n">
         <v>325.07</v>
@@ -2367,7 +2367,7 @@
         <v>314.37</v>
       </c>
       <c r="G60" t="n">
-        <v>329.5</v>
+        <v>329.75</v>
       </c>
       <c r="H60" t="n">
         <v>340.39</v>
@@ -2400,7 +2400,7 @@
         <v>298.4</v>
       </c>
       <c r="G61" t="n">
-        <v>309.09</v>
+        <v>309.21</v>
       </c>
       <c r="H61" t="n">
         <v>313.1</v>
@@ -2433,7 +2433,7 @@
         <v>314.03</v>
       </c>
       <c r="G62" t="n">
-        <v>335.81</v>
+        <v>336.18</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
@@ -2464,7 +2464,7 @@
         <v>314.92</v>
       </c>
       <c r="G63" t="n">
-        <v>319</v>
+        <v>318.85</v>
       </c>
       <c r="H63" t="n">
         <v>316.65</v>
@@ -2497,7 +2497,7 @@
         <v>319.28</v>
       </c>
       <c r="G64" t="n">
-        <v>333.96</v>
+        <v>334.07</v>
       </c>
       <c r="H64" t="n">
         <v>342.63</v>
@@ -2530,7 +2530,7 @@
         <v>307.27</v>
       </c>
       <c r="G65" t="n">
-        <v>325.1</v>
+        <v>325.12</v>
       </c>
       <c r="H65" t="n">
         <v>338.32</v>
@@ -2563,7 +2563,7 @@
         <v>328.73</v>
       </c>
       <c r="G66" t="n">
-        <v>333.52</v>
+        <v>333.26</v>
       </c>
       <c r="H66" t="n">
         <v>336.45</v>
@@ -2596,7 +2596,7 @@
         <v>314.94</v>
       </c>
       <c r="G67" t="n">
-        <v>330.3</v>
+        <v>330.5</v>
       </c>
       <c r="H67" t="n">
         <v>330.92</v>
@@ -2629,7 +2629,7 @@
         <v>336.33</v>
       </c>
       <c r="G68" t="n">
-        <v>343.86</v>
+        <v>343.61</v>
       </c>
       <c r="H68" t="n">
         <v>345.96</v>
@@ -2660,7 +2660,7 @@
         <v>304.51</v>
       </c>
       <c r="G69" t="n">
-        <v>318.72</v>
+        <v>318.84</v>
       </c>
       <c r="H69" t="n">
         <v>317.54</v>
@@ -2691,7 +2691,7 @@
         <v>319.14</v>
       </c>
       <c r="G70" t="n">
-        <v>322.87</v>
+        <v>322.8</v>
       </c>
       <c r="H70" t="n">
         <v>325.2</v>
@@ -2724,7 +2724,7 @@
         <v>316.51</v>
       </c>
       <c r="G71" t="n">
-        <v>322.86</v>
+        <v>322.89</v>
       </c>
       <c r="H71" t="n">
         <v>328.06</v>
@@ -2755,7 +2755,7 @@
         <v>308.89</v>
       </c>
       <c r="G72" t="n">
-        <v>317.39</v>
+        <v>317.51</v>
       </c>
       <c r="H72" t="n">
         <v>335.25</v>
@@ -2788,7 +2788,7 @@
         <v>329.03</v>
       </c>
       <c r="G73" t="n">
-        <v>330.98</v>
+        <v>330.73</v>
       </c>
       <c r="H73" t="n">
         <v>328.7</v>
@@ -2821,7 +2821,7 @@
         <v>316.95</v>
       </c>
       <c r="G74" t="n">
-        <v>328.09</v>
+        <v>328.27</v>
       </c>
       <c r="H74" t="n">
         <v>331.07</v>
@@ -2854,7 +2854,7 @@
         <v>296.44</v>
       </c>
       <c r="G75" t="n">
-        <v>317.9</v>
+        <v>317.91</v>
       </c>
       <c r="H75" t="n">
         <v>317.52</v>
@@ -2887,7 +2887,7 @@
         <v>317.37</v>
       </c>
       <c r="G76" t="n">
-        <v>329.85</v>
+        <v>329.8</v>
       </c>
       <c r="H76" t="n">
         <v>338.14</v>
@@ -2920,7 +2920,7 @@
         <v>312.06</v>
       </c>
       <c r="G77" t="n">
-        <v>322.82</v>
+        <v>322.88</v>
       </c>
       <c r="H77" t="n">
         <v>323.35</v>
@@ -2953,7 +2953,7 @@
         <v>311.52</v>
       </c>
       <c r="G78" t="n">
-        <v>318.25</v>
+        <v>318.55</v>
       </c>
       <c r="H78" t="n">
         <v>325.18</v>
@@ -2986,7 +2986,7 @@
         <v>309.57</v>
       </c>
       <c r="G79" t="n">
-        <v>328.99</v>
+        <v>329.35</v>
       </c>
       <c r="H79" t="n">
         <v>339.82</v>
@@ -3019,7 +3019,7 @@
         <v>304.63</v>
       </c>
       <c r="G80" t="n">
-        <v>317.62</v>
+        <v>317.45</v>
       </c>
       <c r="H80" t="n">
         <v>334.26</v>
@@ -3052,7 +3052,7 @@
         <v>315.61</v>
       </c>
       <c r="G81" t="n">
-        <v>325.13</v>
+        <v>324.93</v>
       </c>
       <c r="H81" t="n">
         <v>327.17</v>
@@ -3085,7 +3085,7 @@
         <v>306.45</v>
       </c>
       <c r="G82" t="n">
-        <v>315.53</v>
+        <v>315.28</v>
       </c>
       <c r="H82" t="n">
         <v>314.84</v>
@@ -3118,7 +3118,7 @@
         <v>315.32</v>
       </c>
       <c r="G83" t="n">
-        <v>328.16</v>
+        <v>328.38</v>
       </c>
       <c r="H83" t="n">
         <v>340.28</v>
@@ -3151,7 +3151,7 @@
         <v>320.94</v>
       </c>
       <c r="G84" t="n">
-        <v>328.32</v>
+        <v>328.18</v>
       </c>
       <c r="H84" t="n">
         <v>336.02</v>
@@ -3182,7 +3182,7 @@
         <v>316.06</v>
       </c>
       <c r="G85" t="n">
-        <v>332.59</v>
+        <v>332.58</v>
       </c>
       <c r="H85" t="n">
         <v>326.11</v>
@@ -3213,7 +3213,7 @@
         <v>318.35</v>
       </c>
       <c r="G86" t="n">
-        <v>330.27</v>
+        <v>330.43</v>
       </c>
       <c r="H86" t="n">
         <v>335.76</v>
@@ -3242,7 +3242,7 @@
         <v>306.49</v>
       </c>
       <c r="G87" t="n">
-        <v>319.54</v>
+        <v>319.46</v>
       </c>
       <c r="H87" t="n">
         <v>318.68</v>
@@ -3271,7 +3271,7 @@
         <v>310.14</v>
       </c>
       <c r="G88" t="n">
-        <v>322.1</v>
+        <v>321.94</v>
       </c>
       <c r="H88" t="n">
         <v>329.58</v>
@@ -3304,7 +3304,7 @@
         <v>310.23</v>
       </c>
       <c r="G89" t="n">
-        <v>308.99</v>
+        <v>308.73</v>
       </c>
       <c r="H89" t="n">
         <v>298.5</v>
@@ -3337,7 +3337,7 @@
         <v>316.81</v>
       </c>
       <c r="G90" t="n">
-        <v>325.38</v>
+        <v>325.4</v>
       </c>
       <c r="H90" t="n">
         <v>325.62</v>
@@ -3370,7 +3370,7 @@
         <v>310.59</v>
       </c>
       <c r="G91" t="n">
-        <v>314.58</v>
+        <v>314.67</v>
       </c>
       <c r="H91" t="n">
         <v>317.87</v>
@@ -3403,7 +3403,7 @@
         <v>319.19</v>
       </c>
       <c r="G92" t="n">
-        <v>326.73</v>
+        <v>326.56</v>
       </c>
       <c r="H92" t="n">
         <v>335.74</v>
@@ -3436,7 +3436,7 @@
         <v>305.79</v>
       </c>
       <c r="G93" t="n">
-        <v>324.01</v>
+        <v>324.34</v>
       </c>
       <c r="H93" t="n">
         <v>331.71</v>
@@ -3469,7 +3469,7 @@
         <v>308</v>
       </c>
       <c r="G94" t="n">
-        <v>327.72</v>
+        <v>327.93</v>
       </c>
       <c r="H94" t="n">
         <v>333.63</v>
@@ -3502,7 +3502,7 @@
         <v>307.39</v>
       </c>
       <c r="G95" t="n">
-        <v>314.49</v>
+        <v>314.47</v>
       </c>
       <c r="H95" t="n">
         <v>322.96</v>
@@ -3535,7 +3535,7 @@
         <v>310.3</v>
       </c>
       <c r="G96" t="n">
-        <v>325.22</v>
+        <v>325.27</v>
       </c>
       <c r="H96" t="n">
         <v>334.5</v>
@@ -3568,7 +3568,7 @@
         <v>306.7</v>
       </c>
       <c r="G97" t="n">
-        <v>321.67</v>
+        <v>321.48</v>
       </c>
       <c r="H97" t="n">
         <v>333.59</v>
@@ -3601,7 +3601,7 @@
         <v>310.25</v>
       </c>
       <c r="G98" t="n">
-        <v>321.89</v>
+        <v>322.09</v>
       </c>
       <c r="H98" t="n">
         <v>335</v>
@@ -3634,7 +3634,7 @@
         <v>305.62</v>
       </c>
       <c r="G99" t="n">
-        <v>311.24</v>
+        <v>310.98</v>
       </c>
       <c r="H99" t="n">
         <v>314.34</v>
@@ -3667,7 +3667,7 @@
         <v>325.08</v>
       </c>
       <c r="G100" t="n">
-        <v>332.29</v>
+        <v>331.94</v>
       </c>
       <c r="H100" t="n">
         <v>329.3</v>
@@ -3700,7 +3700,7 @@
         <v>322.86</v>
       </c>
       <c r="G101" t="n">
-        <v>331.64</v>
+        <v>331.61</v>
       </c>
       <c r="H101" t="n">
         <v>335.98</v>
@@ -3733,7 +3733,7 @@
         <v>320.52</v>
       </c>
       <c r="G102" t="n">
-        <v>325.67</v>
+        <v>325.88</v>
       </c>
       <c r="H102" t="n">
         <v>336.57</v>
@@ -3766,7 +3766,7 @@
         <v>317.43</v>
       </c>
       <c r="G103" t="n">
-        <v>328.72</v>
+        <v>328.56</v>
       </c>
       <c r="H103" t="n">
         <v>332.16</v>
@@ -3799,7 +3799,7 @@
         <v>313.35</v>
       </c>
       <c r="G104" t="n">
-        <v>325.85</v>
+        <v>325.57</v>
       </c>
       <c r="H104" t="n">
         <v>328.68</v>
@@ -3832,7 +3832,7 @@
         <v>314.29</v>
       </c>
       <c r="G105" t="n">
-        <v>328.89</v>
+        <v>328.78</v>
       </c>
       <c r="H105" t="n">
         <v>329</v>
@@ -3865,7 +3865,7 @@
         <v>299</v>
       </c>
       <c r="G106" t="n">
-        <v>306.62</v>
+        <v>306.64</v>
       </c>
       <c r="H106" t="n">
         <v>322.17</v>
@@ -3898,7 +3898,7 @@
         <v>304.37</v>
       </c>
       <c r="G107" t="n">
-        <v>320.51</v>
+        <v>320.72</v>
       </c>
       <c r="H107" t="n">
         <v>331.36</v>
@@ -3931,7 +3931,7 @@
         <v>308.39</v>
       </c>
       <c r="G108" t="n">
-        <v>323.66</v>
+        <v>323.87</v>
       </c>
       <c r="H108" t="n">
         <v>348.21</v>
@@ -3964,7 +3964,7 @@
         <v>318.25</v>
       </c>
       <c r="G109" t="n">
-        <v>328.66</v>
+        <v>328.86</v>
       </c>
       <c r="H109" t="n">
         <v>335.37</v>
@@ -3995,7 +3995,7 @@
         <v>308.88</v>
       </c>
       <c r="G110" t="n">
-        <v>318.34</v>
+        <v>318.12</v>
       </c>
       <c r="H110" t="n">
         <v>320.14</v>
@@ -4049,7 +4049,7 @@
         <v>304.45</v>
       </c>
       <c r="G112" t="n">
-        <v>299.75</v>
+        <v>299.7</v>
       </c>
       <c r="H112" t="n">
         <v>308.09</v>
@@ -4078,7 +4078,7 @@
         <v>305.98</v>
       </c>
       <c r="G113" t="n">
-        <v>318.54</v>
+        <v>318.81</v>
       </c>
       <c r="H113" t="n">
         <v>331.37</v>
@@ -4109,7 +4109,7 @@
         <v>309</v>
       </c>
       <c r="G114" t="n">
-        <v>318.28</v>
+        <v>318.47</v>
       </c>
       <c r="H114" t="n">
         <v>321.56</v>
@@ -4142,7 +4142,7 @@
         <v>324.43</v>
       </c>
       <c r="G115" t="n">
-        <v>349.99</v>
+        <v>349.84</v>
       </c>
       <c r="H115" t="n">
         <v>350.3</v>
@@ -4175,7 +4175,7 @@
         <v>323.56</v>
       </c>
       <c r="G116" t="n">
-        <v>335.49</v>
+        <v>335.18</v>
       </c>
       <c r="H116" t="n">
         <v>333.78</v>
@@ -4208,7 +4208,7 @@
         <v>324.13</v>
       </c>
       <c r="G117" t="n">
-        <v>336.4</v>
+        <v>336.41</v>
       </c>
       <c r="H117" t="n">
         <v>334.17</v>
@@ -4241,7 +4241,7 @@
         <v>328.81</v>
       </c>
       <c r="G118" t="n">
-        <v>337.87</v>
+        <v>338.03</v>
       </c>
       <c r="H118" t="n">
         <v>337.05</v>
@@ -4274,7 +4274,7 @@
         <v>317.07</v>
       </c>
       <c r="G119" t="n">
-        <v>333.39</v>
+        <v>333.77</v>
       </c>
       <c r="H119" t="n">
         <v>339.05</v>
@@ -4307,7 +4307,7 @@
         <v>323.01</v>
       </c>
       <c r="G120" t="n">
-        <v>328.58</v>
+        <v>328.38</v>
       </c>
       <c r="H120" t="n">
         <v>334.53</v>
@@ -4340,7 +4340,7 @@
         <v>316.36</v>
       </c>
       <c r="G121" t="n">
-        <v>323.5</v>
+        <v>323.28</v>
       </c>
       <c r="H121" t="n">
         <v>324.61</v>
@@ -4373,7 +4373,7 @@
         <v>315.13</v>
       </c>
       <c r="G122" t="n">
-        <v>322.81</v>
+        <v>322.68</v>
       </c>
       <c r="H122" t="n">
         <v>317.6</v>
@@ -4425,7 +4425,7 @@
         <v>314.33</v>
       </c>
       <c r="G124" t="n">
-        <v>328.21</v>
+        <v>328.42</v>
       </c>
       <c r="H124" t="n">
         <v>323.37</v>
@@ -4458,7 +4458,7 @@
         <v>320.12</v>
       </c>
       <c r="G125" t="n">
-        <v>328.27</v>
+        <v>328.49</v>
       </c>
       <c r="H125" t="n">
         <v>329.92</v>
@@ -4491,7 +4491,7 @@
         <v>313.71</v>
       </c>
       <c r="G126" t="n">
-        <v>320.37</v>
+        <v>320.17</v>
       </c>
       <c r="H126" t="n">
         <v>311.74</v>
@@ -4524,7 +4524,7 @@
         <v>304.91</v>
       </c>
       <c r="G127" t="n">
-        <v>317.76</v>
+        <v>317.69</v>
       </c>
       <c r="H127" t="n">
         <v>314.99</v>
@@ -4557,7 +4557,7 @@
         <v>312.32</v>
       </c>
       <c r="G128" t="n">
-        <v>320.99</v>
+        <v>321</v>
       </c>
       <c r="H128" t="n">
         <v>329.11</v>
@@ -4590,7 +4590,7 @@
         <v>317.37</v>
       </c>
       <c r="G129" t="n">
-        <v>322.12</v>
+        <v>321.77</v>
       </c>
       <c r="H129" t="n">
         <v>324.07</v>
@@ -4623,7 +4623,7 @@
         <v>319.73</v>
       </c>
       <c r="G130" t="n">
-        <v>334.36</v>
+        <v>334.52</v>
       </c>
       <c r="H130" t="n">
         <v>342.9</v>
@@ -4654,7 +4654,7 @@
         <v>328.72</v>
       </c>
       <c r="G131" t="n">
-        <v>337.52</v>
+        <v>337.64</v>
       </c>
       <c r="H131" t="n">
         <v>338.02</v>
@@ -4687,7 +4687,7 @@
         <v>312.82</v>
       </c>
       <c r="G132" t="n">
-        <v>314.06</v>
+        <v>314.28</v>
       </c>
       <c r="H132" t="n">
         <v>314.18</v>
@@ -4720,7 +4720,7 @@
         <v>328.14</v>
       </c>
       <c r="G133" t="n">
-        <v>330.39</v>
+        <v>330.33</v>
       </c>
       <c r="H133" t="n">
         <v>337.88</v>
@@ -4753,7 +4753,7 @@
         <v>325.77</v>
       </c>
       <c r="G134" t="n">
-        <v>336.32</v>
+        <v>336.2</v>
       </c>
       <c r="H134" t="n">
         <v>338.4</v>
@@ -4786,7 +4786,7 @@
         <v>317.1</v>
       </c>
       <c r="G135" t="n">
-        <v>330.21</v>
+        <v>330.53</v>
       </c>
       <c r="H135" t="n">
         <v>340.87</v>
@@ -4819,7 +4819,7 @@
         <v>312.96</v>
       </c>
       <c r="G136" t="n">
-        <v>318.48</v>
+        <v>318.82</v>
       </c>
       <c r="H136" t="n">
         <v>324.92</v>
@@ -4852,7 +4852,7 @@
         <v>324.92</v>
       </c>
       <c r="G137" t="n">
-        <v>328.71</v>
+        <v>328.93</v>
       </c>
       <c r="H137" t="n">
         <v>343.14</v>
@@ -4885,7 +4885,7 @@
         <v>322.35</v>
       </c>
       <c r="G138" t="n">
-        <v>335.78</v>
+        <v>335.91</v>
       </c>
       <c r="H138" t="n">
         <v>346.6</v>
@@ -4918,7 +4918,7 @@
         <v>327.48</v>
       </c>
       <c r="G139" t="n">
-        <v>334.52</v>
+        <v>334.4</v>
       </c>
       <c r="H139" t="n">
         <v>335.76</v>
@@ -4951,7 +4951,7 @@
         <v>330.08</v>
       </c>
       <c r="G140" t="n">
-        <v>333.01</v>
+        <v>332.63</v>
       </c>
       <c r="H140" t="n">
         <v>325.83</v>
@@ -4982,7 +4982,7 @@
         <v>320.73</v>
       </c>
       <c r="G141" t="n">
-        <v>325.38</v>
+        <v>325.31</v>
       </c>
       <c r="H141" t="n">
         <v>328.06</v>
@@ -5013,7 +5013,7 @@
         <v>317.23</v>
       </c>
       <c r="G142" t="n">
-        <v>327.05</v>
+        <v>327.21</v>
       </c>
       <c r="H142" t="n">
         <v>339.23</v>
@@ -5046,7 +5046,7 @@
         <v>315.9</v>
       </c>
       <c r="G143" t="n">
-        <v>321.99</v>
+        <v>322.23</v>
       </c>
       <c r="H143" t="n">
         <v>324.83</v>
@@ -5079,7 +5079,7 @@
         <v>311.29</v>
       </c>
       <c r="G144" t="n">
-        <v>325.92</v>
+        <v>326.18</v>
       </c>
       <c r="H144" t="n">
         <v>324.71</v>
@@ -5112,7 +5112,7 @@
         <v>309.73</v>
       </c>
       <c r="G145" t="n">
-        <v>320.73</v>
+        <v>320.58</v>
       </c>
       <c r="H145" t="n">
         <v>320.12</v>
@@ -5145,7 +5145,7 @@
         <v>320.44</v>
       </c>
       <c r="G146" t="n">
-        <v>327.95</v>
+        <v>328.15</v>
       </c>
       <c r="H146" t="n">
         <v>337.66</v>
@@ -5178,7 +5178,7 @@
         <v>320.02</v>
       </c>
       <c r="G147" t="n">
-        <v>330.06</v>
+        <v>329.95</v>
       </c>
       <c r="H147" t="n">
         <v>336.51</v>
@@ -5211,7 +5211,7 @@
         <v>326.8</v>
       </c>
       <c r="G148" t="n">
-        <v>336.45</v>
+        <v>336.07</v>
       </c>
       <c r="H148" t="n">
         <v>330.58</v>
@@ -5238,7 +5238,7 @@
         <v>293.58</v>
       </c>
       <c r="G149" t="n">
-        <v>312.46</v>
+        <v>312.26</v>
       </c>
       <c r="H149" t="n">
         <v>312.85</v>
@@ -5271,7 +5271,7 @@
         <v>319.83</v>
       </c>
       <c r="G150" t="n">
-        <v>332.96</v>
+        <v>332.9</v>
       </c>
       <c r="H150" t="n">
         <v>335.18</v>
@@ -5304,7 +5304,7 @@
         <v>318.15</v>
       </c>
       <c r="G151" t="n">
-        <v>337.18</v>
+        <v>337.4</v>
       </c>
       <c r="H151" t="n">
         <v>341.46</v>
@@ -5337,7 +5337,7 @@
         <v>302.92</v>
       </c>
       <c r="G152" t="n">
-        <v>313.26</v>
+        <v>313.13</v>
       </c>
       <c r="H152" t="n">
         <v>319.83</v>
@@ -5366,7 +5366,7 @@
         <v>305.15</v>
       </c>
       <c r="G153" t="n">
-        <v>313.06</v>
+        <v>312.8</v>
       </c>
       <c r="H153" t="n">
         <v>308.87</v>
@@ -5399,7 +5399,7 @@
         <v>323.3</v>
       </c>
       <c r="G154" t="n">
-        <v>323.69</v>
+        <v>323.29</v>
       </c>
       <c r="H154" t="n">
         <v>318.78</v>
@@ -5432,7 +5432,7 @@
         <v>320.56</v>
       </c>
       <c r="G155" t="n">
-        <v>335.57</v>
+        <v>335.87</v>
       </c>
       <c r="H155" t="n">
         <v>343.87</v>
@@ -5465,7 +5465,7 @@
         <v>312.53</v>
       </c>
       <c r="G156" t="n">
-        <v>324.9</v>
+        <v>325.18</v>
       </c>
       <c r="H156" t="n">
         <v>340.11</v>
@@ -5498,7 +5498,7 @@
         <v>311.91</v>
       </c>
       <c r="G157" t="n">
-        <v>321.69</v>
+        <v>321.85</v>
       </c>
       <c r="H157" t="n">
         <v>332.92</v>
@@ -5531,7 +5531,7 @@
         <v>324.79</v>
       </c>
       <c r="G158" t="n">
-        <v>331.37</v>
+        <v>331.27</v>
       </c>
       <c r="H158" t="n">
         <v>335.71</v>
@@ -5564,7 +5564,7 @@
         <v>321.78</v>
       </c>
       <c r="G159" t="n">
-        <v>329.01</v>
+        <v>328.63</v>
       </c>
       <c r="H159" t="n">
         <v>328.39</v>
@@ -5597,7 +5597,7 @@
         <v>314.86</v>
       </c>
       <c r="G160" t="n">
-        <v>327.15</v>
+        <v>327.42</v>
       </c>
       <c r="H160" t="n">
         <v>334.11</v>
@@ -5626,7 +5626,7 @@
         <v>313.02</v>
       </c>
       <c r="G161" t="n">
-        <v>326.62</v>
+        <v>326.34</v>
       </c>
       <c r="H161" t="n">
         <v>314.1</v>
@@ -5657,7 +5657,7 @@
         <v>321.32</v>
       </c>
       <c r="G162" t="n">
-        <v>326.71</v>
+        <v>326.95</v>
       </c>
       <c r="H162" t="n">
         <v>330.67</v>
@@ -5690,7 +5690,7 @@
         <v>311.76</v>
       </c>
       <c r="G163" t="n">
-        <v>317.79</v>
+        <v>318.04</v>
       </c>
       <c r="H163" t="n">
         <v>320.25</v>
@@ -5723,7 +5723,7 @@
         <v>319.04</v>
       </c>
       <c r="G164" t="n">
-        <v>324.96</v>
+        <v>324.84</v>
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
@@ -5754,7 +5754,7 @@
         <v>329.5</v>
       </c>
       <c r="G165" t="n">
-        <v>336.71</v>
+        <v>336.52</v>
       </c>
       <c r="H165" t="n">
         <v>331.05</v>
@@ -5787,7 +5787,7 @@
         <v>311.59</v>
       </c>
       <c r="G166" t="n">
-        <v>318.7</v>
+        <v>318.97</v>
       </c>
       <c r="H166" t="n">
         <v>321.25</v>
@@ -5820,7 +5820,7 @@
         <v>317.97</v>
       </c>
       <c r="G167" t="n">
-        <v>329.27</v>
+        <v>329.57</v>
       </c>
       <c r="H167" t="n">
         <v>331.12</v>
@@ -5853,7 +5853,7 @@
         <v>331.43</v>
       </c>
       <c r="G168" t="n">
-        <v>336.76</v>
+        <v>336.88</v>
       </c>
       <c r="H168" t="n">
         <v>347.67</v>
@@ -5886,7 +5886,7 @@
         <v>301.02</v>
       </c>
       <c r="G169" t="n">
-        <v>311.54</v>
+        <v>311.42</v>
       </c>
       <c r="H169" t="n">
         <v>321.82</v>
@@ -5919,7 +5919,7 @@
         <v>310.05</v>
       </c>
       <c r="G170" t="n">
-        <v>326.6</v>
+        <v>326.52</v>
       </c>
       <c r="H170" t="n">
         <v>322.6</v>
@@ -5952,7 +5952,7 @@
         <v>329.85</v>
       </c>
       <c r="G171" t="n">
-        <v>335.76</v>
+        <v>335.53</v>
       </c>
       <c r="H171" t="n">
         <v>335.74</v>
@@ -5985,7 +5985,7 @@
         <v>322.22</v>
       </c>
       <c r="G172" t="n">
-        <v>335.33</v>
+        <v>335.55</v>
       </c>
       <c r="H172" t="n">
         <v>339.54</v>
@@ -6018,7 +6018,7 @@
         <v>317.98</v>
       </c>
       <c r="G173" t="n">
-        <v>328.7</v>
+        <v>328.92</v>
       </c>
       <c r="H173" t="n">
         <v>327.07</v>
@@ -6051,7 +6051,7 @@
         <v>325.9</v>
       </c>
       <c r="G174" t="n">
-        <v>329.58</v>
+        <v>329.41</v>
       </c>
       <c r="H174" t="n">
         <v>317.9</v>
@@ -6084,7 +6084,7 @@
         <v>311.88</v>
       </c>
       <c r="G175" t="n">
-        <v>328.12</v>
+        <v>328.16</v>
       </c>
       <c r="H175" t="n">
         <v>324.8</v>
@@ -6117,7 +6117,7 @@
         <v>322.8</v>
       </c>
       <c r="G176" t="n">
-        <v>332.35</v>
+        <v>332.22</v>
       </c>
       <c r="H176" t="n">
         <v>326.34</v>
@@ -6150,7 +6150,7 @@
         <v>320.83</v>
       </c>
       <c r="G177" t="n">
-        <v>326.8</v>
+        <v>326.67</v>
       </c>
       <c r="H177" t="n">
         <v>323.59</v>
@@ -6183,7 +6183,7 @@
         <v>324.5</v>
       </c>
       <c r="G178" t="n">
-        <v>331.41</v>
+        <v>331.52</v>
       </c>
       <c r="H178" t="n">
         <v>331.97</v>
@@ -6216,7 +6216,7 @@
         <v>323.9</v>
       </c>
       <c r="G179" t="n">
-        <v>331.85</v>
+        <v>332.06</v>
       </c>
       <c r="H179" t="n">
         <v>338.49</v>
@@ -6249,7 +6249,7 @@
         <v>307.4</v>
       </c>
       <c r="G180" t="n">
-        <v>319.56</v>
+        <v>319.36</v>
       </c>
       <c r="H180" t="n">
         <v>326.17</v>
@@ -6282,7 +6282,7 @@
         <v>327.86</v>
       </c>
       <c r="G181" t="n">
-        <v>334.78</v>
+        <v>335</v>
       </c>
       <c r="H181" t="n">
         <v>341.95</v>
@@ -6315,7 +6315,7 @@
         <v>314.74</v>
       </c>
       <c r="G182" t="n">
-        <v>323.36</v>
+        <v>323.2</v>
       </c>
       <c r="H182" t="n">
         <v>320.79</v>
@@ -6348,7 +6348,7 @@
         <v>319.03</v>
       </c>
       <c r="G183" t="n">
-        <v>325.2</v>
+        <v>325.15</v>
       </c>
       <c r="H183" t="n">
         <v>329.66</v>
@@ -6381,7 +6381,7 @@
         <v>323.21</v>
       </c>
       <c r="G184" t="n">
-        <v>329.38</v>
+        <v>329.13</v>
       </c>
       <c r="H184" t="n">
         <v>329.22</v>
@@ -6414,7 +6414,7 @@
         <v>307.35</v>
       </c>
       <c r="G185" t="n">
-        <v>318.34</v>
+        <v>318.66</v>
       </c>
       <c r="H185" t="n">
         <v>323.99</v>
@@ -6447,7 +6447,7 @@
         <v>312.68</v>
       </c>
       <c r="G186" t="n">
-        <v>324.01</v>
+        <v>323.88</v>
       </c>
       <c r="H186" t="n">
         <v>325.84</v>
@@ -6480,7 +6480,7 @@
         <v>311.58</v>
       </c>
       <c r="G187" t="n">
-        <v>321.62</v>
+        <v>321.54</v>
       </c>
       <c r="H187" t="n">
         <v>325.86</v>
@@ -6513,7 +6513,7 @@
         <v>324.5</v>
       </c>
       <c r="G188" t="n">
-        <v>338.29</v>
+        <v>338.62</v>
       </c>
       <c r="H188" t="n">
         <v>352.71</v>
@@ -6546,7 +6546,7 @@
         <v>317.73</v>
       </c>
       <c r="G189" t="n">
-        <v>328.19</v>
+        <v>328.36</v>
       </c>
       <c r="H189" t="n">
         <v>337.03</v>
@@ -6579,7 +6579,7 @@
         <v>313.98</v>
       </c>
       <c r="G190" t="n">
-        <v>330.94</v>
+        <v>330.81</v>
       </c>
       <c r="H190" t="n">
         <v>335.87</v>
@@ -6612,7 +6612,7 @@
         <v>325.7</v>
       </c>
       <c r="G191" t="n">
-        <v>340.21</v>
+        <v>340.14</v>
       </c>
       <c r="H191" t="n">
         <v>341.88</v>
@@ -6645,7 +6645,7 @@
         <v>308.03</v>
       </c>
       <c r="G192" t="n">
-        <v>314.5</v>
+        <v>314.53</v>
       </c>
       <c r="H192" t="n">
         <v>328.13</v>
@@ -6678,7 +6678,7 @@
         <v>320.45</v>
       </c>
       <c r="G193" t="n">
-        <v>329.19</v>
+        <v>328.94</v>
       </c>
       <c r="H193" t="n">
         <v>326.46</v>
@@ -6707,7 +6707,7 @@
         <v>303.89</v>
       </c>
       <c r="G194" t="n">
-        <v>302.19</v>
+        <v>302.22</v>
       </c>
       <c r="H194" t="n">
         <v>312.36</v>
@@ -6736,7 +6736,7 @@
         <v>297.48</v>
       </c>
       <c r="G195" t="n">
-        <v>306.5</v>
+        <v>306.41</v>
       </c>
       <c r="H195" t="n">
         <v>306.44</v>
@@ -6767,7 +6767,7 @@
         <v>314.67</v>
       </c>
       <c r="G196" t="n">
-        <v>320.99</v>
+        <v>321.13</v>
       </c>
       <c r="H196" t="n">
         <v>323.37</v>
@@ -6800,7 +6800,7 @@
         <v>311.68</v>
       </c>
       <c r="G197" t="n">
-        <v>319.13</v>
+        <v>319.36</v>
       </c>
       <c r="H197" t="n">
         <v>329.61</v>
@@ -6833,7 +6833,7 @@
         <v>316.6</v>
       </c>
       <c r="G198" t="n">
-        <v>318.12</v>
+        <v>317.78</v>
       </c>
       <c r="H198" t="n">
         <v>322.31</v>
@@ -6862,7 +6862,7 @@
         <v>303.52</v>
       </c>
       <c r="G199" t="n">
-        <v>311.75</v>
+        <v>312.04</v>
       </c>
       <c r="H199" t="n">
         <v>324.31</v>
@@ -6895,7 +6895,7 @@
         <v>304.86</v>
       </c>
       <c r="G200" t="n">
-        <v>309.43</v>
+        <v>309.38</v>
       </c>
       <c r="H200" t="n">
         <v>319.48</v>
@@ -6926,7 +6926,7 @@
       </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="n">
-        <v>333.02</v>
+        <v>333.33</v>
       </c>
       <c r="H201" t="n">
         <v>325.01</v>
@@ -6959,7 +6959,7 @@
         <v>324.01</v>
       </c>
       <c r="G202" t="n">
-        <v>330.99</v>
+        <v>330.76</v>
       </c>
       <c r="H202" t="n">
         <v>330.63</v>
@@ -6992,7 +6992,7 @@
         <v>312</v>
       </c>
       <c r="G203" t="n">
-        <v>320.44</v>
+        <v>320.31</v>
       </c>
       <c r="H203" t="n">
         <v>328.28</v>
@@ -7025,7 +7025,7 @@
         <v>323.87</v>
       </c>
       <c r="G204" t="n">
-        <v>332.42</v>
+        <v>332.38</v>
       </c>
       <c r="H204" t="n">
         <v>343.45</v>
@@ -7058,7 +7058,7 @@
         <v>309.47</v>
       </c>
       <c r="G205" t="n">
-        <v>322.65</v>
+        <v>322.91</v>
       </c>
       <c r="H205" t="n">
         <v>325.56</v>
@@ -7091,7 +7091,7 @@
         <v>322.75</v>
       </c>
       <c r="G206" t="n">
-        <v>329.82</v>
+        <v>329.65</v>
       </c>
       <c r="H206" t="n">
         <v>331.38</v>
@@ -7124,7 +7124,7 @@
         <v>299.45</v>
       </c>
       <c r="G207" t="n">
-        <v>311.12</v>
+        <v>311.25</v>
       </c>
       <c r="H207" t="n">
         <v>336.85</v>
@@ -7157,7 +7157,7 @@
         <v>320.59</v>
       </c>
       <c r="G208" t="n">
-        <v>325.16</v>
+        <v>325.06</v>
       </c>
       <c r="H208" t="n">
         <v>336.11</v>
@@ -7190,7 +7190,7 @@
         <v>320.46</v>
       </c>
       <c r="G209" t="n">
-        <v>332.91</v>
+        <v>332.96</v>
       </c>
       <c r="H209" t="n">
         <v>335.83</v>
@@ -7223,7 +7223,7 @@
         <v>326.75</v>
       </c>
       <c r="G210" t="n">
-        <v>339.39</v>
+        <v>339.13</v>
       </c>
       <c r="H210" t="n">
         <v>334.43</v>
@@ -7256,7 +7256,7 @@
         <v>317.29</v>
       </c>
       <c r="G211" t="n">
-        <v>327.62</v>
+        <v>327.79</v>
       </c>
       <c r="H211" t="n">
         <v>342.62</v>
@@ -7289,7 +7289,7 @@
         <v>323.29</v>
       </c>
       <c r="G212" t="n">
-        <v>339.96</v>
+        <v>340.19</v>
       </c>
       <c r="H212" t="n">
         <v>349.77</v>
@@ -7322,7 +7322,7 @@
         <v>313.04</v>
       </c>
       <c r="G213" t="n">
-        <v>323.28</v>
+        <v>323.51</v>
       </c>
       <c r="H213" t="n">
         <v>332.92</v>
@@ -7355,7 +7355,7 @@
         <v>322.37</v>
       </c>
       <c r="G214" t="n">
-        <v>328.48</v>
+        <v>328.3</v>
       </c>
       <c r="H214" t="n">
         <v>327.94</v>
@@ -7386,7 +7386,7 @@
         <v>312.47</v>
       </c>
       <c r="G215" t="n">
-        <v>322.89</v>
+        <v>322.82</v>
       </c>
       <c r="H215" t="n">
         <v>323.43</v>
@@ -7417,7 +7417,7 @@
         <v>312.49</v>
       </c>
       <c r="G216" t="n">
-        <v>323.35</v>
+        <v>323.52</v>
       </c>
       <c r="H216" t="n">
         <v>327.36</v>
@@ -7450,7 +7450,7 @@
         <v>326.56</v>
       </c>
       <c r="G217" t="n">
-        <v>337.54</v>
+        <v>337.77</v>
       </c>
       <c r="H217" t="n">
         <v>346.64</v>
@@ -7483,7 +7483,7 @@
         <v>319.51</v>
       </c>
       <c r="G218" t="n">
-        <v>320.36</v>
+        <v>320.02</v>
       </c>
       <c r="H218" t="n">
         <v>321.44</v>
@@ -7516,7 +7516,7 @@
         <v>316.33</v>
       </c>
       <c r="G219" t="n">
-        <v>325.6</v>
+        <v>325.85</v>
       </c>
       <c r="H219" t="n">
         <v>333.08</v>
@@ -7549,7 +7549,7 @@
         <v>323.11</v>
       </c>
       <c r="G220" t="n">
-        <v>333.98</v>
+        <v>333.67</v>
       </c>
       <c r="H220" t="n">
         <v>328.59</v>
@@ -7582,7 +7582,7 @@
         <v>316.33</v>
       </c>
       <c r="G221" t="n">
-        <v>326.56</v>
+        <v>326.72</v>
       </c>
       <c r="H221" t="n">
         <v>333.08</v>
@@ -7615,7 +7615,7 @@
         <v>316.25</v>
       </c>
       <c r="G222" t="n">
-        <v>326.75</v>
+        <v>326.84</v>
       </c>
       <c r="H222" t="n">
         <v>328.59</v>
@@ -7648,7 +7648,7 @@
         <v>328.23</v>
       </c>
       <c r="G223" t="n">
-        <v>337.46</v>
+        <v>337.41</v>
       </c>
       <c r="H223" t="n">
         <v>343.2</v>
@@ -7681,7 +7681,7 @@
         <v>328.88</v>
       </c>
       <c r="G224" t="n">
-        <v>347.62</v>
+        <v>347.93</v>
       </c>
       <c r="H224" t="n">
         <v>366.57</v>
@@ -7714,7 +7714,7 @@
         <v>334.65</v>
       </c>
       <c r="G225" t="n">
-        <v>355.08</v>
+        <v>354.95</v>
       </c>
       <c r="H225" t="n">
         <v>357.79</v>
@@ -7747,7 +7747,7 @@
         <v>328.68</v>
       </c>
       <c r="G226" t="n">
-        <v>340.64</v>
+        <v>340.63</v>
       </c>
       <c r="H226" t="n">
         <v>355.81</v>
@@ -7780,7 +7780,7 @@
         <v>333.74</v>
       </c>
       <c r="G227" t="n">
-        <v>343.47</v>
+        <v>343.72</v>
       </c>
       <c r="H227" t="n">
         <v>361.75</v>
@@ -7813,7 +7813,7 @@
         <v>315.2</v>
       </c>
       <c r="G228" t="n">
-        <v>333.12</v>
+        <v>333.38</v>
       </c>
       <c r="H228" t="n">
         <v>360.46</v>
@@ -7846,7 +7846,7 @@
         <v>315.5</v>
       </c>
       <c r="G229" t="n">
-        <v>336.41</v>
+        <v>336.3</v>
       </c>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
@@ -7877,7 +7877,7 @@
         <v>329.94</v>
       </c>
       <c r="G230" t="n">
-        <v>346.17</v>
+        <v>346.06</v>
       </c>
       <c r="H230" t="n">
         <v>369.13</v>
@@ -7910,7 +7910,7 @@
         <v>321.38</v>
       </c>
       <c r="G231" t="n">
-        <v>332.96</v>
+        <v>333.22</v>
       </c>
       <c r="H231" t="n">
         <v>351.93</v>
@@ -7943,7 +7943,7 @@
         <v>329.52</v>
       </c>
       <c r="G232" t="n">
-        <v>348.49</v>
+        <v>348.11</v>
       </c>
       <c r="H232" t="n">
         <v>372.59</v>
@@ -7976,7 +7976,7 @@
         <v>319.88</v>
       </c>
       <c r="G233" t="n">
-        <v>334.85</v>
+        <v>335.07</v>
       </c>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
@@ -8005,7 +8005,7 @@
         <v>323.98</v>
       </c>
       <c r="G234" t="n">
-        <v>338.65</v>
+        <v>338.86</v>
       </c>
       <c r="H234" t="n">
         <v>355.21</v>
@@ -8038,7 +8038,7 @@
         <v>332.33</v>
       </c>
       <c r="G235" t="n">
-        <v>351.72</v>
+        <v>351.53</v>
       </c>
       <c r="H235" t="n">
         <v>369.98</v>
@@ -8071,7 +8071,7 @@
         <v>327.93</v>
       </c>
       <c r="G236" t="n">
-        <v>340.54</v>
+        <v>340.75</v>
       </c>
       <c r="H236" t="n">
         <v>355.41</v>
@@ -8104,7 +8104,7 @@
         <v>327.46</v>
       </c>
       <c r="G237" t="n">
-        <v>339.31</v>
+        <v>339.57</v>
       </c>
       <c r="H237" t="n">
         <v>360.9</v>
@@ -8137,7 +8137,7 @@
         <v>337.04</v>
       </c>
       <c r="G238" t="n">
-        <v>358.14</v>
+        <v>357.87</v>
       </c>
       <c r="H238" t="n">
         <v>374.38</v>
@@ -8170,7 +8170,7 @@
         <v>335.54</v>
       </c>
       <c r="G239" t="n">
-        <v>354.37</v>
+        <v>354.3</v>
       </c>
       <c r="H239" t="n">
         <v>376.85</v>
@@ -8203,7 +8203,7 @@
         <v>325.58</v>
       </c>
       <c r="G240" t="n">
-        <v>343.54</v>
+        <v>343.86</v>
       </c>
       <c r="H240" t="n">
         <v>360.28</v>
@@ -8236,7 +8236,7 @@
         <v>345.01</v>
       </c>
       <c r="G241" t="n">
-        <v>357.92</v>
+        <v>357.57</v>
       </c>
       <c r="H241" t="n">
         <v>383.31</v>
@@ -8269,7 +8269,7 @@
         <v>332.39</v>
       </c>
       <c r="G242" t="n">
-        <v>347.4</v>
+        <v>347.71</v>
       </c>
       <c r="H242" t="n">
         <v>365.91</v>
@@ -8302,7 +8302,7 @@
         <v>334.54</v>
       </c>
       <c r="G243" t="n">
-        <v>360.33</v>
+        <v>360.35</v>
       </c>
       <c r="H243" t="n">
         <v>379.65</v>
@@ -8335,7 +8335,7 @@
         <v>328.14</v>
       </c>
       <c r="G244" t="n">
-        <v>344.51</v>
+        <v>344.3</v>
       </c>
       <c r="H244" t="n">
         <v>363.88</v>
@@ -8368,7 +8368,7 @@
         <v>321.49</v>
       </c>
       <c r="G245" t="n">
-        <v>335.22</v>
+        <v>335.44</v>
       </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
@@ -8399,7 +8399,7 @@
         <v>337.15</v>
       </c>
       <c r="G246" t="n">
-        <v>348.71</v>
+        <v>348.33</v>
       </c>
       <c r="H246" t="n">
         <v>368.56</v>
@@ -8432,7 +8432,7 @@
         <v>337.71</v>
       </c>
       <c r="G247" t="n">
-        <v>353.39</v>
+        <v>353.21</v>
       </c>
       <c r="H247" t="n">
         <v>362.49</v>
@@ -8465,7 +8465,7 @@
         <v>327.23</v>
       </c>
       <c r="G248" t="n">
-        <v>345.3</v>
+        <v>345.17</v>
       </c>
       <c r="H248" t="n">
         <v>349.62</v>
@@ -8498,7 +8498,7 @@
         <v>331.15</v>
       </c>
       <c r="G249" t="n">
-        <v>345.27</v>
+        <v>345.16</v>
       </c>
       <c r="H249" t="n">
         <v>359.68</v>
@@ -8531,7 +8531,7 @@
         <v>335.35</v>
       </c>
       <c r="G250" t="n">
-        <v>351.89</v>
+        <v>351.67</v>
       </c>
       <c r="H250" t="n">
         <v>363.39</v>
@@ -8564,7 +8564,7 @@
         <v>337.85</v>
       </c>
       <c r="G251" t="n">
-        <v>362.25</v>
+        <v>362.44</v>
       </c>
       <c r="H251" t="n">
         <v>373.26</v>
@@ -8597,7 +8597,7 @@
         <v>332.52</v>
       </c>
       <c r="G252" t="n">
-        <v>347.12</v>
+        <v>346.9</v>
       </c>
       <c r="H252" t="n">
         <v>364.28</v>
@@ -8630,7 +8630,7 @@
         <v>333.96</v>
       </c>
       <c r="G253" t="n">
-        <v>351.57</v>
+        <v>351.77</v>
       </c>
       <c r="H253" t="n">
         <v>364.83</v>
@@ -8663,7 +8663,7 @@
         <v>331.51</v>
       </c>
       <c r="G254" t="n">
-        <v>346.26</v>
+        <v>346.37</v>
       </c>
       <c r="H254" t="n">
         <v>361.32</v>
@@ -8696,7 +8696,7 @@
         <v>339.54</v>
       </c>
       <c r="G255" t="n">
-        <v>357.73</v>
+        <v>357.69</v>
       </c>
       <c r="H255" t="n">
         <v>378.09</v>
@@ -8729,7 +8729,7 @@
         <v>333.44</v>
       </c>
       <c r="G256" t="n">
-        <v>353.24</v>
+        <v>353.44</v>
       </c>
       <c r="H256" t="n">
         <v>377.16</v>
@@ -8762,7 +8762,7 @@
         <v>345.28</v>
       </c>
       <c r="G257" t="n">
-        <v>369.01</v>
+        <v>368.69</v>
       </c>
       <c r="H257" t="n">
         <v>377.27</v>
@@ -8795,7 +8795,7 @@
         <v>345.81</v>
       </c>
       <c r="G258" t="n">
-        <v>361.16</v>
+        <v>361.01</v>
       </c>
       <c r="H258" t="n">
         <v>369.07</v>
@@ -8857,7 +8857,7 @@
         <v>338.26</v>
       </c>
       <c r="G260" t="n">
-        <v>353.9</v>
+        <v>353.95</v>
       </c>
       <c r="H260" t="n">
         <v>371.54</v>
@@ -8917,7 +8917,7 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="n">
-        <v>354.07</v>
+        <v>353.68</v>
       </c>
       <c r="H262" t="n">
         <v>355.23</v>
@@ -8946,7 +8946,7 @@
         <v>335.05</v>
       </c>
       <c r="G263" t="n">
-        <v>350.05</v>
+        <v>350.28</v>
       </c>
       <c r="H263" t="n">
         <v>359.35</v>
@@ -8979,7 +8979,7 @@
         <v>335.18</v>
       </c>
       <c r="G264" t="n">
-        <v>351.99</v>
+        <v>352.13</v>
       </c>
       <c r="H264" t="n">
         <v>345.38</v>
@@ -9012,7 +9012,7 @@
         <v>344.37</v>
       </c>
       <c r="G265" t="n">
-        <v>358.71</v>
+        <v>358.56</v>
       </c>
       <c r="H265" t="n">
         <v>367.82</v>
@@ -9045,7 +9045,7 @@
         <v>335.19</v>
       </c>
       <c r="G266" t="n">
-        <v>350.87</v>
+        <v>350.56</v>
       </c>
       <c r="H266" t="n">
         <v>362.73</v>
@@ -9078,7 +9078,7 @@
         <v>337.47</v>
       </c>
       <c r="G267" t="n">
-        <v>349.2</v>
+        <v>349.41</v>
       </c>
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
@@ -9109,7 +9109,7 @@
         <v>338.62</v>
       </c>
       <c r="G268" t="n">
-        <v>351.26</v>
+        <v>350.95</v>
       </c>
       <c r="H268" t="n">
         <v>363.01</v>
@@ -9142,7 +9142,7 @@
         <v>335.6</v>
       </c>
       <c r="G269" t="n">
-        <v>348.59</v>
+        <v>348.38</v>
       </c>
       <c r="H269" t="n">
         <v>362.7</v>
@@ -9175,7 +9175,7 @@
         <v>340.41</v>
       </c>
       <c r="G270" t="n">
-        <v>350.29</v>
+        <v>350.08</v>
       </c>
       <c r="H270" t="n">
         <v>362.29</v>
@@ -9208,7 +9208,7 @@
         <v>336.53</v>
       </c>
       <c r="G271" t="n">
-        <v>353.49</v>
+        <v>353.51</v>
       </c>
       <c r="H271" t="n">
         <v>356.84</v>
@@ -9241,7 +9241,7 @@
         <v>328.34</v>
       </c>
       <c r="G272" t="n">
-        <v>354.96</v>
+        <v>354.89</v>
       </c>
       <c r="H272" t="n">
         <v>369.09</v>
@@ -9303,7 +9303,7 @@
         <v>334.92</v>
       </c>
       <c r="G274" t="n">
-        <v>349.94</v>
+        <v>350.25</v>
       </c>
       <c r="H274" t="n">
         <v>364.57</v>
@@ -9336,7 +9336,7 @@
         <v>343.91</v>
       </c>
       <c r="G275" t="n">
-        <v>356.43</v>
+        <v>356.3</v>
       </c>
       <c r="H275" t="n">
         <v>374.4</v>
@@ -9359,7 +9359,7 @@
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr"/>
       <c r="G276" t="n">
-        <v>345.48</v>
+        <v>345.77</v>
       </c>
       <c r="H276" t="n">
         <v>358.62</v>
@@ -9388,7 +9388,7 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="n">
-        <v>340.42</v>
+        <v>340.71</v>
       </c>
       <c r="H277" t="n">
         <v>355.77</v>
@@ -9421,7 +9421,7 @@
         <v>337.95</v>
       </c>
       <c r="G278" t="n">
-        <v>357.88</v>
+        <v>358.01</v>
       </c>
       <c r="H278" t="n">
         <v>378</v>
@@ -9481,7 +9481,7 @@
         <v>330.35</v>
       </c>
       <c r="G280" t="n">
-        <v>351.12</v>
+        <v>351</v>
       </c>
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
@@ -9512,7 +9512,7 @@
         <v>331.24</v>
       </c>
       <c r="G281" t="n">
-        <v>347.3</v>
+        <v>347.18</v>
       </c>
       <c r="H281" t="n">
         <v>367.95</v>
@@ -9545,7 +9545,7 @@
         <v>332.54</v>
       </c>
       <c r="G282" t="n">
-        <v>350.31</v>
+        <v>350.57</v>
       </c>
       <c r="H282" t="n">
         <v>362.62</v>
@@ -9636,7 +9636,7 @@
         <v>327.77</v>
       </c>
       <c r="G285" t="n">
-        <v>339.91</v>
+        <v>340.14</v>
       </c>
       <c r="H285" t="n">
         <v>351.09</v>
@@ -9669,7 +9669,7 @@
         <v>348.75</v>
       </c>
       <c r="G286" t="n">
-        <v>358.96</v>
+        <v>358.84</v>
       </c>
       <c r="H286" t="n">
         <v>367.35</v>
@@ -9702,7 +9702,7 @@
         <v>340.91</v>
       </c>
       <c r="G287" t="n">
-        <v>347.84</v>
+        <v>347.83</v>
       </c>
       <c r="H287" t="n">
         <v>366.19</v>
@@ -9735,7 +9735,7 @@
         <v>334.17</v>
       </c>
       <c r="G288" t="n">
-        <v>355.43</v>
+        <v>355.39</v>
       </c>
       <c r="H288" t="n">
         <v>363.31</v>
@@ -9762,7 +9762,7 @@
         <v>317.67</v>
       </c>
       <c r="G289" t="n">
-        <v>349.8</v>
+        <v>350</v>
       </c>
       <c r="H289" t="n">
         <v>351.62</v>
@@ -9795,7 +9795,7 @@
         <v>330.34</v>
       </c>
       <c r="G290" t="n">
-        <v>342.71</v>
+        <v>342.5</v>
       </c>
       <c r="H290" t="n">
         <v>355.17</v>
@@ -9828,7 +9828,7 @@
         <v>329.29</v>
       </c>
       <c r="G291" t="n">
-        <v>353.48</v>
+        <v>353.36</v>
       </c>
       <c r="H291" t="n">
         <v>371.89</v>
@@ -9861,7 +9861,7 @@
         <v>329.01</v>
       </c>
       <c r="G292" t="n">
-        <v>346.42</v>
+        <v>346.3</v>
       </c>
       <c r="H292" t="n">
         <v>359.75</v>
@@ -9894,7 +9894,7 @@
         <v>334.83</v>
       </c>
       <c r="G293" t="n">
-        <v>358.18</v>
+        <v>358.44</v>
       </c>
       <c r="H293" t="n">
         <v>366.03</v>
@@ -9927,7 +9927,7 @@
         <v>322.95</v>
       </c>
       <c r="G294" t="n">
-        <v>337.72</v>
+        <v>337.46</v>
       </c>
       <c r="H294" t="n">
         <v>343.54</v>
@@ -9989,7 +9989,7 @@
         <v>335.2</v>
       </c>
       <c r="G296" t="n">
-        <v>356.98</v>
+        <v>357.05</v>
       </c>
       <c r="H296" t="n">
         <v>361.15</v>
@@ -10018,7 +10018,7 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="n">
-        <v>351.08</v>
+        <v>351.39</v>
       </c>
       <c r="H297" t="n">
         <v>360.58</v>
@@ -10074,7 +10074,7 @@
         <v>341.04</v>
       </c>
       <c r="G299" t="n">
-        <v>359.13</v>
+        <v>358.94</v>
       </c>
       <c r="H299" t="n">
         <v>375</v>
@@ -10107,7 +10107,7 @@
         <v>338.34</v>
       </c>
       <c r="G300" t="n">
-        <v>360.61</v>
+        <v>360.68</v>
       </c>
       <c r="H300" t="n">
         <v>379.51</v>
@@ -10140,7 +10140,7 @@
         <v>336.93</v>
       </c>
       <c r="G301" t="n">
-        <v>361.35</v>
+        <v>361.51</v>
       </c>
       <c r="H301" t="n">
         <v>369.39</v>
@@ -10202,7 +10202,7 @@
         <v>332.14</v>
       </c>
       <c r="G303" t="n">
-        <v>346.55</v>
+        <v>346.78</v>
       </c>
       <c r="H303" t="n">
         <v>360.98</v>
@@ -10235,7 +10235,7 @@
         <v>336.79</v>
       </c>
       <c r="G304" t="n">
-        <v>351.97</v>
+        <v>352.14</v>
       </c>
       <c r="H304" t="n">
         <v>364.07</v>
@@ -10268,7 +10268,7 @@
         <v>339.84</v>
       </c>
       <c r="G305" t="n">
-        <v>353.56</v>
+        <v>353.22</v>
       </c>
       <c r="H305" t="n">
         <v>369.05</v>
@@ -10301,7 +10301,7 @@
         <v>324.03</v>
       </c>
       <c r="G306" t="n">
-        <v>364.6</v>
+        <v>364.8</v>
       </c>
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
@@ -10357,7 +10357,7 @@
         <v>343.55</v>
       </c>
       <c r="G308" t="n">
-        <v>353.74</v>
+        <v>353.52</v>
       </c>
       <c r="H308" t="n">
         <v>365.2</v>
@@ -10390,7 +10390,7 @@
         <v>336.31</v>
       </c>
       <c r="G309" t="n">
-        <v>352.6</v>
+        <v>352.44</v>
       </c>
       <c r="H309" t="n">
         <v>365.79</v>
@@ -10423,7 +10423,7 @@
         <v>320.79</v>
       </c>
       <c r="G310" t="n">
-        <v>338.2</v>
+        <v>338.02</v>
       </c>
       <c r="H310" t="n">
         <v>362.86</v>
@@ -10448,7 +10448,7 @@
         <v>340.79</v>
       </c>
       <c r="G311" t="n">
-        <v>354.15</v>
+        <v>354.27</v>
       </c>
       <c r="H311" t="n">
         <v>361.24</v>
@@ -10481,7 +10481,7 @@
         <v>337.5</v>
       </c>
       <c r="G312" t="n">
-        <v>349.88</v>
+        <v>349.98</v>
       </c>
       <c r="H312" t="n">
         <v>372.04</v>
@@ -10514,7 +10514,7 @@
         <v>335.89</v>
       </c>
       <c r="G313" t="n">
-        <v>355.62</v>
+        <v>355.88</v>
       </c>
       <c r="H313" t="n">
         <v>363.6</v>
@@ -10547,7 +10547,7 @@
         <v>336.32</v>
       </c>
       <c r="G314" t="n">
-        <v>359.07</v>
+        <v>359.23</v>
       </c>
       <c r="H314" t="n">
         <v>380.14</v>
@@ -10580,7 +10580,7 @@
         <v>342.52</v>
       </c>
       <c r="G315" t="n">
-        <v>362.9</v>
+        <v>362.93</v>
       </c>
       <c r="H315" t="n">
         <v>376.86</v>
@@ -10613,7 +10613,7 @@
         <v>333.95</v>
       </c>
       <c r="G316" t="n">
-        <v>352.13</v>
+        <v>352.14</v>
       </c>
       <c r="H316" t="n">
         <v>372.92</v>
@@ -10671,7 +10671,7 @@
         <v>338.99</v>
       </c>
       <c r="G318" t="n">
-        <v>355.4</v>
+        <v>355.21</v>
       </c>
       <c r="H318" t="n">
         <v>366.03</v>
@@ -10704,7 +10704,7 @@
         <v>337.93</v>
       </c>
       <c r="G319" t="n">
-        <v>353.16</v>
+        <v>352.81</v>
       </c>
       <c r="H319" t="n">
         <v>370.88</v>
@@ -10731,7 +10731,7 @@
         <v>325</v>
       </c>
       <c r="G320" t="n">
-        <v>352.55</v>
+        <v>352.34</v>
       </c>
       <c r="H320" t="n">
         <v>362.34</v>
@@ -10758,7 +10758,7 @@
         <v>336.24</v>
       </c>
       <c r="G321" t="n">
-        <v>355.75</v>
+        <v>356.01</v>
       </c>
       <c r="H321" t="n">
         <v>370.01</v>
@@ -10791,7 +10791,7 @@
         <v>335.24</v>
       </c>
       <c r="G322" t="n">
-        <v>355.14</v>
+        <v>355.02</v>
       </c>
       <c r="H322" t="n">
         <v>357.28</v>
@@ -10814,7 +10814,7 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="n">
-        <v>343.25</v>
+        <v>343.2</v>
       </c>
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
@@ -10845,7 +10845,7 @@
         <v>334.99</v>
       </c>
       <c r="G324" t="n">
-        <v>347</v>
+        <v>346.7</v>
       </c>
       <c r="H324" t="n">
         <v>359.12</v>
@@ -10868,7 +10868,7 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="n">
-        <v>340.01</v>
+        <v>340.22</v>
       </c>
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
@@ -10899,7 +10899,7 @@
         <v>330.36</v>
       </c>
       <c r="G326" t="n">
-        <v>340.18</v>
+        <v>340.42</v>
       </c>
       <c r="H326" t="n">
         <v>360.43</v>
@@ -10932,7 +10932,7 @@
         <v>335.54</v>
       </c>
       <c r="G327" t="n">
-        <v>358.06</v>
+        <v>358.22</v>
       </c>
       <c r="H327" t="n">
         <v>363.25</v>
@@ -10986,7 +10986,7 @@
         <v>333.07</v>
       </c>
       <c r="G329" t="n">
-        <v>344.22</v>
+        <v>344.2</v>
       </c>
       <c r="H329" t="n">
         <v>352.39</v>
@@ -11019,7 +11019,7 @@
         <v>339.13</v>
       </c>
       <c r="G330" t="n">
-        <v>353.74</v>
+        <v>353.93</v>
       </c>
       <c r="H330" t="n">
         <v>365.72</v>
@@ -11052,7 +11052,7 @@
         <v>340.89</v>
       </c>
       <c r="G331" t="n">
-        <v>352.15</v>
+        <v>352.3</v>
       </c>
       <c r="H331" t="n">
         <v>361.91</v>
@@ -11085,7 +11085,7 @@
         <v>338.83</v>
       </c>
       <c r="G332" t="n">
-        <v>350.07</v>
+        <v>349.85</v>
       </c>
       <c r="H332" t="n">
         <v>367.72</v>
@@ -11118,7 +11118,7 @@
         <v>334.24</v>
       </c>
       <c r="G333" t="n">
-        <v>347.63</v>
+        <v>347.39</v>
       </c>
       <c r="H333" t="n">
         <v>363.76</v>
@@ -11151,7 +11151,7 @@
         <v>334.9</v>
       </c>
       <c r="G334" t="n">
-        <v>351.27</v>
+        <v>351.58</v>
       </c>
       <c r="H334" t="n">
         <v>364.73</v>
@@ -11213,7 +11213,7 @@
         <v>338.82</v>
       </c>
       <c r="G336" t="n">
-        <v>347.24</v>
+        <v>347.36</v>
       </c>
       <c r="H336" t="n">
         <v>360.14</v>
@@ -11246,7 +11246,7 @@
         <v>332.91</v>
       </c>
       <c r="G337" t="n">
-        <v>343.4</v>
+        <v>343.43</v>
       </c>
       <c r="H337" t="n">
         <v>358.13</v>
@@ -11279,7 +11279,7 @@
         <v>320.87</v>
       </c>
       <c r="G338" t="n">
-        <v>334.36</v>
+        <v>334.5</v>
       </c>
       <c r="H338" t="n">
         <v>358.53</v>
@@ -11341,7 +11341,7 @@
         <v>330.05</v>
       </c>
       <c r="G340" t="n">
-        <v>348.07</v>
+        <v>348</v>
       </c>
       <c r="H340" t="n">
         <v>370.1</v>
@@ -11374,7 +11374,7 @@
         <v>325.15</v>
       </c>
       <c r="G341" t="n">
-        <v>340.63</v>
+        <v>340.87</v>
       </c>
       <c r="H341" t="n">
         <v>352.56</v>
@@ -11407,7 +11407,7 @@
         <v>338.43</v>
       </c>
       <c r="G342" t="n">
-        <v>353.06</v>
+        <v>352.78</v>
       </c>
       <c r="H342" t="n">
         <v>372.45</v>
@@ -11440,7 +11440,7 @@
         <v>332.84</v>
       </c>
       <c r="G343" t="n">
-        <v>347.03</v>
+        <v>347.31</v>
       </c>
       <c r="H343" t="n">
         <v>369.47</v>
@@ -11473,7 +11473,7 @@
         <v>343.16</v>
       </c>
       <c r="G344" t="n">
-        <v>365.45</v>
+        <v>365.19</v>
       </c>
       <c r="H344" t="n">
         <v>378.29</v>
@@ -11506,7 +11506,7 @@
         <v>344.17</v>
       </c>
       <c r="G345" t="n">
-        <v>361.27</v>
+        <v>360.98</v>
       </c>
       <c r="H345" t="n">
         <v>375.42</v>
@@ -11539,7 +11539,7 @@
         <v>343.14</v>
       </c>
       <c r="G346" t="n">
-        <v>360.58</v>
+        <v>360.4</v>
       </c>
       <c r="H346" t="n">
         <v>375.06</v>
@@ -11572,7 +11572,7 @@
         <v>327.63</v>
       </c>
       <c r="G347" t="n">
-        <v>352.91</v>
+        <v>352.93</v>
       </c>
       <c r="H347" t="n">
         <v>350.39</v>
@@ -11638,7 +11638,7 @@
         <v>334.55</v>
       </c>
       <c r="G349" t="n">
-        <v>358.69</v>
+        <v>358.95</v>
       </c>
       <c r="H349" t="n">
         <v>367.18</v>
@@ -11671,7 +11671,7 @@
         <v>340.48</v>
       </c>
       <c r="G350" t="n">
-        <v>356.1</v>
+        <v>355.75</v>
       </c>
       <c r="H350" t="n">
         <v>372.2</v>
@@ -11758,7 +11758,7 @@
         <v>335.2</v>
       </c>
       <c r="G353" t="n">
-        <v>348.43</v>
+        <v>348.19</v>
       </c>
       <c r="H353" t="n">
         <v>361.8</v>
@@ -11791,7 +11791,7 @@
         <v>336.61</v>
       </c>
       <c r="G354" t="n">
-        <v>348.9</v>
+        <v>349.06</v>
       </c>
       <c r="H354" t="n">
         <v>364.97</v>
@@ -11824,7 +11824,7 @@
         <v>343.6</v>
       </c>
       <c r="G355" t="n">
-        <v>355.5</v>
+        <v>355.72</v>
       </c>
       <c r="H355" t="n">
         <v>366.98</v>
@@ -11855,7 +11855,7 @@
         <v>352.85</v>
       </c>
       <c r="G356" t="n">
-        <v>368.57</v>
+        <v>368.23</v>
       </c>
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
@@ -11886,7 +11886,7 @@
         <v>330.59</v>
       </c>
       <c r="G357" t="n">
-        <v>331.24</v>
+        <v>331.02</v>
       </c>
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
@@ -11940,7 +11940,7 @@
         <v>325.27</v>
       </c>
       <c r="G359" t="n">
-        <v>336.36</v>
+        <v>336.39</v>
       </c>
       <c r="H359" t="n">
         <v>345.87</v>
@@ -12002,7 +12002,7 @@
         <v>330.31</v>
       </c>
       <c r="G361" t="n">
-        <v>349.73</v>
+        <v>349.69</v>
       </c>
       <c r="H361" t="n">
         <v>364.89</v>
@@ -12035,7 +12035,7 @@
         <v>331.95</v>
       </c>
       <c r="G362" t="n">
-        <v>348.58</v>
+        <v>348.68</v>
       </c>
       <c r="H362" t="n">
         <v>360.21</v>
@@ -12066,7 +12066,7 @@
         <v>316.01</v>
       </c>
       <c r="G363" t="n">
-        <v>339.05</v>
+        <v>339.1</v>
       </c>
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
@@ -12097,7 +12097,7 @@
         <v>337.71</v>
       </c>
       <c r="G364" t="n">
-        <v>351.06</v>
+        <v>350.91</v>
       </c>
       <c r="H364" t="n">
         <v>365.58</v>
@@ -12130,7 +12130,7 @@
         <v>342.49</v>
       </c>
       <c r="G365" t="n">
-        <v>357.51</v>
+        <v>357.23</v>
       </c>
       <c r="H365" t="n">
         <v>368.57</v>
@@ -12163,7 +12163,7 @@
         <v>337.13</v>
       </c>
       <c r="G366" t="n">
-        <v>354.13</v>
+        <v>354.39</v>
       </c>
       <c r="H366" t="n">
         <v>364.05</v>
@@ -12196,7 +12196,7 @@
         <v>340.38</v>
       </c>
       <c r="G367" t="n">
-        <v>353.79</v>
+        <v>353.55</v>
       </c>
       <c r="H367" t="n">
         <v>361.06</v>
@@ -12229,7 +12229,7 @@
         <v>337.21</v>
       </c>
       <c r="G368" t="n">
-        <v>352.74</v>
+        <v>352.73</v>
       </c>
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
@@ -12260,7 +12260,7 @@
         <v>337.06</v>
       </c>
       <c r="G369" t="n">
-        <v>351.42</v>
+        <v>351.45</v>
       </c>
       <c r="H369" t="n">
         <v>355.86</v>
@@ -12293,7 +12293,7 @@
         <v>343.13</v>
       </c>
       <c r="G370" t="n">
-        <v>359.35</v>
+        <v>359.14</v>
       </c>
       <c r="H370" t="n">
         <v>363.98</v>
@@ -12326,7 +12326,7 @@
         <v>335.49</v>
       </c>
       <c r="G371" t="n">
-        <v>352.25</v>
+        <v>352.42</v>
       </c>
       <c r="H371" t="n">
         <v>369.21</v>
@@ -12351,7 +12351,7 @@
         <v>331.74</v>
       </c>
       <c r="G372" t="n">
-        <v>351.92</v>
+        <v>351.95</v>
       </c>
       <c r="H372" t="n">
         <v>353.33</v>
@@ -12384,7 +12384,7 @@
         <v>342.68</v>
       </c>
       <c r="G373" t="n">
-        <v>356.12</v>
+        <v>355.79</v>
       </c>
       <c r="H373" t="n">
         <v>369.1</v>
@@ -12417,7 +12417,7 @@
         <v>341.06</v>
       </c>
       <c r="G374" t="n">
-        <v>356.39</v>
+        <v>356.7</v>
       </c>
       <c r="H374" t="n">
         <v>372.9</v>
@@ -12446,7 +12446,7 @@
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="n">
-        <v>347.36</v>
+        <v>347.43</v>
       </c>
       <c r="H375" t="n">
         <v>359.54</v>
@@ -12479,7 +12479,7 @@
         <v>340.57</v>
       </c>
       <c r="G376" t="n">
-        <v>360.75</v>
+        <v>360.65</v>
       </c>
       <c r="H376" t="n">
         <v>372.02</v>
@@ -12512,7 +12512,7 @@
         <v>340.19</v>
       </c>
       <c r="G377" t="n">
-        <v>352.36</v>
+        <v>352.46</v>
       </c>
       <c r="H377" t="n">
         <v>370.92</v>
@@ -12545,7 +12545,7 @@
         <v>340.53</v>
       </c>
       <c r="G378" t="n">
-        <v>354.34</v>
+        <v>354.39</v>
       </c>
       <c r="H378" t="n">
         <v>373.79</v>
@@ -12595,7 +12595,7 @@
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="n">
-        <v>348.61</v>
+        <v>348.31</v>
       </c>
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
@@ -12622,7 +12622,7 @@
         <v>319.13</v>
       </c>
       <c r="G381" t="n">
-        <v>342.98</v>
+        <v>342.93</v>
       </c>
       <c r="H381" t="n">
         <v>368.28</v>
@@ -12711,7 +12711,7 @@
         <v>328.58</v>
       </c>
       <c r="G384" t="n">
-        <v>351.47</v>
+        <v>351.59</v>
       </c>
       <c r="H384" t="n">
         <v>363.22</v>
@@ -12744,7 +12744,7 @@
         <v>339.34</v>
       </c>
       <c r="G385" t="n">
-        <v>359.36</v>
+        <v>359.19</v>
       </c>
       <c r="H385" t="n">
         <v>380.65</v>
@@ -12777,7 +12777,7 @@
         <v>347.04</v>
       </c>
       <c r="G386" t="n">
-        <v>363.95</v>
+        <v>363.93</v>
       </c>
       <c r="H386" t="n">
         <v>388.74</v>
@@ -12810,7 +12810,7 @@
         <v>337.51</v>
       </c>
       <c r="G387" t="n">
-        <v>357.47</v>
+        <v>357.7</v>
       </c>
       <c r="H387" t="n">
         <v>372.74</v>
@@ -12843,7 +12843,7 @@
         <v>333.37</v>
       </c>
       <c r="G388" t="n">
-        <v>356.34</v>
+        <v>356.1</v>
       </c>
       <c r="H388" t="n">
         <v>366.23</v>
@@ -12876,7 +12876,7 @@
         <v>334.82</v>
       </c>
       <c r="G389" t="n">
-        <v>355.85</v>
+        <v>356.02</v>
       </c>
       <c r="H389" t="n">
         <v>364.72</v>
@@ -12909,7 +12909,7 @@
         <v>332.78</v>
       </c>
       <c r="G390" t="n">
-        <v>353.93</v>
+        <v>353.94</v>
       </c>
       <c r="H390" t="n">
         <v>360.55</v>
@@ -12942,7 +12942,7 @@
         <v>335.05</v>
       </c>
       <c r="G391" t="n">
-        <v>348.06</v>
+        <v>348.05</v>
       </c>
       <c r="H391" t="n">
         <v>359.03</v>
@@ -12975,7 +12975,7 @@
         <v>329.73</v>
       </c>
       <c r="G392" t="n">
-        <v>340.9</v>
+        <v>341.01</v>
       </c>
       <c r="H392" t="n">
         <v>358.87</v>
@@ -13008,7 +13008,7 @@
         <v>325.79</v>
       </c>
       <c r="G393" t="n">
-        <v>345.25</v>
+        <v>345.37</v>
       </c>
       <c r="H393" t="n">
         <v>356.21</v>
@@ -13062,7 +13062,7 @@
         <v>337.73</v>
       </c>
       <c r="G395" t="n">
-        <v>354.39</v>
+        <v>354.13</v>
       </c>
       <c r="H395" t="n">
         <v>368.22</v>
@@ -13095,7 +13095,7 @@
         <v>333.01</v>
       </c>
       <c r="G396" t="n">
-        <v>354.96</v>
+        <v>355.25</v>
       </c>
       <c r="H396" t="n">
         <v>364.28</v>
@@ -13128,7 +13128,7 @@
         <v>335.71</v>
       </c>
       <c r="G397" t="n">
-        <v>346.17</v>
+        <v>345.94</v>
       </c>
       <c r="H397" t="n">
         <v>361.78</v>
@@ -13161,7 +13161,7 @@
         <v>327.27</v>
       </c>
       <c r="G398" t="n">
-        <v>342.79</v>
+        <v>342.93</v>
       </c>
       <c r="H398" t="n">
         <v>359.43</v>
@@ -13194,7 +13194,7 @@
         <v>335.13</v>
       </c>
       <c r="G399" t="n">
-        <v>354.48</v>
+        <v>354.68</v>
       </c>
       <c r="H399" t="n">
         <v>362.39</v>
@@ -13227,7 +13227,7 @@
         <v>337.71</v>
       </c>
       <c r="G400" t="n">
-        <v>354.58</v>
+        <v>354.36</v>
       </c>
       <c r="H400" t="n">
         <v>362.84</v>
@@ -13260,7 +13260,7 @@
         <v>331.86</v>
       </c>
       <c r="G401" t="n">
-        <v>345.24</v>
+        <v>345.58</v>
       </c>
       <c r="H401" t="n">
         <v>372.9</v>
@@ -13293,7 +13293,7 @@
         <v>339.77</v>
       </c>
       <c r="G402" t="n">
-        <v>362.01</v>
+        <v>362.29</v>
       </c>
       <c r="H402" t="n">
         <v>377.96</v>
@@ -13326,7 +13326,7 @@
         <v>344.54</v>
       </c>
       <c r="G403" t="n">
-        <v>350.68</v>
+        <v>350.43</v>
       </c>
       <c r="H403" t="n">
         <v>373.64</v>
@@ -13359,7 +13359,7 @@
         <v>333.96</v>
       </c>
       <c r="G404" t="n">
-        <v>355.88</v>
+        <v>355.83</v>
       </c>
       <c r="H404" t="n">
         <v>370.11</v>
@@ -13392,7 +13392,7 @@
         <v>330.96</v>
       </c>
       <c r="G405" t="n">
-        <v>353.23</v>
+        <v>353.3</v>
       </c>
       <c r="H405" t="n">
         <v>375.91</v>
@@ -13425,7 +13425,7 @@
         <v>334</v>
       </c>
       <c r="G406" t="n">
-        <v>352.32</v>
+        <v>352.01</v>
       </c>
       <c r="H406" t="n">
         <v>374.56</v>
@@ -13458,7 +13458,7 @@
         <v>326.42</v>
       </c>
       <c r="G407" t="n">
-        <v>343.7</v>
+        <v>344.03</v>
       </c>
       <c r="H407" t="n">
         <v>363.52</v>
@@ -13491,7 +13491,7 @@
         <v>336.36</v>
       </c>
       <c r="G408" t="n">
-        <v>357.15</v>
+        <v>356.98</v>
       </c>
       <c r="H408" t="n">
         <v>369.34</v>
@@ -13524,7 +13524,7 @@
         <v>323.98</v>
       </c>
       <c r="G409" t="n">
-        <v>334.68</v>
+        <v>334.66</v>
       </c>
       <c r="H409" t="n">
         <v>355.47</v>
@@ -13557,7 +13557,7 @@
         <v>336.58</v>
       </c>
       <c r="G410" t="n">
-        <v>359.91</v>
+        <v>359.84</v>
       </c>
       <c r="H410" t="n">
         <v>368.97</v>
@@ -13590,7 +13590,7 @@
         <v>338.12</v>
       </c>
       <c r="G411" t="n">
-        <v>360.57</v>
+        <v>360.33</v>
       </c>
       <c r="H411" t="n">
         <v>370.33</v>
@@ -13656,7 +13656,7 @@
         <v>339.01</v>
       </c>
       <c r="G413" t="n">
-        <v>357.19</v>
+        <v>357.22</v>
       </c>
       <c r="H413" t="n">
         <v>367.55</v>
@@ -13689,7 +13689,7 @@
         <v>335.35</v>
       </c>
       <c r="G414" t="n">
-        <v>349.88</v>
+        <v>350</v>
       </c>
       <c r="H414" t="n">
         <v>346.37</v>
@@ -13722,7 +13722,7 @@
         <v>321.97</v>
       </c>
       <c r="G415" t="n">
-        <v>336.56</v>
+        <v>336.39</v>
       </c>
       <c r="H415" t="n">
         <v>347.44</v>
@@ -13755,7 +13755,7 @@
         <v>336.32</v>
       </c>
       <c r="G416" t="n">
-        <v>350.76</v>
+        <v>350.51</v>
       </c>
       <c r="H416" t="n">
         <v>371.84</v>
@@ -13788,7 +13788,7 @@
         <v>333.34</v>
       </c>
       <c r="G417" t="n">
-        <v>349.22</v>
+        <v>349.28</v>
       </c>
       <c r="H417" t="n">
         <v>374.96</v>
@@ -13821,7 +13821,7 @@
         <v>327.62</v>
       </c>
       <c r="G418" t="n">
-        <v>343.87</v>
+        <v>344.05</v>
       </c>
       <c r="H418" t="n">
         <v>356.09</v>
@@ -13854,7 +13854,7 @@
         <v>326.86</v>
       </c>
       <c r="G419" t="n">
-        <v>345.77</v>
+        <v>345.52</v>
       </c>
       <c r="H419" t="n">
         <v>363.04</v>
@@ -13887,7 +13887,7 @@
         <v>335.35</v>
       </c>
       <c r="G420" t="n">
-        <v>353.29</v>
+        <v>353</v>
       </c>
       <c r="H420" t="n">
         <v>361.31</v>
@@ -13920,7 +13920,7 @@
         <v>336.84</v>
       </c>
       <c r="G421" t="n">
-        <v>352.04</v>
+        <v>352.3</v>
       </c>
       <c r="H421" t="n">
         <v>371.37</v>
@@ -13953,7 +13953,7 @@
         <v>328.58</v>
       </c>
       <c r="G422" t="n">
-        <v>346.47</v>
+        <v>346.22</v>
       </c>
       <c r="H422" t="n">
         <v>362.67</v>
@@ -18846,7 +18846,7 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.060541310173764</v>
+        <v>1.058819500139478</v>
       </c>
       <c r="J7" t="n">
         <v>421</v>
@@ -18855,19 +18855,19 @@
         <v>396</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1405153292984757</v>
+        <v>0.1400820132219539</v>
       </c>
       <c r="M7" t="n">
-        <v>9.553112844708009</v>
+        <v>9.544170622752684</v>
       </c>
       <c r="N7" t="n">
-        <v>404.0855865561246</v>
+        <v>404.2241634227651</v>
       </c>
       <c r="O7" t="n">
-        <v>20.10188017465343</v>
+        <v>20.10532674250198</v>
       </c>
       <c r="P7" t="n">
-        <v>322.1868314037922</v>
+        <v>322.2175746124428</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19051,7 +19051,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-42.480550354644095,173.53177471644648</t>
+          <t>-42.480550594186326,173.53177576250965</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -19086,7 +19086,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-42.4804550959263,173.53135873260746</t>
+          <t>-42.48045584118062,173.53136198701657</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-42.47988255345754,173.52885867162215</t>
+          <t>-42.47988289950164,173.52886018257053</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -19176,7 +19176,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-42.479896262111936,173.5289185284364</t>
+          <t>-42.47989559664399,173.5289156227652</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -19223,7 +19223,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-42.479862429628355,173.52877080419017</t>
+          <t>-42.479862296534016,173.52877022305654</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -19270,7 +19270,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-42.479852740353095,173.5287284976687</t>
+          <t>-42.47985316625562,173.52873035729576</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -19317,7 +19317,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-42.47987406206168,173.52882159527832</t>
+          <t>-42.479874967101324,173.52882554698846</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -19364,7 +19364,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-42.47986266919815,173.52877185023067</t>
+          <t>-42.479863494382926,173.52877545325924</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -19411,7 +19411,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-42.47988356497098,173.52886308824054</t>
+          <t>-42.47988393763378,173.5288647154158</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -19458,7 +19458,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-42.47990038801146,173.52893654359914</t>
+          <t>-42.47990020168057,173.52893573001109</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -19505,7 +19505,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-42.47988976714174,173.52889016908816</t>
+          <t>-42.47988902181683,173.52888691473711</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -19552,7 +19552,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-42.47990624412204,173.5289621135116</t>
+          <t>-42.47990555203654,173.5289590916126</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -19595,7 +19595,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-42.479887823973044,173.5288816845302</t>
+          <t>-42.47988761102302,173.52888075471566</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -19669,7 +19669,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-42.47988982037921,173.52889040154182</t>
+          <t>-42.47989064556025,173.52889400457346</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -19716,7 +19716,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-42.479903182974034,173.5289487474204</t>
+          <t>-42.47990363549166,173.5289507232773</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -19763,7 +19763,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-42.47989125779125,173.52889667779053</t>
+          <t>-42.479891151316295,173.5288962128832</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -19810,7 +19810,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-42.47984935975061,173.52871373687992</t>
+          <t>-42.47984866765853,173.52871071498635</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -19857,7 +19857,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-42.47986959009914,173.52880206918272</t>
+          <t>-42.4798688181529,173.52879869860698</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -19904,7 +19904,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-42.479875632571556,173.5288284526578</t>
+          <t>-42.479876564229755,173.5288325205949</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -19951,7 +19951,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-42.47987903977796,173.52884332968557</t>
+          <t>-42.47987834768931,173.52884030778915</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -19994,7 +19994,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-42.47987941244104,173.52884495686055</t>
+          <t>-42.47987864049607,173.52884158628376</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -20041,7 +20041,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-42.47988244698244,173.52885820671494</t>
+          <t>-42.479882260650996,173.52885739312734</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -20088,7 +20088,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-42.47987834768931,173.52884030778915</t>
+          <t>-42.4798792527283,173.52884425949986</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -20135,7 +20135,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-42.479894984413434,173.52891294954776</t>
+          <t>-42.47989541031296,173.52891480917728</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -20182,7 +20182,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-42.47985471015208,173.528737098444</t>
+          <t>-42.47985401806062,173.5287340765499</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -20229,7 +20229,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-42.479873689398275,173.52881996810356</t>
+          <t>-42.47987302392782,173.52881706243443</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -20276,7 +20276,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-42.47982433790903,173.52860448384644</t>
+          <t>-42.4798248436707,173.52860669215158</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -20323,7 +20323,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-42.47986730087894,173.5287920736825</t>
+          <t>-42.47986785987464,173.5287945144441</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -20370,7 +20370,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-42.4798489338478,173.5287118772531</t>
+          <t>-42.47984856118281,173.52871025007965</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -20417,7 +20417,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-42.479876324660495,173.5288314745539</t>
+          <t>-42.4798772829374,173.5288356587179</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -20464,7 +20464,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-42.47985982097887,173.52875941397158</t>
+          <t>-42.47986016702428,173.52876092491888</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -20511,7 +20511,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-42.47988401749009,173.5288650640962</t>
+          <t>-42.479884470009175,173.5288670399519</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -20558,7 +20558,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-42.47988537504723,173.52887099166335</t>
+          <t>-42.47988481605315,173.5288685509004</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -20605,7 +20605,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-42.47988396425255,173.5288648316426</t>
+          <t>-42.479884789434394,173.52886843467357</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -20652,7 +20652,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-42.479818721289774,173.52857996003905</t>
+          <t>-42.4798191738138,173.52858193589066</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -20699,7 +20699,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-42.479855029578886,173.52873849316438</t>
+          <t>-42.47985521591117,173.52873930675128</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -20746,7 +20746,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-42.47985771808712,173.52875023206136</t>
+          <t>-42.47985793103823,173.52875116187502</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -20789,7 +20789,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-42.479851489264206,173.5287230350144</t>
+          <t>-42.47985183531009,173.52872454596132</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -20832,7 +20832,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-42.47984579281364,173.52869816250606</t>
+          <t>-42.47984520719692,173.52869560551946</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -20879,7 +20879,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-42.479867966350014,173.5287949793511</t>
+          <t>-42.47986807282538,173.52879544425807</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -20926,7 +20926,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-42.47990917217517,173.52897489846958</t>
+          <t>-42.479909837641586,173.528977804142</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -20973,7 +20973,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-42.47987645775453,173.5288320556878</t>
+          <t>-42.479876883655386,173.52883391531623</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-42.479887957066815,173.52888226566427</t>
+          <t>-42.47988891534184,173.5288864498298</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -21067,7 +21067,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-42.479875180051806,173.52882647680264</t>
+          <t>-42.47987435486864,173.52882287377275</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -21114,7 +21114,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-42.47987214550672,173.52881322695129</t>
+          <t>-42.47987230521966,173.52881392431186</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -21161,7 +21161,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-42.47987022895115,173.52880485862477</t>
+          <t>-42.479869563480314,173.52880195295597</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-42.479879385822265,173.52884484063378</t>
+          <t>-42.47988015776715,173.52884821121066</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -21255,7 +21255,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-42.47985793103823,173.52875116187502</t>
+          <t>-42.47985710585268,173.52874755884713</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -21302,7 +21302,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-42.479851861929006,173.528724662188</t>
+          <t>-42.47985164897771,173.52872373237452</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -21337,7 +21337,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-42.4799421792204,173.52911901989575</t>
+          <t>-42.4799424454055,173.5291201821659</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -21376,7 +21376,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-42.479874141918124,173.52882194395863</t>
+          <t>-42.479874913863696,173.52882531453494</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -21419,7 +21419,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>-42.47990222470129,173.528944563253</t>
+          <t>-42.4799012930471,173.52894049531258</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -21458,7 +21458,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-42.47982023857606,173.52858658495342</t>
+          <t>-42.479820664480926,173.52858844457856</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -21505,7 +21505,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-42.47985074393454,173.52871978066727</t>
+          <t>-42.479850717315635,173.5287196644406</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -21552,7 +21552,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-42.47989093836639,173.52889528306855</t>
+          <t>-42.47989035275409,173.52889272607834</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -21599,7 +21599,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-42.47988039733623,173.52884925725175</t>
+          <t>-42.479881382231255,173.5288535576431</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -21646,7 +21646,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-42.47986567712919,173.52878498385135</t>
+          <t>-42.479864985038986,173.52878196195624</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -21693,7 +21693,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>-42.47988183475053,173.52885553349861</t>
+          <t>-42.47988250021999,173.52885843916854</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -21740,7 +21740,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-42.47982750557349,173.5286183148108</t>
+          <t>-42.47982782500174,173.52861970952998</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -21787,7 +21787,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-42.479898631177164,173.52892887262632</t>
+          <t>-42.479899616069176,173.52893317302014</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -21830,7 +21830,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-42.4798538849661,173.52873349541645</t>
+          <t>-42.47985348568251,173.52873175201606</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -21877,7 +21877,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-42.47989370671465,173.52890737065934</t>
+          <t>-42.47989399952065,173.5289086491546</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -21924,7 +21924,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>-42.47987012247581,173.52880439371776</t>
+          <t>-42.47987017571348,173.52880462617128</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -21971,7 +21971,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-42.47989253549054,173.5289022566785</t>
+          <t>-42.47989184340346,173.52889923478082</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -22018,7 +22018,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-42.47988396425255,173.5288648316426</t>
+          <t>-42.479884496627946,173.5288671561787</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -22065,7 +22065,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>-42.47992005919652,173.52902243527828</t>
+          <t>-42.47991939373123,173.52901952960488</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-42.479853139636724,173.52873024106907</t>
+          <t>-42.479853459063605,173.52873163578937</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -22151,7 +22151,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>-42.47986418647328,173.52877847515424</t>
+          <t>-42.47986400014127,173.52877766156712</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -22198,7 +22198,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>-42.47986415985442,173.5287783589275</t>
+          <t>-42.479864239711006,173.5287787076077</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -22241,7 +22241,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>-42.47984959932092,173.52871478292002</t>
+          <t>-42.47984991874801,173.52871617764018</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -22288,7 +22288,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>-42.47988577432868,173.52887273506548</t>
+          <t>-42.47988510885958,173.52886982939526</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -22335,7 +22335,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>-42.47987808150136,173.52883914552132</t>
+          <t>-42.47987856063968,173.52884123760344</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -22382,7 +22382,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>-42.47985095688588,173.5287207104807</t>
+          <t>-42.4798509835048,173.5287208267074</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -22429,7 +22429,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>-42.47988276640776,173.52885960143655</t>
+          <t>-42.47988263331388,173.52885902030255</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -22476,7 +22476,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>-42.47986405337898,173.52877789402058</t>
+          <t>-42.479864213092135,173.52877859138096</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -22523,7 +22523,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>-42.47985188854793,173.5287247784147</t>
+          <t>-42.47985268711527,173.52872826521534</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -22570,7 +22570,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>-42.47988047719259,173.52884960593212</t>
+          <t>-42.47988143546882,173.52885379009666</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -22617,7 +22617,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>-42.47985021155614,173.52871745613365</t>
+          <t>-42.479849759034465,173.52871548028008</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -22664,7 +22664,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>-42.47987020233231,173.52880474239802</t>
+          <t>-42.479869669955654,173.52880241786298</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -22711,7 +22711,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>-42.479844648199084,173.5286931647596</t>
+          <t>-42.4798439827254,173.52869025909314</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -22758,7 +22758,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>-42.47987826783293,173.5288399591088</t>
+          <t>-42.47987885344641,173.52884251609808</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -22805,7 +22805,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>-42.47987869373366,173.52884181873736</t>
+          <t>-42.479878321070515,173.52884019156238</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -22848,7 +22848,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>-42.47989005994792,173.52889144758325</t>
+          <t>-42.47989003332917,173.52889133135642</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -22891,7 +22891,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>-42.47988388439624,173.5288644829622</t>
+          <t>-42.47988431029656,173.52886634259107</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -22930,7 +22930,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>-42.479855322386776,173.52873977165805</t>
+          <t>-42.47985510943559,173.52873884184447</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -22969,7 +22969,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>-42.47986213682082,173.5287695256962</t>
+          <t>-42.479861710918904,173.52876766606863</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -23016,7 +23016,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>-42.47982723938326,173.52861715254485</t>
+          <t>-42.47982654728862,173.52861413065338</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -23063,7 +23063,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>-42.47987086780308,173.5288076480669</t>
+          <t>-42.47987092104072,173.52880788052042</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -23110,7 +23110,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>-42.479842119398704,173.52868212322733</t>
+          <t>-42.47984235896932,173.5286831692672</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -23157,7 +23157,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>-42.4798744613439,173.52882333867984</t>
+          <t>-42.479874008824055,173.52882136282477</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -23204,7 +23204,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>-42.479867221022396,173.52879172500224</t>
+          <t>-42.47986809944421,173.5287955604848</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -23251,7 +23251,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>-42.47987709660579,173.52883484513043</t>
+          <t>-42.47987765560059,173.52883728589285</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -23298,7 +23298,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>-42.479841879828086,173.52868107718749</t>
+          <t>-42.479841826590174,173.5286808447342</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -23345,7 +23345,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>-42.479870441901795,173.52880578843883</t>
+          <t>-42.47987057499595,173.5288063695726</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -23392,7 +23392,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>-42.47986099220939,173.52876452794715</t>
+          <t>-42.47986048645078,173.5287623196395</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -23439,7 +23439,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>-42.479861577824565,173.52876708493503</t>
+          <t>-42.479862110201935,173.52876940946948</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -23486,7 +23486,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-42.47983322866049,173.52864330353145</t>
+          <t>-42.47983253656653,173.5286402816394</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -23533,7 +23533,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>-42.47988926138556,173.5288879607785</t>
+          <t>-42.47988832972934,173.52888389283973</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -23580,7 +23580,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>-42.47988753116675,173.5288804060352</t>
+          <t>-42.47988745131049,173.52888005735477</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -23627,7 +23627,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>-42.479871639749064,173.52881101864287</t>
+          <t>-42.47987219874437,173.52881345940483</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -23674,7 +23674,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>-42.479879758485325,173.52884646780882</t>
+          <t>-42.479879332584666,173.5288446081802</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -23721,7 +23721,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>-42.4798721188879,173.52881311072454</t>
+          <t>-42.4798713735608,173.5288098563753</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -23768,7 +23768,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>-42.479880211004726,173.52884844366423</t>
+          <t>-42.47987991819805,173.52884716516957</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -23815,7 +23815,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>-42.479820930671444,173.52858960684426</t>
+          <t>-42.47982098390954,173.52858983929744</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -23862,7 +23862,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>-42.479857904419326,173.52875104564833</t>
+          <t>-42.47985846341593,173.52875348640922</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -23909,7 +23909,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>-42.479866289362754,173.52878765706632</t>
+          <t>-42.47986684835855,173.52879009782788</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -23956,7 +23956,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>-42.47987959877258,173.52884577044807</t>
+          <t>-42.479880131148356,173.52884809498386</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -23999,7 +23999,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>-42.47985212811814,173.52872582445488</t>
+          <t>-42.47985154250203,173.5287232674678</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -24069,7 +24069,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>-42.479802643355235,173.52850975921157</t>
+          <t>-42.47980251025956,173.52850917807902</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -24108,7 +24108,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>-42.479852660496356,173.52872814898865</t>
+          <t>-42.47985337920689,173.5287312871093</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -24151,7 +24151,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>-42.47985196840466,173.52872512709476</t>
+          <t>-42.47985247416399,173.52872733540184</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -24198,7 +24198,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>-42.47993637638209,173.52909368240836</t>
+          <t>-42.47993597710403,173.52909193900342</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -24245,7 +24245,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>-42.47989777937853,173.52892515336694</t>
+          <t>-42.47989695419851,173.5289215503345</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -24292,7 +24292,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>-42.47990020168057,173.52893573001109</t>
+          <t>-42.47990022829927,173.52893584623794</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -24339,7 +24339,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>-42.47990411462793,173.52895281536107</t>
+          <t>-42.47990454052682,173.5289546749911</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>-42.47989218944702,173.52890074572966</t>
+          <t>-42.47989320095882,173.52890516234942</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -24433,7 +24433,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>-42.479879385822265,173.52884484063378</t>
+          <t>-42.47987885344641,173.52884251609808</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -24480,7 +24480,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>-42.47986586346114,173.52878579743853</t>
+          <t>-42.479865277846386,173.5287832404503</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -24527,7 +24527,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>-42.47986402676012,173.52877777779386</t>
+          <t>-42.47986368071495,173.52877626684634</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -24593,7 +24593,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>-42.47987840092691,173.52884054024273</t>
+          <t>-42.47987895992159,173.5288429810052</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -24640,7 +24640,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>-42.47987856063968,173.52884123760344</t>
+          <t>-42.47987914625313,173.52884379459272</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -24687,7 +24687,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>-42.47985753175491,173.5287494184744</t>
+          <t>-42.47985699937712,173.52874709394027</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -24734,7 +24734,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>-42.479850584221026,173.52871908330718</t>
+          <t>-42.479850397888576,173.52871826972043</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -24781,7 +24781,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>-42.479859182125765,173.52875662453044</t>
+          <t>-42.479859208744635,173.52875674075716</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -24828,7 +24828,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>-42.47986219005854,173.52876975814965</t>
+          <t>-42.479861258398124,173.52876569021436</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -24875,7 +24875,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>-42.479894771463655,173.528912019733</t>
+          <t>-42.4798951973632,173.52891387936253</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -24918,7 +24918,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>-42.479903182974034,173.5289487474204</t>
+          <t>-42.47990350239826,173.5289501421429</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -24965,7 +24965,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>-42.47984073521279,173.52867607944162</t>
+          <t>-42.47984132082995,173.52867863642786</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -25012,7 +25012,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>-42.47988420382148,173.52886587768384</t>
+          <t>-42.47988404410887,173.528865180323</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -25059,7 +25059,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>-42.47989998873097,173.5289348001962</t>
+          <t>-42.47989966930658,173.52893340547385</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -25106,7 +25106,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>-42.47988372468362,173.52886378560137</t>
+          <t>-42.47988457648425,173.52886750485914</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -25153,7 +25153,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>-42.47985250078289,173.5287274516285</t>
+          <t>-42.47985340582579,173.52873140333597</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -25200,7 +25200,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>-42.47987973186653,173.52884635158202</t>
+          <t>-42.47988031747988,173.5288489085714</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -25247,7 +25247,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>-42.47989855132105,173.52892852394575</t>
+          <t>-42.47989889736421,173.52893003489493</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -25294,7 +25294,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>-42.4798951973632,173.52891387936253</t>
+          <t>-42.47989487793854,173.5289124846404</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -25341,7 +25341,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>-42.47989117793504,173.52889632911004</t>
+          <t>-42.47989016642289,173.52889191249056</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -25384,7 +25384,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>-42.47987086780308,173.5288076480669</t>
+          <t>-42.47987068147126,173.5288068344796</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -25427,7 +25427,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>-42.47987531314585,173.5288270579365</t>
+          <t>-42.47987573904677,173.52882891756485</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -25474,7 +25474,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>-42.479861844013264,173.52876824720224</t>
+          <t>-42.479862482866075,173.52877103664363</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -25521,7 +25521,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>-42.47987230521966,173.52881392431186</t>
+          <t>-42.479872997309016,173.52881694620768</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -25568,7 +25568,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>-42.479858490034815,173.52875360263593</t>
+          <t>-42.47985809075154,173.52875185923529</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -25615,7 +25615,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>-42.47987770883818,173.5288375183464</t>
+          <t>-42.47987824121414,173.52883984288204</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -25662,7 +25662,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>-42.479883325402035,173.52886204219934</t>
+          <t>-42.47988303259552,173.52886076370453</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -25709,7 +25709,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>-42.479900334774065,173.5289363111454</t>
+          <t>-42.47989932326346,173.52893189452465</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -25744,7 +25744,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>-42.47983647617717,173.5286574831796</t>
+          <t>-42.479835943797504,173.528655158647</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -25791,7 +25791,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>-42.479891044841345,173.5288957479759</t>
+          <t>-42.47989088512891,173.52889505061492</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -25838,7 +25838,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>-42.47990227793868,173.52894479570674</t>
+          <t>-42.47990286354981,173.5289473526979</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -25885,7 +25885,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>-42.47983860569536,173.5286667813103</t>
+          <t>-42.479838259648716,173.52866527036403</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -25924,7 +25924,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>-42.47983807331589,173.52866445677756</t>
+          <t>-42.479837381222495,173.52866143488507</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -25971,7 +25971,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>-42.479866369219295,173.52878800574655</t>
+          <t>-42.47986530446523,173.52878335667702</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -26018,7 +26018,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>-42.47989799232821,173.52892608318177</t>
+          <t>-42.479898790889386,173.5289295699875</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -26065,7 +26065,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>-42.47986959009914,173.52880206918272</t>
+          <t>-42.479870335426476,173.5288053235318</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -26112,7 +26112,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>-42.47986104544713,173.5287647604006</t>
+          <t>-42.47986147134908,173.5287666200281</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -26159,7 +26159,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>-42.47988681246034,173.52887726791118</t>
+          <t>-42.479886546272745,173.52887610564304</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -26206,7 +26206,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>-42.47988053043016,173.52884983838572</t>
+          <t>-42.47987951891621,173.52884542176773</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -26253,7 +26253,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>-42.479875579333935,173.52882822020422</t>
+          <t>-42.4798762980417,173.52883135832712</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -26292,7 +26292,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>-42.479874168536945,173.52882206018538</t>
+          <t>-42.47987342321011,173.52881880583593</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -26335,7 +26335,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>-42.47987440810626,173.5288231062263</t>
+          <t>-42.47987504695774,173.52882589566877</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -26382,7 +26382,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>-42.47985066407778,173.52871943198724</t>
+          <t>-42.47985132955071,173.5287223376543</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -26429,7 +26429,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>-42.479869749812146,173.52880276654324</t>
+          <t>-42.479869430386124,173.52880137182223</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
@@ -26472,7 +26472,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>-42.47990102686016,173.52893933304392</t>
+          <t>-42.479900521104945,173.52893712473346</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -26519,7 +26519,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>-42.47985308639891,173.52873000861567</t>
+          <t>-42.47985380510938,173.52873314673636</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -26566,7 +26566,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>-42.47988122251856,173.5288528602823</t>
+          <t>-42.47988202108198,173.52885634708616</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -26613,7 +26613,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>-42.479901159953634,173.52893991417824</t>
+          <t>-42.47990147937795,173.52894130890064</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -26660,7 +26660,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>-42.479834027230325,173.52864679033004</t>
+          <t>-42.47983370780241,173.5286453956106</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -26707,7 +26707,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>-42.47987411529931,173.52882182773183</t>
+          <t>-42.4798739023488,173.52882089791768</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -26754,7 +26754,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>-42.47989849808363,173.52892829149204</t>
+          <t>-42.47989788585337,173.52892561827434</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -26801,7 +26801,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>-42.479897353479174,173.52892329373728</t>
+          <t>-42.47989793909078,173.52892585072806</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -26848,7 +26848,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>-42.47987970524775,173.52884623535522</t>
+          <t>-42.47988029086108,173.5288487923446</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -26895,7 +26895,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>-42.479882047700755,173.528856463313</t>
+          <t>-42.4798815951815,173.52885448745747</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -26942,7 +26942,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>-42.479878161357746,173.52883949420166</t>
+          <t>-42.47987826783293,173.5288399591088</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -26989,7 +26989,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>-42.479889421098044,173.52888865813946</t>
+          <t>-42.47988907505433,173.52888714719074</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -27036,7 +27036,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>-42.47987464767559,173.52882415226722</t>
+          <t>-42.479874301631014,173.52882264131924</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -27083,7 +27083,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>-42.47988691893535,173.52887773281844</t>
+          <t>-42.47988721174169,173.5288790113134</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -27130,7 +27130,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>-42.47988809016057,173.52888284679838</t>
+          <t>-42.47988864915434,173.5288852875616</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -27177,7 +27177,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>-42.47985537562456,173.52874000411146</t>
+          <t>-42.479854843246585,173.5287376795775</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -27224,7 +27224,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>-42.479895889449885,173.52891690126054</t>
+          <t>-42.47989647506164,173.52891945825118</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -27271,7 +27271,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>-42.479865490797216,173.5287841702642</t>
+          <t>-42.479865064895556,173.52878231063642</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -27318,7 +27318,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>-42.47987038866414,173.52880555598531</t>
+          <t>-42.479870255569985,173.52880497485154</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -27365,7 +27365,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>-42.479881515325154,173.52885413877706</t>
+          <t>-42.47988084985559,173.52885123310722</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -27412,7 +27412,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>-42.47985212811814,173.52872582445488</t>
+          <t>-42.47985297992328,173.52872954370892</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -27459,7 +27459,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>-42.479867221022396,173.52879172500224</t>
+          <t>-42.4798668749774,173.5287902140546</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -27506,7 +27506,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>-42.479860859115014,173.52876394681357</t>
+          <t>-42.479860646164035,173.5287630169998</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -27553,7 +27553,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>-42.47990523261244,173.52895769689002</t>
+          <t>-42.479906111028676,173.52896153237717</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -27600,7 +27600,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>-42.47987834768931,173.52884030778915</t>
+          <t>-42.47987880020882,173.52884228364448</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -27647,7 +27647,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>-42.47988566785362,173.52887227015827</t>
+          <t>-42.479885321809704,173.52887075920972</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -27694,7 +27694,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>-42.47991034339603,173.5289800124531</t>
+          <t>-42.47991015706545,173.5289791988648</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -27741,7 +27741,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>-42.47984190644705,173.52868119341414</t>
+          <t>-42.47984198630393,173.5286815420941</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -27788,7 +27788,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>-42.47988100956828,173.52885193046797</t>
+          <t>-42.47988034409867,173.52884902479818</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -27827,7 +27827,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>-42.47980913842008,173.52853811848198</t>
+          <t>-42.47980921827739,173.52853846716155</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -27866,7 +27866,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>-42.479820611242815,173.5285882121254</t>
+          <t>-42.47982037167132,173.52858716608628</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -27909,7 +27909,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>-42.479859182125765,173.52875662453044</t>
+          <t>-42.479859554790075,173.52875825170443</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -27956,7 +27956,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>-42.47985423101185,173.5287350063635</t>
+          <t>-42.479854843246585,173.5287376795775</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -28003,7 +28003,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>-42.47985154250203,173.5287232674678</t>
+          <t>-42.47985063745887,173.52871931576055</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -28042,7 +28042,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>-42.479834586229146,173.5286492310891</t>
+          <t>-42.47983535817982,173.5286526016612</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -28089,7 +28089,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>-42.479828410620165,173.52862226651519</t>
+          <t>-42.47982827752507,173.52862168538218</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -28132,7 +28132,7 @@
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr">
         <is>
-          <t>-42.47989120455377,173.52889644533687</t>
+          <t>-42.479892029734614,173.52890004836866</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -28179,7 +28179,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>-42.479885800947436,173.5288728512923</t>
+          <t>-42.47988518871587,173.52887017807566</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -28226,7 +28226,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>-42.47985771808712,173.52875023206136</t>
+          <t>-42.47985737204158,173.52874872111417</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -28273,7 +28273,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>-42.47988960742926,173.52888947172724</t>
+          <t>-42.479889500954286,173.52888900681992</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -28320,7 +28320,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>-42.47986360085836,173.52877591816616</t>
+          <t>-42.47986429294872,173.52877894006116</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -28367,7 +28367,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>-42.479882686551434,173.52885925275612</t>
+          <t>-42.479882234032225,173.52885727690057</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -28414,7 +28414,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>-42.47983290923251,173.52864190881203</t>
+          <t>-42.47983325527948,173.52864341975808</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -28461,7 +28461,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>-42.479870282188806,173.52880509107828</t>
+          <t>-42.47987001600049,173.52880392881076</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -28508,7 +28508,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>-42.47989091174764,173.52889516684172</t>
+          <t>-42.479891044841345,173.5288957479759</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -28555,7 +28555,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>-42.47990816066606,173.52897048184758</t>
+          <t>-42.47990746858079,173.5289674599484</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -28602,7 +28602,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>-42.47987683041777,173.52883368286265</t>
+          <t>-42.4798772829374,173.5288356587179</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -28649,7 +28649,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>-42.479909677929655,173.52897710678062</t>
+          <t>-42.47991029015871,173.52897977999928</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -28696,7 +28696,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>-42.479865277846386,173.5287832404503</t>
+          <t>-42.47986589007999,173.52878591366525</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -28743,7 +28743,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>-42.47987911963434,173.52884367836592</t>
+          <t>-42.47987864049607,173.52884158628376</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -28786,7 +28786,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>-42.479864239711006,173.5287787076077</t>
+          <t>-42.47986405337898,173.52877789402058</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -28829,7 +28829,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>-42.47986546417835,173.52878405403743</t>
+          <t>-42.47986591669884,173.528786029892</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -28876,7 +28876,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>-42.479903236211406,173.52894897987414</t>
+          <t>-42.479903848441126,173.5289516530923</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -28923,7 +28923,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>-42.47985750513601,173.52874930224772</t>
+          <t>-42.47985660009375,173.5287453505397</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -28970,7 +28970,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>-42.479871453417275,173.52881020505555</t>
+          <t>-42.4798721188879,173.52881311072454</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -29017,7 +29017,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>-42.47989375995212,173.52890760311303</t>
+          <t>-42.47989293477152,173.52890400008104</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -29064,7 +29064,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>-42.479874008824055,173.52882136282477</t>
+          <t>-42.47987443472508,173.52882322245304</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -29111,7 +29111,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>-42.479874514581525,173.52882357113336</t>
+          <t>-42.479874754150835,173.5288246171743</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -29158,7 +29158,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>-42.47990302326192,173.52894805005917</t>
+          <t>-42.479902890168496,173.5289474689248</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -29205,7 +29205,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>-42.47993006778545,173.5290661366131</t>
+          <t>-42.47993089296091,173.5290697396493</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -29252,7 +29252,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>-42.47994992520218,173.52915284196183</t>
+          <t>-42.479949579161975,173.52915133101024</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -29299,7 +29299,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>-42.479911487997995,173.5289850102099</t>
+          <t>-42.47991146137935,173.528984893983</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -29346,7 +29346,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>-42.47991902107065,173.52901790242782</t>
+          <t>-42.479919686535965,173.52902080810114</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -29393,7 +29393,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>-42.47989147074115,173.52889760760516</t>
+          <t>-42.47989216282828,173.5289006295028</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -29440,7 +29440,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>-42.47990022829927,173.52893584623794</t>
+          <t>-42.47989993549358,173.52893456774248</t>
         </is>
       </c>
       <c r="H229" t="inlineStr"/>
@@ -29483,7 +29483,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>-42.47992620809224,173.52904928370307</t>
+          <t>-42.47992591528782,173.52904800520653</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -29530,7 +29530,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>-42.479891044841345,173.5288957479759</t>
+          <t>-42.47989173692853,173.5288987698735</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -29577,7 +29577,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>-42.47993238360018,173.52907624836007</t>
+          <t>-42.479931372094995,173.52907183173488</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -29624,7 +29624,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>-42.47989607578091,173.52891771484846</t>
+          <t>-42.479896661392644,173.52892027183913</t>
         </is>
       </c>
       <c r="H233" t="inlineStr"/>
@@ -29663,7 +29663,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>-42.479906190884684,173.5289618810578</t>
+          <t>-42.47990674987676,173.52896432182243</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -29710,7 +29710,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>-42.47994098138726,173.52911378968008</t>
+          <t>-42.479940475635416,173.52911158136686</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -29757,7 +29757,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>-42.479911221811506,173.52898384794085</t>
+          <t>-42.479911780803114,173.52898628870588</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -29804,7 +29804,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>-42.47990794771675,173.52896955203246</t>
+          <t>-42.47990863980197,173.52897257393167</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -29851,7 +29851,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>-42.47995807045055,173.52918840744226</t>
+          <t>-42.479957351752624,173.52918526931128</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -29898,7 +29898,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>-42.47994803529002,173.52914458984185</t>
+          <t>-42.47994784896062,173.52914377625257</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -29945,7 +29945,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>-42.479919207400954,173.52901871601634</t>
+          <t>-42.47992005919652,173.52902243527828</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -29992,7 +29992,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>-42.47995748484484,173.52918585044662</t>
+          <t>-42.47995655319925,173.52918178249914</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -30039,7 +30039,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>-42.479929482176985,173.5290635796197</t>
+          <t>-42.47993030735254,173.52906718265584</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -30086,7 +30086,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>-42.47996389988621,173.52921386117407</t>
+          <t>-42.479963953123026,173.52921409362827</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -30133,7 +30133,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>-42.479921789405914,173.5290299900293</t>
+          <t>-42.47992123041523,173.52902754926353</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -30180,7 +30180,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>-42.47989706067335,173.5289220152419</t>
+          <t>-42.47989764628498,173.52892457223265</t>
         </is>
       </c>
       <c r="H245" t="inlineStr"/>
@@ -30223,7 +30223,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>-42.47993296920837,173.5290788053537</t>
+          <t>-42.47993195770328,173.52907438872842</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -30270,7 +30270,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>-42.47994542667791,173.52913319959256</t>
+          <t>-42.47994494754493,173.52913110750606</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -30317,7 +30317,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>-42.4799238922751,173.52903917195806</t>
+          <t>-42.479923546233394,173.52903766100772</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -30364,7 +30364,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>-42.47992381241932,173.5290388232772</t>
+          <t>-42.4799235196148,173.52903754478075</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -30411,7 +30411,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>-42.479941433902034,173.5291157655393</t>
+          <t>-42.47994084829468,173.52911320854503</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -30458,7 +30458,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>-42.479969010619634,173.5292361767784</t>
+          <t>-42.47996951636905,173.5292383850936</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -30505,7 +30505,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>-42.47992873685704,173.5290603252646</t>
+          <t>-42.47992815124844,173.52905776827131</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -30552,7 +30552,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>-42.4799405821095,173.5291120462749</t>
+          <t>-42.47994111447984,173.52911437081514</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -30599,7 +30599,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>-42.479926447659466,173.52905032974573</t>
+          <t>-42.47992674046386,173.52905160824227</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -30646,7 +30646,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>-42.479956979094396,173.52918364213227</t>
+          <t>-42.47995687262061,173.52918317722398</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -30693,7 +30693,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>-42.47994502740044,173.52913145618712</t>
+          <t>-42.47994555977038,173.52913378072768</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -30740,7 +30740,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>-42.47998700462547,173.52931474633056</t>
+          <t>-42.47998615283943,173.52931102706083</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -30787,7 +30787,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>-42.47996610921422,173.52922350802342</t>
+          <t>-42.47996570993813,173.52922176461686</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -30873,7 +30873,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>-42.47994678422108,173.52913912717113</t>
+          <t>-42.479946917313534,173.52913970830633</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -30955,7 +30955,7 @@
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr">
         <is>
-          <t>-42.479947236735406,173.52914110303075</t>
+          <t>-42.47994619861425,173.52913657017643</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -30994,7 +30994,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>-42.47993653609331,173.52909437977033</t>
+          <t>-42.47993714831962,173.52909705299126</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -31041,7 +31041,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>-42.47994170008717,173.52911692780947</t>
+          <t>-42.47994207274635,173.5291185549877</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -31088,7 +31088,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>-42.47995958770148,173.52919503238573</t>
+          <t>-42.47995918842496,173.5291932889795</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -31135,7 +31135,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>-42.47993871881291,173.52910391038435</t>
+          <t>-42.47993789363853,173.52910030734728</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -31182,7 +31182,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>-42.47993427351728,173.529084500476</t>
+          <t>-42.47993483250674,173.52908694124275</t>
         </is>
       </c>
       <c r="H267" t="inlineStr"/>
@@ -31225,7 +31225,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>-42.47993975693537,173.5291084432376</t>
+          <t>-42.47993893176111,173.5291048402004</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -31272,7 +31272,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>-42.479932649785724,173.5290774106299</t>
+          <t>-42.47993209079607,173.5290749698633</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -31319,7 +31319,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>-42.47993717493816,173.52909716921826</t>
+          <t>-42.47993661594892,173.52909472845133</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -31366,7 +31366,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>-42.47994569286286,173.52913436186284</t>
+          <t>-42.47994574609985,173.5291345943169</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -31413,7 +31413,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>-42.479949605780455,173.52915144723727</t>
+          <t>-42.47994941945109,173.529150633648</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -31499,7 +31499,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>-42.47993624328941,173.52909310127336</t>
+          <t>-42.47993706846402,173.5290967043103</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -31546,7 +31546,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>-42.47995351869548,173.52916853261385</t>
+          <t>-42.47995317265548,173.5291670216621</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -31573,7 +31573,7 @@
       <c r="F276" t="inlineStr"/>
       <c r="G276" t="inlineStr">
         <is>
-          <t>-42.479924371409766,173.52904126404317</t>
+          <t>-42.479925143348844,173.5290446346248</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -31612,7 +31612,7 @@
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr">
         <is>
-          <t>-42.479910902387715,173.52898245321805</t>
+          <t>-42.47991167432853,173.52898582379825</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -31659,7 +31659,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>-42.47995737837106,173.52918538553834</t>
+          <t>-42.479957724410816,173.52918689649027</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -31741,7 +31741,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>-42.47993938427604,173.52910681605948</t>
+          <t>-42.47993906485375,173.52910542133543</t>
         </is>
       </c>
       <c r="H280" t="inlineStr"/>
@@ -31784,7 +31784,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>-42.479929215991305,173.52906241735002</t>
+          <t>-42.47992889656847,173.5290610226264</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -31831,7 +31831,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>-42.47993722817523,173.52909740167226</t>
+          <t>-42.47993792025705,173.52910042357425</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -31956,7 +31956,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>-42.47990954483637,173.52897652564613</t>
+          <t>-42.47991015706545,173.5289791988648</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -32003,7 +32003,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>-42.4799602531623,173.52919793806274</t>
+          <t>-42.479959933741114,173.52919654333778</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -32050,7 +32050,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>-42.47993065339386,173.52906869360652</t>
+          <t>-42.4799306267753,173.52906857737952</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -32097,7 +32097,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>-42.4799508568488,173.52915690990847</t>
+          <t>-42.479950750374904,173.52915644500027</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -32132,7 +32132,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>-42.479935870629866,173.52909147409545</t>
+          <t>-42.479936403000636,173.52909379863533</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -32179,7 +32179,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>-42.47991699805559,173.52900906918126</t>
+          <t>-42.47991643906448,173.52900662841586</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -32226,7 +32226,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>-42.47994566624436,173.5291342456358</t>
+          <t>-42.479945346822404,173.52913285091145</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -32273,7 +32273,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>-42.47992687355676,173.52905218937707</t>
+          <t>-42.4799265541338,173.52905079465356</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -32320,7 +32320,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>-42.479958176924306,173.52918887235057</t>
+          <t>-42.479958869003724,173.52919189425455</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -32367,7 +32367,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>-42.47990371534771,173.52895107195792</t>
+          <t>-42.47990302326192,173.52894805005917</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -32453,7 +32453,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>-42.47995498271065,173.5291749251022</t>
+          <t>-42.47995516903983,173.52917573869166</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -32492,7 +32492,7 @@
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="inlineStr">
         <is>
-          <t>-42.47993927780194,173.52910635115148</t>
+          <t>-42.479940102976144,173.5291099541887</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -32566,7 +32566,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>-42.4799607056756,173.52919991392318</t>
+          <t>-42.47996019992542,173.5291977056086</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -32613,7 +32613,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>-42.47996464520176,173.52921711553282</t>
+          <t>-42.47996483153066,173.52921792912252</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -32660,7 +32660,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>-42.47996661496389,173.52922571633843</t>
+          <t>-42.47996704085831,173.52922757597213</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -32746,7 +32746,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>-42.47992721959828,173.52905370032758</t>
+          <t>-42.47992783182555,173.52905637354772</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -32793,7 +32793,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>-42.47994164685014,173.5291166953554</t>
+          <t>-42.47994209936485,173.5291186712147</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -32840,7 +32840,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>-42.479945879192314,173.52913517545204</t>
+          <t>-42.47994497416344,173.52913122373306</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -32887,7 +32887,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>-42.47997526593846,173.52926349015317</t>
+          <t>-42.4799757983057,173.52926581469598</t>
         </is>
       </c>
       <c r="H306" t="inlineStr"/>
@@ -32961,7 +32961,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>-42.479946358325215,173.5291372675386</t>
+          <t>-42.47994577271836,173.52913471054393</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -33008,7 +33008,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>-42.479943323816265,173.52912401765758</t>
+          <t>-42.47994289792015,173.52912215802525</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -33055,7 +33055,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>-42.47990499304435,173.52895665084807</t>
+          <t>-42.47990451390813,173.52895455876424</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -33086,7 +33086,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>-42.47994744968332,173.52914203284703</t>
+          <t>-42.47994776910516,173.52914342757148</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -33133,7 +33133,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>-42.47993608357818,173.5290924039114</t>
+          <t>-42.47993634976356,173.52909356618136</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -33180,7 +33180,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>-42.47995136259976,173.52915911822242</t>
+          <t>-42.479952054679956,173.52916214012575</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -33227,7 +33227,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>-42.479960545965014,173.52919921656067</t>
+          <t>-42.479960971859875,173.52920107619406</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
@@ -33274,7 +33274,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>-42.479970740814856,173.5292437315411</t>
+          <t>-42.47997082067,173.52924408022247</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -33321,7 +33321,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>-42.47994207274635,173.5291185549877</t>
+          <t>-42.47994209936485,173.5291186712147</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -33399,7 +33399,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>-42.47995077699338,173.52915656122732</t>
+          <t>-42.47995027124236,173.52915435291342</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -33446,7 +33446,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>-42.47994481445244,173.5291305263709</t>
+          <t>-42.47994388280488,173.52912645842503</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -33481,7 +33481,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>-42.479943190723745,173.52912343652247</t>
+          <t>-42.479942631735064,173.52912099575505</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -33516,7 +33516,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>-42.47995170863987,173.52916062917407</t>
+          <t>-42.47995240072002,173.52916365107745</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -33563,7 +33563,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>-42.47995008491305,173.52915353932408</t>
+          <t>-42.47994976549132,173.52915214459955</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -33590,7 +33590,7 @@
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr">
         <is>
-          <t>-42.4799184354611,173.52901534543534</t>
+          <t>-42.479918302368006,173.52901476430068</t>
         </is>
       </c>
       <c r="H323" t="inlineStr"/>
@@ -33633,7 +33633,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>-42.479928417434174,173.52905893054097</t>
+          <t>-42.47992761887694,173.529055443732</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -33660,7 +33660,7 @@
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr">
         <is>
-          <t>-42.479909811022935,173.52897768791513</t>
+          <t>-42.479910370014665,173.52898012868002</t>
         </is>
       </c>
       <c r="H325" t="inlineStr"/>
@@ -33703,7 +33703,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>-42.479910263540056,173.5289796637724</t>
+          <t>-42.479910902387715,173.52898245321805</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -33750,7 +33750,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>-42.479957857503024,173.52918747762567</t>
+          <t>-42.47995828339808,173.52918933725886</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -33820,7 +33820,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>-42.47992101746639,173.52902661944802</t>
+          <t>-42.47992096422917,173.52902638699413</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -33867,7 +33867,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>-42.479946358325215,173.5291372675386</t>
+          <t>-42.47994686407657,173.52913947585225</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -33914,7 +33914,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>-42.47994212598337,173.5291187874417</t>
+          <t>-42.47994252526103,173.52912053084697</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -33961,7 +33961,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>-42.479936589330386,173.5290946122243</t>
+          <t>-42.479936003722564,173.52909205523042</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -34008,7 +34008,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>-42.47993009440402,173.52906625284007</t>
+          <t>-42.47992945555841,173.52906346339276</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -34055,7 +34055,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>-42.47993978355389,173.52910855946462</t>
+          <t>-42.47994060872803,173.52911216250192</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
@@ -34141,7 +34141,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>-42.479929056279886,173.5290617199882</t>
+          <t>-42.47992937570272,173.52906311471182</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -34188,7 +34188,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>-42.47991883474034,173.5290170888393</t>
+          <t>-42.47991891459618,173.5290174375201</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -34235,7 +34235,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>-42.479894771463655,173.528912019733</t>
+          <t>-42.47989514412575,173.52891364690885</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
@@ -34321,7 +34321,7 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>-42.47993126562077,173.52907136682697</t>
+          <t>-42.47993107929085,173.52907055323814</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
@@ -34368,7 +34368,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>-42.47991146137935,173.528984893983</t>
+          <t>-42.47991210022687,173.52898768342874</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
@@ -34415,7 +34415,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>-42.47994454826744,173.52912936410064</t>
+          <t>-42.47994380294936,173.52912610974397</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
@@ -34462,7 +34462,7 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>-42.47992849728989,173.52905927922188</t>
+          <t>-42.47992924260986,173.529062533577</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
@@ -34509,7 +34509,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>-42.47997752849897,173.52927336946027</t>
+          <t>-42.47997683642173,173.52927034755447</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
@@ -34556,7 +34556,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>-42.479966402016665,173.52922478652158</t>
+          <t>-42.479965630082916,173.52922141593555</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
@@ -34603,7 +34603,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>-42.47996456534653,173.5292167668515</t>
+          <t>-42.4799640862151,173.52921467476375</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
@@ -34650,7 +34650,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>-42.47994414898991,173.52912762069528</t>
+          <t>-42.47994420222693,173.52912785314933</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
@@ -34744,7 +34744,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>-42.479959534464605,173.52919479993156</t>
+          <t>-42.47996022654385,173.52919782183568</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
@@ -34791,7 +34791,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>-42.479952640286214,173.52916469712093</t>
+          <t>-42.47995170863987,173.52916062917407</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -34908,7 +34908,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>-42.47993222388886,173.5290755509982</t>
+          <t>-42.47993158504348,173.52907276155068</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
@@ -34955,7 +34955,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>-42.479933474960845,173.52908101366637</t>
+          <t>-42.47993390085763,173.52908287329817</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
@@ -35002,7 +35002,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>-42.4799510431781,173.5291577234978</t>
+          <t>-42.47995162878446,173.52916028049293</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
@@ -35045,7 +35045,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>-42.47998583341963,173.5293096323347</t>
+          <t>-42.47998492839679,173.52930568061072</t>
         </is>
       </c>
       <c r="H356" t="inlineStr"/>
@@ -35088,7 +35088,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>-42.479886466416474,173.5288757569626</t>
+          <t>-42.479885880803735,173.52887319997274</t>
         </is>
       </c>
       <c r="H357" t="inlineStr"/>
@@ -35158,7 +35158,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>-42.47990009520578,173.52893526510366</t>
+          <t>-42.479900175061864,173.52893561378423</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
@@ -35244,7 +35244,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>-42.479935684300074,173.52909066050648</t>
+          <t>-42.47993557782593,173.5290901955985</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
@@ -35291,7 +35291,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>-42.479932623167166,173.52907729440292</t>
+          <t>-42.47993288935271,173.52907845667272</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
@@ -35334,7 +35334,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>-42.479907255631446,173.52896653013332</t>
+          <t>-42.47990738872478,173.52896711126775</t>
         </is>
       </c>
       <c r="H363" t="inlineStr"/>
@@ -35377,7 +35377,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>-42.4799392245649,173.52910611869746</t>
+          <t>-42.47993882528703,173.52910437529235</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
@@ -35424,7 +35424,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>-42.479956393488564,173.5291810851367</t>
+          <t>-42.479955648171966,173.52917783077882</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
@@ -35471,7 +35471,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>-42.47994739644635,173.52914180039295</t>
+          <t>-42.47994808852699,173.52914482229593</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
@@ -35518,7 +35518,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>-42.479946491417685,173.52913784867377</t>
+          <t>-42.47994585257382,173.529135059225</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
@@ -35565,7 +35565,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>-42.47994369647535,173.5291256448359</t>
+          <t>-42.479943669856844,173.52912552860886</t>
         </is>
       </c>
       <c r="H368" t="inlineStr"/>
@@ -35608,7 +35608,7 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>-42.479940182831704,173.52911030286973</t>
+          <t>-42.47994026268726,173.52911065155075</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
@@ -35655,7 +35655,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>-42.47996129128098,173.52920247091907</t>
+          <t>-42.479960732294025,173.52920003015026</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
@@ -35702,7 +35702,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>-42.479942392168475,173.52911994971186</t>
+          <t>-42.479942844683144,173.5291219255712</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
@@ -35733,7 +35733,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>-42.47994151375757,173.52911611422036</t>
+          <t>-42.479941593613106,173.5291164629014</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
@@ -35780,7 +35780,7 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>-42.47995269352313,173.52916492957507</t>
+          <t>-42.47995181511374,173.5291610940823</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
@@ -35827,7 +35827,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>-42.47995341222163,173.5291680677056</t>
+          <t>-42.47995423739388,173.52917167074446</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
@@ -35866,7 +35866,7 @@
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr">
         <is>
-          <t>-42.47992937570272,173.52906311471182</t>
+          <t>-42.47992956203269,173.52906392830064</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
@@ -35913,7 +35913,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>-42.47996501785952,173.52921874271223</t>
+          <t>-42.47996475167541,173.5292175804412</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
@@ -35960,7 +35960,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>-42.47994268497209,173.52912122820908</t>
+          <t>-42.47994295115718,173.52912239047927</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
@@ -36007,7 +36007,7 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>-42.479947955434575,173.5291442411607</t>
+          <t>-42.47994808852699,173.52914482229593</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
@@ -36069,7 +36069,7 @@
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="inlineStr">
         <is>
-          <t>-42.47993270302284,173.52907764308387</t>
+          <t>-42.47993190446618,173.52907415627445</t>
         </is>
       </c>
       <c r="H380" t="inlineStr"/>
@@ -36104,7 +36104,7 @@
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>-42.479917716758386,173.52901220730826</t>
+          <t>-42.47991758366529,173.52901162617363</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
@@ -36225,7 +36225,7 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>-42.47994031592431,173.52911088400478</t>
+          <t>-42.47994063534653,173.52911227872892</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
@@ -36272,7 +36272,7 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>-42.47996131789942,173.52920258714616</t>
+          <t>-42.47996086538616,173.5292006112857</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
@@ -36319,7 +36319,7 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>-42.479973535744534,173.52925593538941</t>
+          <t>-42.47997348250778,173.52925570293513</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
@@ -36366,7 +36366,7 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>-42.479956287014765,173.52918062022846</t>
+          <t>-42.479956899239056,173.52918329345104</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
@@ -36413,7 +36413,7 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>-42.479953279129326,173.52916748657032</t>
+          <t>-42.479952640286214,173.52916469712093</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
@@ -36460,7 +36460,7 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>-42.47995197482455,173.5291617914446</t>
+          <t>-42.47995242733849,173.5291637673045</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
@@ -36507,7 +36507,7 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>-42.47994686407657,173.52913947585225</t>
+          <t>-42.479946890695054,173.52913959207928</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
@@ -36554,7 +36554,7 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>-42.479931239002205,173.5290712506</t>
+          <t>-42.47993121238364,173.529071134373</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
@@ -36601,7 +36601,7 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>-42.479912180082806,173.52898803210948</t>
+          <t>-42.47991247288788,173.52898931060545</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
@@ -36648,7 +36648,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>-42.47992375918215,173.52903859082332</t>
+          <t>-42.47992407860526,173.52903998554672</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
@@ -36718,7 +36718,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>-42.47994808852699,173.52914482229593</t>
+          <t>-42.47994739644635,173.52914180039295</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
@@ -36765,7 +36765,7 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>-42.479949605780455,173.52915144723727</t>
+          <t>-42.47995037771627,173.5291548178216</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
@@ -36812,7 +36812,7 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>-42.47992620809224,173.52904928370307</t>
+          <t>-42.479925595864806,173.52904661048305</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
@@ -36859,7 +36859,7 @@
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>-42.47991721100459,173.52900999899666</t>
+          <t>-42.47991758366529,173.52901162617363</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
@@ -36906,7 +36906,7 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>-42.47994832809336,173.52914586833927</t>
+          <t>-42.479948860463004,173.5291481928801</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
@@ -36953,7 +36953,7 @@
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>-42.47994859427819,173.52914703060966</t>
+          <t>-42.479948008671535,173.52914447361482</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
@@ -37000,7 +37000,7 @@
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>-42.47992373256354,173.52903847459635</t>
+          <t>-42.47992463759566,173.52904242631269</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
@@ -37047,7 +37047,7 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>-42.4799683717782,173.52923338732765</t>
+          <t>-42.479969117093205,173.52923664168685</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
@@ -37094,7 +37094,7 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>-42.47993821306088,173.5291017020713</t>
+          <t>-42.47993754759762,173.52909879639626</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
@@ -37141,7 +37141,7 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>-42.479952054679956,173.52916214012575</t>
+          <t>-42.47995192158761,173.5291615589905</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
@@ -37188,7 +37188,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>-42.47994500078194,173.5291313399601</t>
+          <t>-42.47994518711141,173.52913215354928</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
@@ -37235,7 +37235,7 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>-42.47994257849805,173.52912076330102</t>
+          <t>-42.47994175332419,173.5291171602635</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
@@ -37282,7 +37282,7 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>-42.479919633298735,173.52902057564728</t>
+          <t>-42.479920511712855,173.5290244111362</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
@@ -37329,7 +37329,7 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>-42.47995543522436,173.5291769009623</t>
+          <t>-42.47995498271065,173.5291749251022</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
@@ -37376,7 +37376,7 @@
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>-42.47989562326271,173.52891573899203</t>
+          <t>-42.47989557002527,173.52891550653834</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
@@ -37423,7 +37423,7 @@
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>-42.47996278191268,173.5292089796361</t>
+          <t>-42.47996259558374,173.52920816604646</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
@@ -37470,7 +37470,7 @@
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>-42.479964538728126,173.52921665062442</t>
+          <t>-42.47996389988621,173.52921386117407</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
@@ -37564,7 +37564,7 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>-42.479955541698175,173.52917736587054</t>
+          <t>-42.479955621553515,173.52917771455176</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
@@ -37611,7 +37611,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>-42.47993608357818,173.5290924039114</t>
+          <t>-42.479936403000636,173.52909379863533</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
@@ -37658,7 +37658,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>-42.47990062757973,173.52893758964095</t>
+          <t>-42.479900175061864,173.52893561378423</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
@@ -37705,7 +37705,7 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>-42.47993842600912,173.52910263188733</t>
+          <t>-42.47993776054587,173.52909972621225</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
@@ -37752,7 +37752,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>-42.479934326754375,173.52908473292996</t>
+          <t>-42.47993448646566,173.5290854302919</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
@@ -37799,7 +37799,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>-42.47992008581513,173.5290225515052</t>
+          <t>-42.479920564950085,173.52902464359005</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
@@ -37846,7 +37846,7 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>-42.479925143348844,173.5290446346248</t>
+          <t>-42.47992447788412,173.529041728951</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
@@ -37893,7 +37893,7 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>-42.479945160492925,173.52913203732226</t>
+          <t>-42.479944388556426,173.5291286667385</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
@@ -37940,7 +37940,7 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>-42.47994183317974,173.52911750894455</t>
+          <t>-42.47994252526103,173.52912053084697</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
@@ -37987,7 +37987,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>-42.47992700664966,173.52905277051187</t>
+          <t>-42.47992634118514,173.52904986483787</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
